--- a/script/output/estimates.xlsx
+++ b/script/output/estimates.xlsx
@@ -1225,22 +1225,22 @@
         <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>0.11346577292203884</v>
+        <v>0.11931759598970827</v>
       </c>
       <c r="F32" t="n">
-        <v>0.038410658237380574</v>
+        <v>0.03758913253293577</v>
       </c>
       <c r="G32" t="n">
-        <v>2.954017924421195</v>
+        <v>3.1742577694540213</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0031366578679947743</v>
+        <v>0.0015022021802209018</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03818226615429618</v>
+        <v>0.04564425001505132</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1887492796897815</v>
+        <v>0.19299094196436523</v>
       </c>
     </row>
     <row r="33">
@@ -1257,22 +1257,22 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.14816648249568484</v>
+        <v>0.10865601626764826</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05620490356365837</v>
+        <v>0.05111460801627595</v>
       </c>
       <c r="G33" t="n">
-        <v>2.6361842668739683</v>
+        <v>2.125733141356575</v>
       </c>
       <c r="H33" t="n">
-        <v>0.008384418711558927</v>
+        <v>0.03352548577103276</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03800689575636752</v>
+        <v>0.008473225471865076</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2583260692350022</v>
+        <v>0.20883880706343144</v>
       </c>
     </row>
     <row r="34">
@@ -1289,22 +1289,22 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>0.24799794761472127</v>
+        <v>0.23504787870690588</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05829915297668318</v>
+        <v>0.07554190051117368</v>
       </c>
       <c r="G34" t="n">
-        <v>4.253885947775405</v>
+        <v>3.1114901414498974</v>
       </c>
       <c r="H34" t="n">
-        <v>2.1009233886148948E-5</v>
+        <v>0.0018614568932617814</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1337337074512312</v>
+        <v>0.08698847438129761</v>
       </c>
       <c r="J34" t="n">
-        <v>0.36226218777821134</v>
+        <v>0.3831072830325142</v>
       </c>
     </row>
     <row r="35">
@@ -1321,22 +1321,22 @@
         <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1598243138658634</v>
+        <v>0.17458651340057943</v>
       </c>
       <c r="F35" t="n">
-        <v>0.024134050864959178</v>
+        <v>0.031012966101203437</v>
       </c>
       <c r="G35" t="n">
-        <v>6.622357546196948</v>
+        <v>5.629468423976535</v>
       </c>
       <c r="H35" t="n">
-        <v>3.535149950550931E-11</v>
+        <v>1.807658600583295E-8</v>
       </c>
       <c r="I35" t="n">
-        <v>0.11252244336948569</v>
+        <v>0.11380221678845913</v>
       </c>
       <c r="J35" t="n">
-        <v>0.20712618436224112</v>
+        <v>0.23537081001269972</v>
       </c>
     </row>
     <row r="36">
@@ -1353,22 +1353,22 @@
         <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01189058526383437</v>
+        <v>0.017176636527578525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03257483934031141</v>
+        <v>0.032777145361611526</v>
       </c>
       <c r="G36" t="n">
-        <v>0.36502360424905467</v>
+        <v>0.5240430897223813</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7150937865286899</v>
+        <v>0.6002485699535791</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.05195492664535448</v>
+        <v>-0.04706538789721414</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07573609717302321</v>
+        <v>0.08141866095237119</v>
       </c>
     </row>
     <row r="37">
@@ -1385,22 +1385,22 @@
         <v>19</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09349018896940252</v>
+        <v>0.09278729360649635</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0396180866742076</v>
+        <v>0.03992028088225859</v>
       </c>
       <c r="G37" t="n">
-        <v>2.359785563048582</v>
+        <v>2.324314647989688</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01828550144310892</v>
+        <v>0.020108636306772842</v>
       </c>
       <c r="I37" t="n">
-        <v>0.015840165951569382</v>
+        <v>0.01454498082454668</v>
       </c>
       <c r="J37" t="n">
-        <v>0.17114021198723567</v>
+        <v>0.171029606388446</v>
       </c>
     </row>
     <row r="38">
@@ -1417,22 +1417,22 @@
         <v>20</v>
       </c>
       <c r="E38" t="n">
-        <v>0.18548556196632687</v>
+        <v>0.20176878376939267</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03895819480445559</v>
+        <v>0.04638115524841729</v>
       </c>
       <c r="G38" t="n">
-        <v>4.761143654046136</v>
+        <v>4.350231957111026</v>
       </c>
       <c r="H38" t="n">
-        <v>1.9249895815143248E-6</v>
+        <v>1.3599359911298237E-5</v>
       </c>
       <c r="I38" t="n">
-        <v>0.10912890324689849</v>
+        <v>0.1108633899211339</v>
       </c>
       <c r="J38" t="n">
-        <v>0.26184222068575524</v>
+        <v>0.29267417761765147</v>
       </c>
     </row>
     <row r="39">
@@ -1449,22 +1449,22 @@
         <v>21</v>
       </c>
       <c r="E39" t="n">
-        <v>0.26948503874675117</v>
+        <v>0.30900840243059063</v>
       </c>
       <c r="F39" t="n">
-        <v>0.026067346373541</v>
+        <v>0.031701156863329326</v>
       </c>
       <c r="G39" t="n">
-        <v>10.338031147669298</v>
+        <v>9.747543402368374</v>
       </c>
       <c r="H39" t="n">
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.21839397868208005</v>
+        <v>0.24687527671021042</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3205760988114223</v>
+        <v>0.37114152815097085</v>
       </c>
     </row>
     <row r="40">
@@ -1481,22 +1481,22 @@
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>0.15660929232287163</v>
+        <v>0.16176683829388264</v>
       </c>
       <c r="F40" t="n">
-        <v>0.021211889694170632</v>
+        <v>0.02137200870945743</v>
       </c>
       <c r="G40" t="n">
-        <v>7.383090077349892</v>
+        <v>7.569098463931395</v>
       </c>
       <c r="H40" t="n">
-        <v>1.5476508963274682E-13</v>
+        <v>3.752553823233029E-14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.11503475247826087</v>
+        <v>0.11987847094606972</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1981838321674824</v>
+        <v>0.20365520564169554</v>
       </c>
     </row>
     <row r="41">
@@ -1513,22 +1513,22 @@
         <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>0.10805645408224879</v>
+        <v>0.11022020299328095</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01724052464034352</v>
+        <v>0.016957076050616183</v>
       </c>
       <c r="G41" t="n">
-        <v>6.267585026350784</v>
+        <v>6.499953333008481</v>
       </c>
       <c r="H41" t="n">
-        <v>3.666904557775297E-10</v>
+        <v>8.034484189067825E-11</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07426564671260012</v>
+        <v>0.07698494465096653</v>
       </c>
       <c r="J41" t="n">
-        <v>0.14184726145189747</v>
+        <v>0.14345546133559536</v>
       </c>
     </row>
     <row r="42">
@@ -1545,22 +1545,22 @@
         <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06384824836831739</v>
+        <v>0.05460525882271912</v>
       </c>
       <c r="F42" t="n">
-        <v>0.014359807776976985</v>
+        <v>0.01605429305827285</v>
       </c>
       <c r="G42" t="n">
-        <v>4.446316368571799</v>
+        <v>3.4012870342229604</v>
       </c>
       <c r="H42" t="n">
-        <v>8.735527205372406E-6</v>
+        <v>6.706936454368151E-4</v>
       </c>
       <c r="I42" t="n">
-        <v>0.035703542300524325</v>
+        <v>0.023139422631252946</v>
       </c>
       <c r="J42" t="n">
-        <v>0.09199295443611044</v>
+        <v>0.08607109501418529</v>
       </c>
     </row>
     <row r="43">
@@ -1577,22 +1577,22 @@
         <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>0.24965367683565623</v>
+        <v>0.22136334974791005</v>
       </c>
       <c r="F43" t="n">
-        <v>0.023150287240930757</v>
+        <v>0.02812712419759003</v>
       </c>
       <c r="G43" t="n">
-        <v>10.784042298803845</v>
+        <v>7.870102474496015</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2042799476116748</v>
+        <v>0.16623519933194852</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2950274060596376</v>
+        <v>0.2764915001638716</v>
       </c>
     </row>
     <row r="44">
@@ -1609,22 +1609,22 @@
         <v>22</v>
       </c>
       <c r="E44" t="n">
-        <v>0.029362460212569615</v>
+        <v>0.01603664501425288</v>
       </c>
       <c r="F44" t="n">
-        <v>0.014579048921895332</v>
+        <v>0.017204605653063275</v>
       </c>
       <c r="G44" t="n">
-        <v>2.0140175377607816</v>
+        <v>0.9321134897037038</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04400769223124157</v>
+        <v>0.35127787729092796</v>
       </c>
       <c r="I44" t="n">
-        <v>7.880493968072666E-4</v>
+        <v>-0.01768376243396535</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05793687102833196</v>
+        <v>0.049757052462471106</v>
       </c>
     </row>
     <row r="45">
@@ -1641,22 +1641,22 @@
         <v>13</v>
       </c>
       <c r="E45" t="n">
-        <v>0.42420306670021557</v>
+        <v>0.43012326381009935</v>
       </c>
       <c r="F45" t="n">
-        <v>0.028667022069962318</v>
+        <v>0.02860634490220602</v>
       </c>
       <c r="G45" t="n">
-        <v>14.797597939016523</v>
+        <v>15.035939239372373</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3680167358990746</v>
+        <v>0.37405585807244457</v>
       </c>
       <c r="J45" t="n">
-        <v>0.48038939750135656</v>
+        <v>0.48619066954775414</v>
       </c>
     </row>
     <row r="46">
@@ -1673,22 +1673,22 @@
         <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8228718576522279</v>
+        <v>0.8299654344133305</v>
       </c>
       <c r="F46" t="n">
-        <v>0.036164839529226965</v>
+        <v>0.03624213337661909</v>
       </c>
       <c r="G46" t="n">
-        <v>22.753366760751586</v>
+        <v>22.900567849815555</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7519900746682726</v>
+        <v>0.75893215827226</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8937536406361832</v>
+        <v>0.900998710554401</v>
       </c>
     </row>
     <row r="47">
@@ -1705,22 +1705,22 @@
         <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2658052599697956</v>
+        <v>0.2665074019546906</v>
       </c>
       <c r="F47" t="n">
-        <v>0.021522270365232382</v>
+        <v>0.020979715178432567</v>
       </c>
       <c r="G47" t="n">
-        <v>12.350242584034447</v>
+        <v>12.703099145438534</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2236223851884064</v>
+        <v>0.22538791579905446</v>
       </c>
       <c r="J47" t="n">
-        <v>0.30798813475118475</v>
+        <v>0.30762688811032673</v>
       </c>
     </row>
     <row r="48">
@@ -1737,22 +1737,22 @@
         <v>19</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6507267563398358</v>
+        <v>0.655227345350208</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03669253017412926</v>
+        <v>0.03648700062092728</v>
       </c>
       <c r="G48" t="n">
-        <v>17.73458393988438</v>
+        <v>17.957829753054558</v>
       </c>
       <c r="H48" t="n">
         <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5788107186968933</v>
+        <v>0.5837141382293</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7226427939827783</v>
+        <v>0.726740552471116</v>
       </c>
     </row>
     <row r="49">
@@ -1769,22 +1769,22 @@
         <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>0.24902006371413965</v>
+        <v>0.20996208974033914</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01833195495050374</v>
+        <v>0.020886551923669117</v>
       </c>
       <c r="G49" t="n">
-        <v>13.58393386774589</v>
+        <v>10.05250127008304</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.21309009224494158</v>
+        <v>0.16902520020872192</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2849500351833377</v>
+        <v>0.25089897927195637</v>
       </c>
     </row>
     <row r="50">
@@ -1801,22 +1801,22 @@
         <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5920314300465327</v>
+        <v>0.5775596256457632</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02723018227025695</v>
+        <v>0.03291091682302748</v>
       </c>
       <c r="G50" t="n">
-        <v>21.74173584923808</v>
+        <v>17.549180679210064</v>
       </c>
       <c r="H50" t="n">
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.538661253504368</v>
+        <v>0.513055413974436</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6454016065886974</v>
+        <v>0.6420638373170905</v>
       </c>
     </row>
     <row r="51">
@@ -1833,22 +1833,22 @@
         <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7735163580714058</v>
+        <v>0.7198589130661154</v>
       </c>
       <c r="F51" t="n">
-        <v>0.029930877241639137</v>
+        <v>0.036411568864454284</v>
       </c>
       <c r="G51" t="n">
-        <v>25.843424227984467</v>
+        <v>19.770060327415784</v>
       </c>
       <c r="H51" t="n">
         <v>0.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7148529166521036</v>
+        <v>0.648493549471185</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8321797994907081</v>
+        <v>0.7912242766610458</v>
       </c>
     </row>
     <row r="52">
@@ -1865,22 +1865,22 @@
         <v>21</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9822851274705258</v>
+        <v>0.9421904421936075</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0325929916294526</v>
+        <v>0.039038928201728995</v>
       </c>
       <c r="G52" t="n">
-        <v>30.13792469982674</v>
+        <v>24.134639079355637</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9184040377283832</v>
+        <v>0.8656755489231737</v>
       </c>
       <c r="J52" t="n">
-        <v>1.0461662172126682</v>
+        <v>1.0187053354640414</v>
       </c>
     </row>
     <row r="53">
@@ -1897,22 +1897,22 @@
         <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3094790339270597</v>
+        <v>0.28350704005780836</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02248313217474282</v>
+        <v>0.0251268972962024</v>
       </c>
       <c r="G53" t="n">
-        <v>13.76494304804752</v>
+        <v>11.283010262498932</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.26541290460491007</v>
+        <v>0.2342592263140148</v>
       </c>
       <c r="J53" t="n">
-        <v>0.35354516324920937</v>
+        <v>0.3327548538016019</v>
       </c>
     </row>
     <row r="54">
@@ -1929,22 +1929,22 @@
         <v>22</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7802596577110272</v>
+        <v>0.7656989263736073</v>
       </c>
       <c r="F54" t="n">
-        <v>0.030983301574177224</v>
+        <v>0.037772199652080674</v>
       </c>
       <c r="G54" t="n">
-        <v>25.183231549517245</v>
+        <v>20.27149420543288</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7195335025034967</v>
+        <v>0.6916667754386728</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8409858129185578</v>
+        <v>0.8397310773085417</v>
       </c>
     </row>
     <row r="55">
@@ -1961,22 +1961,22 @@
         <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>0.16013408553779182</v>
+        <v>0.14457414881483543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.016451547036971863</v>
+        <v>0.017667522481916255</v>
       </c>
       <c r="G55" t="n">
-        <v>9.733679463573823</v>
+        <v>8.183045979582907</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="I55" t="n">
-        <v>0.12788964585536033</v>
+        <v>0.10994644105422788</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1923785252202233</v>
+        <v>0.179201856575443</v>
       </c>
     </row>
     <row r="56">
@@ -1993,22 +1993,22 @@
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5846675805064602</v>
+        <v>0.5547568245607986</v>
       </c>
       <c r="F56" t="n">
-        <v>0.025135122917965165</v>
+        <v>0.028178544187188667</v>
       </c>
       <c r="G56" t="n">
-        <v>23.260979562927574</v>
+        <v>19.687206722802163</v>
       </c>
       <c r="H56" t="n">
         <v>0.0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5354036448402612</v>
+        <v>0.4995278928171383</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6339315161726592</v>
+        <v>0.6099857563044588</v>
       </c>
     </row>
     <row r="57">
@@ -2025,22 +2025,22 @@
         <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2121769375734737</v>
+        <v>0.19223711734847315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.014572893014049435</v>
+        <v>0.01615292700540544</v>
       </c>
       <c r="G57" t="n">
-        <v>14.559699118693738</v>
+        <v>11.901070145623924</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.18361459211538145</v>
+        <v>0.16057796217297407</v>
       </c>
       <c r="J57" t="n">
-        <v>0.24073928303156594</v>
+        <v>0.22389627252397223</v>
       </c>
     </row>
     <row r="58">
@@ -2185,22 +2185,22 @@
         <v>37</v>
       </c>
       <c r="E62" t="n">
-        <v>1.326257758034831</v>
+        <v>1.3132725091727078</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01412886908885444</v>
+        <v>0.01435086284195314</v>
       </c>
       <c r="G62" t="n">
-        <v>93.86864225963063</v>
+        <v>91.51174557487252</v>
       </c>
       <c r="H62" t="n">
         <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>1.298565683478395</v>
+        <v>1.2851453348554056</v>
       </c>
       <c r="J62" t="n">
-        <v>1.3539498325912669</v>
+        <v>1.34139968349001</v>
       </c>
     </row>
     <row r="63">
@@ -2217,22 +2217,22 @@
         <v>37</v>
       </c>
       <c r="E63" t="n">
-        <v>1.2330196142483687</v>
+        <v>1.2175779570026357</v>
       </c>
       <c r="F63" t="n">
-        <v>0.012749013419811927</v>
+        <v>0.012787582986221189</v>
       </c>
       <c r="G63" t="n">
-        <v>96.71490441231006</v>
+        <v>95.215644607319</v>
       </c>
       <c r="H63" t="n">
         <v>0.0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.2080320071071196</v>
+        <v>1.192514754900325</v>
       </c>
       <c r="J63" t="n">
-        <v>1.2580072213896178</v>
+        <v>1.2426411591049464</v>
       </c>
     </row>
     <row r="64">
@@ -2249,22 +2249,22 @@
         <v>37</v>
       </c>
       <c r="E64" t="n">
-        <v>1.2167054221633444</v>
+        <v>1.1888775917113292</v>
       </c>
       <c r="F64" t="n">
-        <v>0.010320037795684817</v>
+        <v>0.012327905095365358</v>
       </c>
       <c r="G64" t="n">
-        <v>117.89738044099927</v>
+        <v>96.43792538265764</v>
       </c>
       <c r="H64" t="n">
         <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>1.19647851976471</v>
+        <v>1.1647153417195852</v>
       </c>
       <c r="J64" t="n">
-        <v>1.2369323245619788</v>
+        <v>1.2130398417030732</v>
       </c>
     </row>
     <row r="65">
@@ -2281,22 +2281,22 @@
         <v>37</v>
       </c>
       <c r="E65" t="n">
-        <v>1.5407901872949814</v>
+        <v>1.5004878060875884</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01711459917744896</v>
+        <v>0.020822423053037</v>
       </c>
       <c r="G65" t="n">
-        <v>90.02782778139512</v>
+        <v>72.06115264614886</v>
       </c>
       <c r="H65" t="n">
         <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.5072461892973426</v>
+        <v>1.4596766068327793</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5743341852926203</v>
+        <v>1.5412990053423974</v>
       </c>
     </row>
     <row r="66">
@@ -2313,22 +2313,22 @@
         <v>37</v>
       </c>
       <c r="E66" t="n">
-        <v>1.208385254656237</v>
+        <v>1.1882032225901369</v>
       </c>
       <c r="F66" t="n">
-        <v>0.012006429349065954</v>
+        <v>0.014063421927877828</v>
       </c>
       <c r="G66" t="n">
-        <v>100.64484781649458</v>
+        <v>84.48891234890489</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>1.184853085549143</v>
+        <v>1.1606394221121055</v>
       </c>
       <c r="J66" t="n">
-        <v>1.231917423763331</v>
+        <v>1.2157670230681683</v>
       </c>
     </row>
     <row r="67">
@@ -2345,22 +2345,22 @@
         <v>37</v>
       </c>
       <c r="E67" t="n">
-        <v>1.7362795750366313</v>
+        <v>1.7138136826974086</v>
       </c>
       <c r="F67" t="n">
-        <v>0.021068455198912622</v>
+        <v>0.02177908876859044</v>
       </c>
       <c r="G67" t="n">
-        <v>82.41133764407385</v>
+        <v>78.6907891742951</v>
       </c>
       <c r="H67" t="n">
         <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>1.6949861616368669</v>
+        <v>1.6711274530948705</v>
       </c>
       <c r="J67" t="n">
-        <v>1.7775729884363958</v>
+        <v>1.7564999122999467</v>
       </c>
     </row>
     <row r="68">
@@ -2377,22 +2377,22 @@
         <v>37</v>
       </c>
       <c r="E68" t="n">
-        <v>1.6346280423881296</v>
+        <v>1.6091296032771991</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02072263466431397</v>
+        <v>0.021569707227851228</v>
       </c>
       <c r="G68" t="n">
-        <v>78.88128458892776</v>
+        <v>74.60136506625642</v>
       </c>
       <c r="H68" t="n">
         <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.594012424781293</v>
+        <v>1.5668537539535374</v>
       </c>
       <c r="J68" t="n">
-        <v>1.6752436599949663</v>
+        <v>1.6514054526008608</v>
       </c>
     </row>
     <row r="69">
@@ -2409,22 +2409,22 @@
         <v>37</v>
       </c>
       <c r="E69" t="n">
-        <v>1.646560362433332</v>
+        <v>1.6071982515644583</v>
       </c>
       <c r="F69" t="n">
-        <v>0.017372543399488103</v>
+        <v>0.021832422803273396</v>
       </c>
       <c r="G69" t="n">
-        <v>94.77946461666916</v>
+        <v>73.61520368337162</v>
       </c>
       <c r="H69" t="n">
         <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.6125108030504762</v>
+        <v>1.5644074891747914</v>
       </c>
       <c r="J69" t="n">
-        <v>1.6806099218161878</v>
+        <v>1.6499890139541251</v>
       </c>
     </row>
     <row r="70">
@@ -2441,22 +2441,22 @@
         <v>37</v>
       </c>
       <c r="E70" t="n">
-        <v>1.904042352199436</v>
+        <v>1.8644906663418297</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02148068466342988</v>
+        <v>0.026580764288114043</v>
       </c>
       <c r="G70" t="n">
-        <v>88.63974226301092</v>
+        <v>70.14435876005125</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.8619409838958516</v>
+        <v>1.8123933256555778</v>
       </c>
       <c r="J70" t="n">
-        <v>1.9461437205030205</v>
+        <v>1.9165880070280816</v>
       </c>
     </row>
     <row r="71">
@@ -2473,22 +2473,22 @@
         <v>37</v>
       </c>
       <c r="E71" t="n">
-        <v>1.8462352246471745</v>
+        <v>1.8169450725356473</v>
       </c>
       <c r="F71" t="n">
-        <v>0.021600132754567236</v>
+        <v>0.02690606681450351</v>
       </c>
       <c r="G71" t="n">
-        <v>85.47332767002544</v>
+        <v>67.52919648427532</v>
       </c>
       <c r="H71" t="n">
         <v>0.0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.8038997423869387</v>
+        <v>1.764210150613592</v>
       </c>
       <c r="J71" t="n">
-        <v>1.8885707069074102</v>
+        <v>1.8696799944577025</v>
       </c>
     </row>
     <row r="72">
@@ -3990,22 +3990,22 @@
         <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1465479557936491</v>
+        <v>0.14976321358492642</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02071295535275693</v>
+        <v>0.0233927027001108</v>
       </c>
       <c r="H32" t="n">
-        <v>7.07518329942923</v>
+        <v>6.402133840833067</v>
       </c>
       <c r="I32" t="n">
-        <v>1.4925838343060605E-12</v>
+        <v>1.5322032531628338E-10</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1059513092888594</v>
+        <v>0.10391435879165639</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1871446022984388</v>
+        <v>0.19561206837819645</v>
       </c>
     </row>
     <row r="33">
@@ -4025,22 +4025,22 @@
         <v>40</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14654795579364913</v>
+        <v>0.14976321358492642</v>
       </c>
       <c r="G33" t="n">
-        <v>0.020712955352756916</v>
+        <v>0.02339270270011081</v>
       </c>
       <c r="H33" t="n">
-        <v>7.075183299429236</v>
+        <v>6.402133840833065</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4925838343060605E-12</v>
+        <v>1.5322032531628338E-10</v>
       </c>
       <c r="J33" t="n">
-        <v>0.10595130928885946</v>
+        <v>0.10391435879165636</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1871446022984388</v>
+        <v>0.19561206837819647</v>
       </c>
     </row>
     <row r="34">
@@ -4060,22 +4060,22 @@
         <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>0.14654795579364907</v>
+        <v>0.1497632135849264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.020712955352756912</v>
+        <v>0.02339270270011079</v>
       </c>
       <c r="H34" t="n">
-        <v>7.075183299429234</v>
+        <v>6.402133840833069</v>
       </c>
       <c r="I34" t="n">
-        <v>1.4925838343060605E-12</v>
+        <v>1.5322032531628338E-10</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1059513092888594</v>
+        <v>0.10391435879165638</v>
       </c>
       <c r="K34" t="n">
-        <v>0.18714460229843874</v>
+        <v>0.1956120683781964</v>
       </c>
     </row>
     <row r="35">
@@ -4095,22 +4095,22 @@
         <v>40</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1465479557936492</v>
+        <v>0.14976321358492653</v>
       </c>
       <c r="G35" t="n">
-        <v>0.020712955352756923</v>
+        <v>0.023392702700110804</v>
       </c>
       <c r="H35" t="n">
-        <v>7.075183299429238</v>
+        <v>6.402133840833071</v>
       </c>
       <c r="I35" t="n">
-        <v>1.4925838343060605E-12</v>
+        <v>1.5322032531628338E-10</v>
       </c>
       <c r="J35" t="n">
-        <v>0.10595130928885951</v>
+        <v>0.10391435879165649</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1871446022984389</v>
+        <v>0.19561206837819656</v>
       </c>
     </row>
     <row r="36">
@@ -4130,22 +4130,22 @@
         <v>41</v>
       </c>
       <c r="F36" t="n">
-        <v>0.148094945847852</v>
+        <v>0.14789809247766147</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02067664708328199</v>
+        <v>0.022216143306530774</v>
       </c>
       <c r="H36" t="n">
-        <v>7.162425573708878</v>
+        <v>6.6572352562285</v>
       </c>
       <c r="I36" t="n">
-        <v>7.926992395823618E-13</v>
+        <v>2.7902569144089284E-11</v>
       </c>
       <c r="J36" t="n">
-        <v>0.10756946224357414</v>
+        <v>0.10435525172148058</v>
       </c>
       <c r="K36" t="n">
-        <v>0.18862042945212984</v>
+        <v>0.19144093323384237</v>
       </c>
     </row>
     <row r="37">
@@ -4165,22 +4165,22 @@
         <v>41</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1480949458478521</v>
+        <v>0.14789809247766159</v>
       </c>
       <c r="G37" t="n">
-        <v>0.020676647083282016</v>
+        <v>0.022216143306530794</v>
       </c>
       <c r="H37" t="n">
-        <v>7.162425573708873</v>
+        <v>6.657235256228499</v>
       </c>
       <c r="I37" t="n">
-        <v>7.926992395823618E-13</v>
+        <v>2.7902569144089284E-11</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1075694622435742</v>
+        <v>0.10435525172148065</v>
       </c>
       <c r="K37" t="n">
-        <v>0.18862042945213</v>
+        <v>0.19144093323384254</v>
       </c>
     </row>
     <row r="38">
@@ -4200,22 +4200,22 @@
         <v>41</v>
       </c>
       <c r="F38" t="n">
-        <v>0.14809494584785202</v>
+        <v>0.1478980924776615</v>
       </c>
       <c r="G38" t="n">
-        <v>0.020676647083282</v>
+        <v>0.022216143306530788</v>
       </c>
       <c r="H38" t="n">
-        <v>7.162425573708876</v>
+        <v>6.657235256228497</v>
       </c>
       <c r="I38" t="n">
-        <v>7.926992395823618E-13</v>
+        <v>2.7902569144089284E-11</v>
       </c>
       <c r="J38" t="n">
-        <v>0.10756946224357415</v>
+        <v>0.10435525172148058</v>
       </c>
       <c r="K38" t="n">
-        <v>0.18862042945212987</v>
+        <v>0.19144093323384243</v>
       </c>
     </row>
     <row r="39">
@@ -4235,22 +4235,22 @@
         <v>41</v>
       </c>
       <c r="F39" t="n">
-        <v>0.14809494584785213</v>
+        <v>0.1478980924776616</v>
       </c>
       <c r="G39" t="n">
-        <v>0.020676647083282006</v>
+        <v>0.022216143306530805</v>
       </c>
       <c r="H39" t="n">
-        <v>7.1624255737088784</v>
+        <v>6.657235256228497</v>
       </c>
       <c r="I39" t="n">
-        <v>7.926992395823618E-13</v>
+        <v>2.7902569144089284E-11</v>
       </c>
       <c r="J39" t="n">
-        <v>0.10756946224357425</v>
+        <v>0.10435525172148066</v>
       </c>
       <c r="K39" t="n">
-        <v>0.18862042945213</v>
+        <v>0.19144093323384256</v>
       </c>
     </row>
     <row r="40">
@@ -4270,22 +4270,22 @@
         <v>37</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1639333228978542</v>
+        <v>0.1682458249379785</v>
       </c>
       <c r="G40" t="n">
-        <v>0.021903350806535597</v>
+        <v>0.021926134802241842</v>
       </c>
       <c r="H40" t="n">
-        <v>7.484394709550066</v>
+        <v>7.673300673166351</v>
       </c>
       <c r="I40" t="n">
-        <v>7.194245199571014E-14</v>
+        <v>1.6653345369377348E-14</v>
       </c>
       <c r="J40" t="n">
-        <v>0.12100354417629809</v>
+        <v>0.12527139040541424</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2068631016194103</v>
+        <v>0.21122025947054274</v>
       </c>
     </row>
     <row r="41">
@@ -4305,22 +4305,22 @@
         <v>37</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1214833553817366</v>
+        <v>0.12323184150687456</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01748212237410245</v>
+        <v>0.01729825075861654</v>
       </c>
       <c r="H41" t="n">
-        <v>6.94900497674692</v>
+        <v>7.123948150970744</v>
       </c>
       <c r="I41" t="n">
-        <v>3.678612969792994E-12</v>
+        <v>1.0487166690609229E-12</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08721902515517393</v>
+        <v>0.0893278930244435</v>
       </c>
       <c r="K41" t="n">
-        <v>0.15574768560829927</v>
+        <v>0.15713578998930564</v>
       </c>
     </row>
     <row r="42">
@@ -4340,22 +4340,22 @@
         <v>37</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06135898978565636</v>
+        <v>0.053741847755703565</v>
       </c>
       <c r="G42" t="n">
-        <v>0.013688602274256114</v>
+        <v>0.01544794633738445</v>
       </c>
       <c r="H42" t="n">
-        <v>4.482487587578829</v>
+        <v>3.478899174167043</v>
       </c>
       <c r="I42" t="n">
-        <v>7.377793528329235E-6</v>
+        <v>5.034779777841614E-4</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03452982232942131</v>
+        <v>0.02346442929932261</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08818815724189141</v>
+        <v>0.08401926621208453</v>
       </c>
     </row>
     <row r="43">
@@ -4375,22 +4375,22 @@
         <v>37</v>
       </c>
       <c r="F43" t="n">
-        <v>0.23637564307846465</v>
+        <v>0.20808647939653863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.022607558768203157</v>
+        <v>0.027145640129777982</v>
       </c>
       <c r="H43" t="n">
-        <v>10.455602283379655</v>
+        <v>7.665558019693695</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0</v>
+        <v>1.7763568394002505E-14</v>
       </c>
       <c r="J43" t="n">
-        <v>0.19206564211441376</v>
+        <v>0.15488200240488859</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2806856440425155</v>
+        <v>0.26129095638818867</v>
       </c>
     </row>
     <row r="44">
@@ -4410,22 +4410,22 @@
         <v>37</v>
       </c>
       <c r="F44" t="n">
-        <v>0.022966655489733177</v>
+        <v>0.008936914335954642</v>
       </c>
       <c r="G44" t="n">
-        <v>0.014652933352803892</v>
+        <v>0.017252996129487563</v>
       </c>
       <c r="H44" t="n">
-        <v>1.5673759606187265</v>
+        <v>0.5179920211470006</v>
       </c>
       <c r="I44" t="n">
-        <v>0.11702683958018945</v>
+        <v>0.6044638362587353</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0057525661496281855</v>
+        <v>-0.024878336703249924</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05168587712909454</v>
+        <v>0.04275216537515921</v>
       </c>
     </row>
     <row r="45">
@@ -4445,22 +4445,22 @@
         <v>37</v>
       </c>
       <c r="F45" t="n">
-        <v>0.42808253808960733</v>
+        <v>0.4360357218076253</v>
       </c>
       <c r="G45" t="n">
-        <v>0.027673900429461187</v>
+        <v>0.027810845799636535</v>
       </c>
       <c r="H45" t="n">
-        <v>15.468818325077068</v>
+        <v>15.678621389261162</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3738426899361159</v>
+        <v>0.38152746566074064</v>
       </c>
       <c r="K45" t="n">
-        <v>0.48232238624309876</v>
+        <v>0.49054397795450994</v>
       </c>
     </row>
     <row r="46">
@@ -4480,22 +4480,22 @@
         <v>37</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8676498773232991</v>
+        <v>0.8753758377719587</v>
       </c>
       <c r="G46" t="n">
-        <v>0.036692242903751386</v>
+        <v>0.036621385554873494</v>
       </c>
       <c r="H46" t="n">
-        <v>23.646684112477388</v>
+        <v>23.9034057425352</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7957344027199511</v>
+        <v>0.8035992410204513</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9395653519266471</v>
+        <v>0.9471524345234661</v>
       </c>
     </row>
     <row r="47">
@@ -4515,22 +4515,22 @@
         <v>37</v>
       </c>
       <c r="F47" t="n">
-        <v>0.26992809351799807</v>
+        <v>0.27411639249475805</v>
       </c>
       <c r="G47" t="n">
-        <v>0.020843175686673925</v>
+        <v>0.020387286756953626</v>
       </c>
       <c r="H47" t="n">
-        <v>12.950430278749533</v>
+        <v>13.445457248069726</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.22907621984867627</v>
+        <v>0.23415804470863855</v>
       </c>
       <c r="K47" t="n">
-        <v>0.31077996718731987</v>
+        <v>0.31407474028087756</v>
       </c>
     </row>
     <row r="48">
@@ -4550,22 +4550,22 @@
         <v>37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7255718090957495</v>
+        <v>0.7279526486085428</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03620074640086612</v>
+        <v>0.036213004183168605</v>
       </c>
       <c r="H48" t="n">
-        <v>20.043006877846857</v>
+        <v>20.101967926397197</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.654619649936584</v>
+        <v>0.656976464637534</v>
       </c>
       <c r="K48" t="n">
-        <v>0.796523968254915</v>
+        <v>0.7989288325795516</v>
       </c>
     </row>
     <row r="49">
@@ -4585,22 +4585,22 @@
         <v>37</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2447862043148075</v>
+        <v>0.2125663124313871</v>
       </c>
       <c r="G49" t="n">
-        <v>0.017616341813463696</v>
+        <v>0.020036041818200383</v>
       </c>
       <c r="H49" t="n">
-        <v>13.895405011256308</v>
+        <v>10.609196884301552</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.21025880882107162</v>
+        <v>0.17329639207497594</v>
       </c>
       <c r="K49" t="n">
-        <v>0.27931359980854337</v>
+        <v>0.25183623278779826</v>
       </c>
     </row>
     <row r="50">
@@ -4620,22 +4620,22 @@
         <v>37</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5863064752108703</v>
+        <v>0.5762890676028153</v>
       </c>
       <c r="G50" t="n">
-        <v>0.025542611060758454</v>
+        <v>0.03176598243676332</v>
       </c>
       <c r="H50" t="n">
-        <v>22.95405406347133</v>
+        <v>18.14170453408883</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5362438774606694</v>
+        <v>0.5140288860932273</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6363690729610713</v>
+        <v>0.6385492491124033</v>
       </c>
     </row>
     <row r="51">
@@ -4655,22 +4655,22 @@
         <v>37</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7602994423927885</v>
+        <v>0.7095612936448745</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02995321479710918</v>
+        <v>0.03664599571920256</v>
       </c>
       <c r="H51" t="n">
-        <v>25.38289954993966</v>
+        <v>19.362587363755633</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7015922201692623</v>
+        <v>0.6377364618576286</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8190066646163147</v>
+        <v>0.7813861254321205</v>
       </c>
     </row>
     <row r="52">
@@ -4690,22 +4690,22 @@
         <v>37</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9384050753299257</v>
+        <v>0.8935447766100283</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03395076475029549</v>
+        <v>0.04007584469592307</v>
       </c>
       <c r="H52" t="n">
-        <v>27.64017488948488</v>
+        <v>22.296342931504796</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8718627991717546</v>
+        <v>0.8149975643559986</v>
       </c>
       <c r="K52" t="n">
-        <v>1.0049473514880969</v>
+        <v>0.972091988864058</v>
       </c>
     </row>
     <row r="53">
@@ -4725,22 +4725,22 @@
         <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3077659378344358</v>
+        <v>0.2791365861930337</v>
       </c>
       <c r="G53" t="n">
-        <v>0.021929554924198465</v>
+        <v>0.023983622378309886</v>
       </c>
       <c r="H53" t="n">
-        <v>14.034299323367811</v>
+        <v>11.638633305262386</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2647847999860138</v>
+        <v>0.23212955011273748</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3507470756828578</v>
+        <v>0.32614362227332994</v>
       </c>
     </row>
     <row r="54">
@@ -4760,22 +4760,22 @@
         <v>37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7514653566476751</v>
+        <v>0.73773822197633</v>
       </c>
       <c r="G54" t="n">
-        <v>0.031199534614910904</v>
+        <v>0.0379399552017194</v>
       </c>
       <c r="H54" t="n">
-        <v>24.08578736583251</v>
+        <v>19.444889116339716</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.690315392468039</v>
+        <v>0.6633772762058969</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8126153208273112</v>
+        <v>0.812099167746763</v>
       </c>
     </row>
     <row r="55">
@@ -4795,22 +4795,22 @@
         <v>37</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1648456751479552</v>
+        <v>0.14405843285185005</v>
       </c>
       <c r="G55" t="n">
-        <v>0.015590133598013246</v>
+        <v>0.016833407239156425</v>
       </c>
       <c r="H55" t="n">
-        <v>10.573717929457807</v>
+        <v>8.5578891311293</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1342895747816814</v>
+        <v>0.11106556092600764</v>
       </c>
       <c r="K55" t="n">
-        <v>0.195401775514229</v>
+        <v>0.17705130477769246</v>
       </c>
     </row>
     <row r="56">
@@ -4830,22 +4830,22 @@
         <v>37</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5909825430688824</v>
+        <v>0.5541533393387578</v>
       </c>
       <c r="G56" t="n">
-        <v>0.025294412331463765</v>
+        <v>0.02836112358469157</v>
       </c>
       <c r="H56" t="n">
-        <v>23.36415392160577</v>
+        <v>19.539188483980656</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5414064058891076</v>
+        <v>0.49856655855167276</v>
       </c>
       <c r="K56" t="n">
-        <v>0.6405586802486573</v>
+        <v>0.6097401201258428</v>
       </c>
     </row>
     <row r="57">
@@ -4865,22 +4865,22 @@
         <v>37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.21852913642714356</v>
+        <v>0.197301577323527</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01441358702029997</v>
+        <v>0.016087361989782705</v>
       </c>
       <c r="H57" t="n">
-        <v>15.16132910699946</v>
+        <v>12.264383523466172</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.19027902497932164</v>
+        <v>0.16577092721729428</v>
       </c>
       <c r="K57" t="n">
-        <v>0.24677924787496547</v>
+        <v>0.2288322274297597</v>
       </c>
     </row>
     <row r="58">
@@ -5040,22 +5040,22 @@
         <v>37</v>
       </c>
       <c r="F62" t="n">
-        <v>1.3269225920567898</v>
+        <v>1.313270821398803</v>
       </c>
       <c r="G62" t="n">
-        <v>0.014120453659975296</v>
+        <v>0.014350713770047327</v>
       </c>
       <c r="H62" t="n">
-        <v>93.97166861699195</v>
+        <v>91.5125785687294</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.2992470114378714</v>
+        <v>1.2851439392570672</v>
       </c>
       <c r="K62" t="n">
-        <v>1.3545981726757081</v>
+        <v>1.3413977035405387</v>
       </c>
     </row>
     <row r="63">
@@ -5075,22 +5075,22 @@
         <v>37</v>
       </c>
       <c r="F63" t="n">
-        <v>1.2337923004413822</v>
+        <v>1.2176516315326387</v>
       </c>
       <c r="G63" t="n">
-        <v>0.012666574325225324</v>
+        <v>0.012763571712667047</v>
       </c>
       <c r="H63" t="n">
-        <v>97.40536539420135</v>
+        <v>95.40053982884709</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.2089662709564408</v>
+        <v>1.1926354906617171</v>
       </c>
       <c r="K63" t="n">
-        <v>1.2586183299263236</v>
+        <v>1.2426677724035602</v>
       </c>
     </row>
     <row r="64">
@@ -5110,22 +5110,22 @@
         <v>37</v>
       </c>
       <c r="F64" t="n">
-        <v>1.2167673663020833</v>
+        <v>1.1889463923104648</v>
       </c>
       <c r="G64" t="n">
-        <v>0.010334220401161987</v>
+        <v>0.012348353664189595</v>
       </c>
       <c r="H64" t="n">
-        <v>117.74157305230969</v>
+        <v>96.28379820043757</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.1965126665075068</v>
+        <v>1.16474406386029</v>
       </c>
       <c r="K64" t="n">
-        <v>1.2370220660966598</v>
+        <v>1.2131487207606397</v>
       </c>
     </row>
     <row r="65">
@@ -5145,22 +5145,22 @@
         <v>37</v>
       </c>
       <c r="F65" t="n">
-        <v>1.5401330935046527</v>
+        <v>1.5004080088791358</v>
       </c>
       <c r="G65" t="n">
-        <v>0.017092118439157325</v>
+        <v>0.020830564391261058</v>
       </c>
       <c r="H65" t="n">
-        <v>90.10779436071965</v>
+        <v>72.02915776533614</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5066331569444114</v>
+        <v>1.4595808528946217</v>
       </c>
       <c r="K65" t="n">
-        <v>1.573633030064894</v>
+        <v>1.54123516486365</v>
       </c>
     </row>
     <row r="66">
@@ -5180,22 +5180,22 @@
         <v>37</v>
       </c>
       <c r="F66" t="n">
-        <v>1.2084341850529579</v>
+        <v>1.1888998160783306</v>
       </c>
       <c r="G66" t="n">
-        <v>0.012194286190479726</v>
+        <v>0.01446438493433949</v>
       </c>
       <c r="H66" t="n">
-        <v>99.09839462324591</v>
+        <v>82.19497901053484</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.1845338233024434</v>
+        <v>1.1605501425485014</v>
       </c>
       <c r="K66" t="n">
-        <v>1.2323345468034723</v>
+        <v>1.2172494896081598</v>
       </c>
     </row>
     <row r="67">
@@ -5215,22 +5215,22 @@
         <v>37</v>
       </c>
       <c r="F67" t="n">
-        <v>1.7373572311615828</v>
+        <v>1.7138544223457295</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0210472114425324</v>
+        <v>0.021778437952890053</v>
       </c>
       <c r="H67" t="n">
-        <v>82.54572041076734</v>
+        <v>78.69501137101969</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.69610545475922</v>
+        <v>1.6711694683185248</v>
       </c>
       <c r="K67" t="n">
-        <v>1.7786090075639456</v>
+        <v>1.7565393763729342</v>
       </c>
     </row>
     <row r="68">
@@ -5250,22 +5250,22 @@
         <v>37</v>
       </c>
       <c r="F68" t="n">
-        <v>1.6365882120994848</v>
+        <v>1.6096704653138356</v>
       </c>
       <c r="G68" t="n">
-        <v>0.020648964847930405</v>
+        <v>0.021570965787609055</v>
       </c>
       <c r="H68" t="n">
-        <v>79.25763950649159</v>
+        <v>74.62208605599263</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.5961169846795076</v>
+        <v>1.5673921492583762</v>
       </c>
       <c r="K68" t="n">
-        <v>1.677059439519462</v>
+        <v>1.651948781369295</v>
       </c>
     </row>
     <row r="69">
@@ -5285,22 +5285,22 @@
         <v>37</v>
       </c>
       <c r="F69" t="n">
-        <v>1.646368807575827</v>
+        <v>1.6070342658128909</v>
       </c>
       <c r="G69" t="n">
-        <v>0.017373257250663476</v>
+        <v>0.021821773435460216</v>
       </c>
       <c r="H69" t="n">
-        <v>94.7645443696491</v>
+        <v>73.6436142812056</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.6123178490703771</v>
+        <v>1.564264375800596</v>
       </c>
       <c r="K69" t="n">
-        <v>1.6804197660812767</v>
+        <v>1.6498041558251857</v>
       </c>
     </row>
     <row r="70">
@@ -5320,22 +5320,22 @@
         <v>37</v>
       </c>
       <c r="F70" t="n">
-        <v>1.9034895890620729</v>
+        <v>1.8644051811627358</v>
       </c>
       <c r="G70" t="n">
-        <v>0.021479091980165982</v>
+        <v>0.026590909276107768</v>
       </c>
       <c r="H70" t="n">
-        <v>88.62057999564297</v>
+        <v>70.11438239300546</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.8613913423603246</v>
+        <v>1.8122879566653924</v>
       </c>
       <c r="K70" t="n">
-        <v>1.9455878357638212</v>
+        <v>1.9165224056600791</v>
       </c>
     </row>
     <row r="71">
@@ -5355,22 +5355,22 @@
         <v>37</v>
       </c>
       <c r="F71" t="n">
-        <v>1.8481694537720783</v>
+        <v>1.8179993045335043</v>
       </c>
       <c r="G71" t="n">
-        <v>0.021712599656439773</v>
+        <v>0.02699912911059462</v>
       </c>
       <c r="H71" t="n">
-        <v>85.11967627164934</v>
+        <v>67.3354794921926</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.8056135404347196</v>
+        <v>1.765081983862792</v>
       </c>
       <c r="K71" t="n">
-        <v>1.890725367109437</v>
+        <v>1.8709166252042166</v>
       </c>
     </row>
     <row r="72">
@@ -6812,22 +6812,22 @@
         <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>0.12577865748117154</v>
+        <v>0.13030832273366172</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04249360765785486</v>
+        <v>0.041029911678303985</v>
       </c>
       <c r="G32" t="n">
-        <v>2.959943022345894</v>
+        <v>3.1759347608483117</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0030769594388264654</v>
+        <v>0.0014935453537663346</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0424927168986006</v>
+        <v>0.04989117355532656</v>
       </c>
       <c r="J32" t="n">
-        <v>0.20906459806374247</v>
+        <v>0.21072547191199686</v>
       </c>
     </row>
     <row r="33">
@@ -6844,22 +6844,22 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.17868380538995446</v>
+        <v>0.13136130143118813</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06070549634907891</v>
+        <v>0.05589534925363673</v>
       </c>
       <c r="G33" t="n">
-        <v>2.943453494926669</v>
+        <v>2.350129361122855</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003245725832708768</v>
+        <v>0.018766887546827427</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05970321888213208</v>
+        <v>0.02180842999077237</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2976643918977768</v>
+        <v>0.24091417287160388</v>
       </c>
     </row>
     <row r="34">
@@ -6876,22 +6876,22 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2947737768413067</v>
+        <v>0.262313768263494</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06435957799330128</v>
+        <v>0.0831317605306905</v>
       </c>
       <c r="G34" t="n">
-        <v>4.5801073598087845</v>
+        <v>3.155397727522603</v>
       </c>
       <c r="H34" t="n">
-        <v>4.6473730954676995E-6</v>
+        <v>0.001602794479723224</v>
       </c>
       <c r="I34" t="n">
-        <v>0.16863132191423957</v>
+        <v>0.09937851165193229</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4209162317683738</v>
+        <v>0.4252490248750557</v>
       </c>
     </row>
     <row r="35">
@@ -6908,22 +6908,22 @@
         <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1704786303096985</v>
+        <v>0.18011710286869068</v>
       </c>
       <c r="F35" t="n">
-        <v>0.024611446474561392</v>
+        <v>0.0313279166621103</v>
       </c>
       <c r="G35" t="n">
-        <v>6.926802554490518</v>
+        <v>5.749412091820781</v>
       </c>
       <c r="H35" t="n">
-        <v>4.304556711076657E-12</v>
+        <v>8.955430175205947E-9</v>
       </c>
       <c r="I35" t="n">
-        <v>0.12224108161212291</v>
+        <v>0.11871551450028223</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2187161790072741</v>
+        <v>0.24151869123709913</v>
       </c>
     </row>
     <row r="36">
@@ -6940,22 +6940,22 @@
         <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0027130386739416313</v>
+        <v>0.009940797751609524</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04247392595639438</v>
+        <v>0.0412872294414373</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06387539208706436</v>
+        <v>0.24077173223041684</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9490694465252636</v>
+        <v>0.8097320395952288</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.08053432648261231</v>
+        <v>-0.07098068497504934</v>
       </c>
       <c r="J36" t="n">
-        <v>0.08596040383049557</v>
+        <v>0.09086228047826839</v>
       </c>
     </row>
     <row r="37">
@@ -6972,22 +6972,22 @@
         <v>18</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005955202306687263</v>
+        <v>0.011199496420857633</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0337768961408544</v>
+        <v>0.03431304363936168</v>
       </c>
       <c r="G37" t="n">
-        <v>0.17630993332996714</v>
+        <v>0.3263918100232386</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8600504586085798</v>
+        <v>0.7441279332086972</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.06024629763893728</v>
+        <v>-0.05605283331224244</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07215670225231181</v>
+        <v>0.0784518261539577</v>
       </c>
     </row>
     <row r="38">
@@ -7004,22 +7004,22 @@
         <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1122310582231736</v>
+        <v>0.1035762664917519</v>
       </c>
       <c r="F38" t="n">
-        <v>0.059585487214768355</v>
+        <v>0.058672455929898594</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8835300921288256</v>
+        <v>1.7653303385749533</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05962856570624919</v>
+        <v>0.07750826350905404</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.004554350719044212</v>
+        <v>-0.011419634015362848</v>
       </c>
       <c r="J38" t="n">
-        <v>0.22901646716539142</v>
+        <v>0.21857216699886667</v>
       </c>
     </row>
     <row r="39">
@@ -7036,22 +7036,22 @@
         <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07670681756649861</v>
+        <v>0.07826168027659526</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04011810173998335</v>
+        <v>0.040418766372128566</v>
       </c>
       <c r="G39" t="n">
-        <v>1.9120251018768777</v>
+        <v>1.9362708786323055</v>
       </c>
       <c r="H39" t="n">
-        <v>0.055872974459062696</v>
+        <v>0.052834533506807446</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0019232169719824166</v>
+        <v>-9.576461123153718E-4</v>
       </c>
       <c r="J39" t="n">
-        <v>0.15533685210497963</v>
+        <v>0.1574810066655059</v>
       </c>
     </row>
     <row r="40">
@@ -7068,22 +7068,22 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06764164556521776</v>
+        <v>0.009658317147233749</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05772384191298445</v>
+        <v>0.07424530884350808</v>
       </c>
       <c r="G40" t="n">
-        <v>1.1718146839079744</v>
+        <v>0.13008656435911992</v>
       </c>
       <c r="H40" t="n">
-        <v>0.24127146599353289</v>
+        <v>0.8964979398794535</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.045495005633515384</v>
+        <v>-0.13585981420709523</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1807782967639509</v>
+        <v>0.15517644850156273</v>
       </c>
     </row>
     <row r="41">
@@ -7100,22 +7100,22 @@
         <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1751344746756289</v>
+        <v>0.19815302088193257</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0389674819162975</v>
+        <v>0.04629176899477402</v>
       </c>
       <c r="G41" t="n">
-        <v>4.494374952218347</v>
+        <v>4.280523842247258</v>
       </c>
       <c r="H41" t="n">
-        <v>6.9774590714111184E-6</v>
+        <v>1.8645390963190067E-5</v>
       </c>
       <c r="I41" t="n">
-        <v>0.09875961355146996</v>
+        <v>0.10742282087152757</v>
       </c>
       <c r="J41" t="n">
-        <v>0.25150933579978785</v>
+        <v>0.28888322089233753</v>
       </c>
     </row>
     <row r="42">
@@ -7132,22 +7132,22 @@
         <v>16</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09288818525872304</v>
+        <v>0.07994314065466829</v>
       </c>
       <c r="F42" t="n">
-        <v>0.027203963649697606</v>
+        <v>0.03234742355594248</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4145092404487007</v>
+        <v>2.4713912845767307</v>
       </c>
       <c r="H42" t="n">
-        <v>6.38970260991023E-4</v>
+        <v>0.013458846664178958</v>
       </c>
       <c r="I42" t="n">
-        <v>0.039569396268578944</v>
+        <v>0.01654335549235847</v>
       </c>
       <c r="J42" t="n">
-        <v>0.14620697424886714</v>
+        <v>0.1433429258169781</v>
       </c>
     </row>
     <row r="43">
@@ -7164,22 +7164,22 @@
         <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>0.24561757536209028</v>
+        <v>0.28994950277056797</v>
       </c>
       <c r="F43" t="n">
-        <v>0.027830213873240806</v>
+        <v>0.03357398217108269</v>
       </c>
       <c r="G43" t="n">
-        <v>8.825572684450531</v>
+        <v>8.636136794648738</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.19107135848849136</v>
+        <v>0.224145706897656</v>
       </c>
       <c r="J43" t="n">
-        <v>0.30016379223568923</v>
+        <v>0.35575329864347993</v>
       </c>
     </row>
     <row r="44">
@@ -7196,22 +7196,22 @@
         <v>18</v>
       </c>
       <c r="E44" t="n">
-        <v>0.15940519805526257</v>
+        <v>0.16467697443923662</v>
       </c>
       <c r="F44" t="n">
-        <v>0.022166443128528383</v>
+        <v>0.022194357601074258</v>
       </c>
       <c r="G44" t="n">
-        <v>7.191284462327961</v>
+        <v>7.419767555302699</v>
       </c>
       <c r="H44" t="n">
-        <v>6.419309528382655E-13</v>
+        <v>1.1723955140041653E-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0.11595976785799159</v>
+        <v>0.1211768328811283</v>
       </c>
       <c r="J44" t="n">
-        <v>0.20285062825253355</v>
+        <v>0.20817711599734495</v>
       </c>
     </row>
     <row r="45">
@@ -7228,22 +7228,22 @@
         <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>0.11653779741697776</v>
+        <v>0.11800640499644116</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01802954537975797</v>
+        <v>0.017480701424751627</v>
       </c>
       <c r="G45" t="n">
-        <v>6.4637124765118275</v>
+        <v>6.750667615050684</v>
       </c>
       <c r="H45" t="n">
-        <v>1.0216494317205616E-10</v>
+        <v>1.4716672325221225E-11</v>
       </c>
       <c r="I45" t="n">
-        <v>0.08120053781502162</v>
+        <v>0.08374485977942997</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1518750570189339</v>
+        <v>0.15226795021345235</v>
       </c>
     </row>
     <row r="46">
@@ -7260,22 +7260,22 @@
         <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07182208126100505</v>
+        <v>0.060808046121893417</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01522348005258288</v>
+        <v>0.016731856549443147</v>
       </c>
       <c r="G46" t="n">
-        <v>4.71784907346592</v>
+        <v>3.6342677181222407</v>
       </c>
       <c r="H46" t="n">
-        <v>2.3835120637194507E-6</v>
+        <v>2.7877127991682293E-4</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04198460863857868</v>
+        <v>0.028014209890494232</v>
       </c>
       <c r="J46" t="n">
-        <v>0.10165955388343141</v>
+        <v>0.0936018823532926</v>
       </c>
     </row>
     <row r="47">
@@ -7292,22 +7292,22 @@
         <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>0.26327378275688085</v>
+        <v>0.22851293809561277</v>
       </c>
       <c r="F47" t="n">
-        <v>0.023701601809481283</v>
+        <v>0.028698598536362793</v>
       </c>
       <c r="G47" t="n">
-        <v>11.1078476835926</v>
+        <v>7.96251209988786</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="I47" t="n">
-        <v>0.21681949683438817</v>
+        <v>0.1722647185575678</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3097280686793735</v>
+        <v>0.2847611576336577</v>
       </c>
     </row>
     <row r="48">
@@ -7324,22 +7324,22 @@
         <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>0.031673142808716574</v>
+        <v>0.01753571943966478</v>
       </c>
       <c r="F48" t="n">
-        <v>0.014481735810172243</v>
+        <v>0.017156073249962257</v>
       </c>
       <c r="G48" t="n">
-        <v>2.1871095581282987</v>
+        <v>1.0221289676356073</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02873452705094781</v>
+        <v>0.3067198645087652</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0032894621871550032</v>
+        <v>-0.01608956624639227</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06005682343027814</v>
+        <v>0.05116100512572183</v>
       </c>
     </row>
     <row r="49">
@@ -7356,22 +7356,22 @@
         <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4287749250463881</v>
+        <v>0.4340515334360615</v>
       </c>
       <c r="F49" t="n">
-        <v>0.030026317062022703</v>
+        <v>0.029750895130074267</v>
       </c>
       <c r="G49" t="n">
-        <v>14.279970605809087</v>
+        <v>14.58952853480002</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.36992442501644307</v>
+        <v>0.37574085047328787</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4876254250763331</v>
+        <v>0.49236221639883515</v>
       </c>
     </row>
     <row r="50">
@@ -7388,22 +7388,22 @@
         <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>0.819888460697401</v>
+        <v>0.8275129240129453</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03591509700767703</v>
+        <v>0.03600879495409296</v>
       </c>
       <c r="G50" t="n">
-        <v>22.82851861773186</v>
+        <v>22.98085579003486</v>
       </c>
       <c r="H50" t="n">
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7494961640610918</v>
+        <v>0.7569369827762354</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8902807573337101</v>
+        <v>0.8980888652496551</v>
       </c>
     </row>
     <row r="51">
@@ -7420,22 +7420,22 @@
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2726147673120681</v>
+        <v>0.2719525645523179</v>
       </c>
       <c r="F51" t="n">
-        <v>0.022437707967789763</v>
+        <v>0.02167478266935175</v>
       </c>
       <c r="G51" t="n">
-        <v>12.149849160325003</v>
+        <v>12.546956926901979</v>
       </c>
       <c r="H51" t="n">
         <v>0.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.22863766779957273</v>
+        <v>0.22947077114765557</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3165918668245634</v>
+        <v>0.31443435795698027</v>
       </c>
     </row>
     <row r="52">
@@ -7452,22 +7452,22 @@
         <v>19</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6491347872612006</v>
+        <v>0.6547315752100525</v>
       </c>
       <c r="F52" t="n">
-        <v>0.036454096542434394</v>
+        <v>0.03638183029949996</v>
       </c>
       <c r="G52" t="n">
-        <v>17.80690920444497</v>
+        <v>17.996114264186737</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5776860709490831</v>
+        <v>0.5834244981313845</v>
       </c>
       <c r="J52" t="n">
-        <v>0.720583503573318</v>
+        <v>0.7260386522887206</v>
       </c>
     </row>
     <row r="53">
@@ -7484,22 +7484,22 @@
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2539736148160449</v>
+        <v>0.21304933490137754</v>
       </c>
       <c r="F53" t="n">
-        <v>0.019070516524079987</v>
+        <v>0.021503414156626682</v>
       </c>
       <c r="G53" t="n">
-        <v>13.317605451082416</v>
+        <v>9.90769806829593</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.21659608926227217</v>
+        <v>0.1709034176097405</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2913511403698177</v>
+        <v>0.2551952521930146</v>
       </c>
     </row>
     <row r="54">
@@ -7516,22 +7516,22 @@
         <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5940989289989518</v>
+        <v>0.5798775523835994</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02711305186238568</v>
+        <v>0.03280410525987654</v>
       </c>
       <c r="G54" t="n">
-        <v>21.911916519554687</v>
+        <v>17.676981212862437</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5409583238377093</v>
+        <v>0.5155826875291805</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6472395341601943</v>
+        <v>0.6441724172380183</v>
       </c>
     </row>
     <row r="55">
@@ -7548,22 +7548,22 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7845027761163926</v>
+        <v>0.7267411327447422</v>
       </c>
       <c r="F55" t="n">
-        <v>0.030527820924212544</v>
+        <v>0.03703869650301316</v>
       </c>
       <c r="G55" t="n">
-        <v>25.697961805527353</v>
+        <v>19.621131447906667</v>
       </c>
       <c r="H55" t="n">
         <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7246693465784478</v>
+        <v>0.6541466215645267</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8443362056543374</v>
+        <v>0.7993356439249576</v>
       </c>
     </row>
     <row r="56">
@@ -7580,22 +7580,22 @@
         <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9844823794624027</v>
+        <v>0.942552843396553</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03262523796743144</v>
+        <v>0.038961101129611875</v>
       </c>
       <c r="G56" t="n">
-        <v>30.175485017003545</v>
+        <v>24.192151044729535</v>
       </c>
       <c r="H56" t="n">
         <v>0.0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9205380880591884</v>
+        <v>0.8661904883844909</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0484266708656171</v>
+        <v>1.018915198408615</v>
       </c>
     </row>
     <row r="57">
@@ -7612,22 +7612,22 @@
         <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3071106592574277</v>
+        <v>0.28064032738019773</v>
       </c>
       <c r="F57" t="n">
-        <v>0.022659319889496588</v>
+        <v>0.025310124469866895</v>
       </c>
       <c r="G57" t="n">
-        <v>13.553392632926489</v>
+        <v>11.088065873177177</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2626992083598423</v>
+        <v>0.2310333949750327</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3515221101550131</v>
+        <v>0.33024725978536273</v>
       </c>
     </row>
     <row r="58">
@@ -7644,22 +7644,22 @@
         <v>22</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7749977148768453</v>
+        <v>0.7626860084811928</v>
       </c>
       <c r="F58" t="n">
-        <v>0.030982921401428165</v>
+        <v>0.03794958552586596</v>
       </c>
       <c r="G58" t="n">
-        <v>25.013706901154958</v>
+        <v>20.09734751810018</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7142723047942109</v>
+        <v>0.688306187622273</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8357231249594798</v>
+        <v>0.8370658293401126</v>
       </c>
     </row>
     <row r="59">
@@ -7676,22 +7676,22 @@
         <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>0.15259222809993223</v>
+        <v>0.13964164899039402</v>
       </c>
       <c r="F59" t="n">
-        <v>0.017422035153161392</v>
+        <v>0.018462787947086765</v>
       </c>
       <c r="G59" t="n">
-        <v>8.758576524410406</v>
+        <v>7.563410758472586</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0</v>
+        <v>3.930189507173054E-14</v>
       </c>
       <c r="I59" t="n">
-        <v>0.11844566666234514</v>
+        <v>0.10345524955990378</v>
       </c>
       <c r="J59" t="n">
-        <v>0.18673878953751932</v>
+        <v>0.1758280484208843</v>
       </c>
     </row>
     <row r="60">
@@ -7708,22 +7708,22 @@
         <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5801635604785816</v>
+        <v>0.5523308202271242</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02500536839513703</v>
+        <v>0.028012511833182437</v>
       </c>
       <c r="G60" t="n">
-        <v>23.201560213422415</v>
+        <v>19.717290027981583</v>
       </c>
       <c r="H60" t="n">
         <v>0.0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5311539390039569</v>
+        <v>0.49742730591758455</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6291731819532064</v>
+        <v>0.6072343345366639</v>
       </c>
     </row>
     <row r="61">
@@ -7740,22 +7740,22 @@
         <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>0.20110507469106573</v>
+        <v>0.1851231504363399</v>
       </c>
       <c r="F61" t="n">
-        <v>0.015585874845185204</v>
+        <v>0.016718637587402135</v>
       </c>
       <c r="G61" t="n">
-        <v>12.90303410547347</v>
+        <v>11.072861019239648</v>
       </c>
       <c r="H61" t="n">
         <v>0.0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.17055732132695395</v>
+        <v>0.1523552228944541</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2316528280551775</v>
+        <v>0.21789107797822568</v>
       </c>
     </row>
     <row r="62">
@@ -7900,22 +7900,22 @@
         <v>37</v>
       </c>
       <c r="E66" t="n">
-        <v>1.3257819040080694</v>
+        <v>1.313268281093681</v>
       </c>
       <c r="F66" t="n">
-        <v>0.014146863234527081</v>
+        <v>0.014350362972492627</v>
       </c>
       <c r="G66" t="n">
-        <v>93.71560903849999</v>
+        <v>91.51463859213933</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>1.2980545615741825</v>
+        <v>1.2851420865025185</v>
       </c>
       <c r="J66" t="n">
-        <v>1.3535092464419562</v>
+        <v>1.3413944756848437</v>
       </c>
     </row>
     <row r="67">
@@ -7932,22 +7932,22 @@
         <v>37</v>
       </c>
       <c r="E67" t="n">
-        <v>1.2332409879103818</v>
+        <v>1.2175738724188954</v>
       </c>
       <c r="F67" t="n">
-        <v>0.012834824154627594</v>
+        <v>0.012790616450148597</v>
       </c>
       <c r="G67" t="n">
-        <v>96.08553830211511</v>
+        <v>95.19274361516408</v>
       </c>
       <c r="H67" t="n">
         <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>1.208085194819407</v>
+        <v>1.1925047248365386</v>
       </c>
       <c r="J67" t="n">
-        <v>1.2583967810013568</v>
+        <v>1.2426430200012522</v>
       </c>
     </row>
     <row r="68">
@@ -7964,22 +7964,22 @@
         <v>37</v>
       </c>
       <c r="E68" t="n">
-        <v>1.216596590433609</v>
+        <v>1.1887087688357987</v>
       </c>
       <c r="F68" t="n">
-        <v>0.010316832979741605</v>
+        <v>0.012323309718182058</v>
       </c>
       <c r="G68" t="n">
-        <v>117.92345507798264</v>
+        <v>96.4601877271618</v>
       </c>
       <c r="H68" t="n">
         <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.1963759693588003</v>
+        <v>1.1645555256178295</v>
       </c>
       <c r="J68" t="n">
-        <v>1.2368172115084175</v>
+        <v>1.2128620120537679</v>
       </c>
     </row>
     <row r="69">
@@ -7996,22 +7996,22 @@
         <v>37</v>
       </c>
       <c r="E69" t="n">
-        <v>1.541453479981026</v>
+        <v>1.500521444265708</v>
       </c>
       <c r="F69" t="n">
-        <v>0.017143335532890012</v>
+        <v>0.020830286497338455</v>
       </c>
       <c r="G69" t="n">
-        <v>89.91561047286862</v>
+        <v>72.03556439117791</v>
       </c>
       <c r="H69" t="n">
         <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.5078531597616758</v>
+        <v>1.4596948329432737</v>
       </c>
       <c r="J69" t="n">
-        <v>1.5750538002003762</v>
+        <v>1.5413480555881423</v>
       </c>
     </row>
     <row r="70">
@@ -8028,22 +8028,22 @@
         <v>37</v>
       </c>
       <c r="E70" t="n">
-        <v>1.2086764305832483</v>
+        <v>1.1884770845346662</v>
       </c>
       <c r="F70" t="n">
-        <v>0.011949432239149124</v>
+        <v>0.014013654718755531</v>
       </c>
       <c r="G70" t="n">
-        <v>101.14927691906087</v>
+        <v>84.80850344800045</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.1852559737588142</v>
+        <v>1.1610108259941256</v>
       </c>
       <c r="J70" t="n">
-        <v>1.2320968874076823</v>
+        <v>1.2159433430752067</v>
       </c>
     </row>
     <row r="71">
@@ -8060,22 +8060,22 @@
         <v>37</v>
       </c>
       <c r="E71" t="n">
-        <v>1.735445925991946</v>
+        <v>1.7137842165879706</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02106027174247172</v>
+        <v>0.021778677996690317</v>
       </c>
       <c r="G71" t="n">
-        <v>82.40377651405683</v>
+        <v>78.69092039693193</v>
       </c>
       <c r="H71" t="n">
         <v>0.0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.6941685518720748</v>
+        <v>1.6710987920835627</v>
       </c>
       <c r="J71" t="n">
-        <v>1.776723300111817</v>
+        <v>1.7564696410923786</v>
       </c>
     </row>
     <row r="72">
@@ -8092,22 +8092,22 @@
         <v>37</v>
       </c>
       <c r="E72" t="n">
-        <v>1.6337869264946088</v>
+        <v>1.6089694953753075</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02073331815255394</v>
+        <v>0.021570278997442145</v>
       </c>
       <c r="G72" t="n">
-        <v>78.80007022867</v>
+        <v>74.5919649702307</v>
       </c>
       <c r="H72" t="n">
         <v>0.0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.5931503696355924</v>
+        <v>1.5666925254038402</v>
       </c>
       <c r="J72" t="n">
-        <v>1.6744234833536251</v>
+        <v>1.6512464653467749</v>
       </c>
     </row>
     <row r="73">
@@ -8124,22 +8124,22 @@
         <v>37</v>
       </c>
       <c r="E73" t="n">
-        <v>1.6464632762126137</v>
+        <v>1.6069970387395458</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01736818397924204</v>
+        <v>0.021821861630497444</v>
       </c>
       <c r="G73" t="n">
-        <v>94.79766440638927</v>
+        <v>73.64161069070592</v>
       </c>
       <c r="H73" t="n">
         <v>0.0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.6124222611364338</v>
+        <v>1.5642269758681544</v>
       </c>
       <c r="J73" t="n">
-        <v>1.6805042912887935</v>
+        <v>1.6497671016109372</v>
       </c>
     </row>
     <row r="74">
@@ -8156,22 +8156,22 @@
         <v>37</v>
       </c>
       <c r="E74" t="n">
-        <v>1.904420657122071</v>
+        <v>1.864666943059931</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02149031369993902</v>
+        <v>0.02658874972715664</v>
       </c>
       <c r="G74" t="n">
-        <v>88.61762949172189</v>
+        <v>70.12992194798231</v>
       </c>
       <c r="H74" t="n">
         <v>0.0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.862300416253723</v>
+        <v>1.8125539512007547</v>
       </c>
       <c r="J74" t="n">
-        <v>1.946540897990419</v>
+        <v>1.9167799349191073</v>
       </c>
     </row>
     <row r="75">
@@ -8188,22 +8188,22 @@
         <v>37</v>
       </c>
       <c r="E75" t="n">
-        <v>1.8450676690339367</v>
+        <v>1.8156280047752393</v>
       </c>
       <c r="F75" t="n">
-        <v>0.021560286851330424</v>
+        <v>0.02686140080746341</v>
       </c>
       <c r="G75" t="n">
-        <v>85.57713919840927</v>
+        <v>67.59245423532674</v>
       </c>
       <c r="H75" t="n">
         <v>0.0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.8028102833089765</v>
+        <v>1.762980626618316</v>
       </c>
       <c r="J75" t="n">
-        <v>1.887325054758897</v>
+        <v>1.8682753829321628</v>
       </c>
     </row>
     <row r="76">
@@ -9705,22 +9705,22 @@
         <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>0.15825923716498314</v>
+        <v>0.15895705779578995</v>
       </c>
       <c r="G32" t="n">
-        <v>0.021827641894381425</v>
+        <v>0.024768367792491752</v>
       </c>
       <c r="H32" t="n">
-        <v>7.250404690106268</v>
+        <v>6.417744565468539</v>
       </c>
       <c r="I32" t="n">
-        <v>4.154454558147336E-13</v>
+        <v>1.383080316941232E-10</v>
       </c>
       <c r="J32" t="n">
-        <v>0.11547784518455792</v>
+        <v>0.11041194896666429</v>
       </c>
       <c r="K32" t="n">
-        <v>0.20104062914540835</v>
+        <v>0.2075021666249156</v>
       </c>
     </row>
     <row r="33">
@@ -9740,22 +9740,22 @@
         <v>40</v>
       </c>
       <c r="F33" t="n">
-        <v>0.15825923716498316</v>
+        <v>0.15895705779578997</v>
       </c>
       <c r="G33" t="n">
-        <v>0.021827641894381394</v>
+        <v>0.024768367792491742</v>
       </c>
       <c r="H33" t="n">
-        <v>7.250404690106279</v>
+        <v>6.417744565468543</v>
       </c>
       <c r="I33" t="n">
-        <v>4.154454558147336E-13</v>
+        <v>1.383080316941232E-10</v>
       </c>
       <c r="J33" t="n">
-        <v>0.115477845184558</v>
+        <v>0.11041194896666433</v>
       </c>
       <c r="K33" t="n">
-        <v>0.20104062914540832</v>
+        <v>0.2075021666249156</v>
       </c>
     </row>
     <row r="34">
@@ -9775,22 +9775,22 @@
         <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>0.15825923716498308</v>
+        <v>0.15895705779578992</v>
       </c>
       <c r="G34" t="n">
-        <v>0.021827641894381362</v>
+        <v>0.02476836779249172</v>
       </c>
       <c r="H34" t="n">
-        <v>7.2504046901062855</v>
+        <v>6.4177445654685465</v>
       </c>
       <c r="I34" t="n">
-        <v>4.154454558147336E-13</v>
+        <v>1.383080316941232E-10</v>
       </c>
       <c r="J34" t="n">
-        <v>0.11547784518455798</v>
+        <v>0.11041194896666431</v>
       </c>
       <c r="K34" t="n">
-        <v>0.20104062914540818</v>
+        <v>0.20750216662491552</v>
       </c>
     </row>
     <row r="35">
@@ -9810,22 +9810,22 @@
         <v>40</v>
       </c>
       <c r="F35" t="n">
-        <v>0.15825923716498322</v>
+        <v>0.15895705779579006</v>
       </c>
       <c r="G35" t="n">
-        <v>0.021827641894381397</v>
+        <v>0.02476836779249173</v>
       </c>
       <c r="H35" t="n">
-        <v>7.25040469010628</v>
+        <v>6.417744565468549</v>
       </c>
       <c r="I35" t="n">
-        <v>4.154454558147336E-13</v>
+        <v>1.383080316941232E-10</v>
       </c>
       <c r="J35" t="n">
-        <v>0.11547784518455806</v>
+        <v>0.11041194896666442</v>
       </c>
       <c r="K35" t="n">
-        <v>0.20104062914540838</v>
+        <v>0.2075021666249157</v>
       </c>
     </row>
     <row r="36">
@@ -9845,22 +9845,22 @@
         <v>44</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06642367164777</v>
+        <v>0.05352527386538822</v>
       </c>
       <c r="G36" t="n">
-        <v>0.021840714519513343</v>
+        <v>0.024188411920968142</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0412774082287695</v>
+        <v>2.2128477901018755</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002355766768054046</v>
+        <v>0.02690814121644336</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02361665779290282</v>
+        <v>0.006116857657071366</v>
       </c>
       <c r="K36" t="n">
-        <v>0.10923068550263718</v>
+        <v>0.10093369007370506</v>
       </c>
     </row>
     <row r="37">
@@ -9880,22 +9880,22 @@
         <v>41</v>
       </c>
       <c r="F37" t="n">
-        <v>0.13342576225330638</v>
+        <v>0.13705718880984444</v>
       </c>
       <c r="G37" t="n">
-        <v>0.021213720073895808</v>
+        <v>0.022736898006088174</v>
       </c>
       <c r="H37" t="n">
-        <v>6.289597571219545</v>
+        <v>6.027963391186659</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1829006097439105E-10</v>
+        <v>1.6603864949615854E-9</v>
       </c>
       <c r="J37" t="n">
-        <v>0.09184763493035623</v>
+        <v>0.09249368759775106</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1750038895762565</v>
+        <v>0.18162069002193781</v>
       </c>
     </row>
     <row r="38">
@@ -9915,22 +9915,22 @@
         <v>44</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06642367164777001</v>
+        <v>0.053525273865388245</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02184071451951333</v>
+        <v>0.024188411920968128</v>
       </c>
       <c r="H38" t="n">
-        <v>3.041277408228772</v>
+        <v>2.212847790101878</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002355766768054046</v>
+        <v>0.02690814121644336</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02361665779290286</v>
+        <v>0.006116857657071421</v>
       </c>
       <c r="K38" t="n">
-        <v>0.10923068550263715</v>
+        <v>0.10093369007370506</v>
       </c>
     </row>
     <row r="39">
@@ -9950,22 +9950,22 @@
         <v>41</v>
       </c>
       <c r="F39" t="n">
-        <v>0.13342576225330632</v>
+        <v>0.1370571888098444</v>
       </c>
       <c r="G39" t="n">
-        <v>0.021213720073895794</v>
+        <v>0.022736898006088167</v>
       </c>
       <c r="H39" t="n">
-        <v>6.289597571219546</v>
+        <v>6.027963391186659</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1829006097439105E-10</v>
+        <v>1.6603864949615854E-9</v>
       </c>
       <c r="J39" t="n">
-        <v>0.09184763493035619</v>
+        <v>0.09249368759775105</v>
       </c>
       <c r="K39" t="n">
-        <v>0.17500388957625646</v>
+        <v>0.18162069002193776</v>
       </c>
     </row>
     <row r="40">
@@ -9985,22 +9985,22 @@
         <v>44</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06642367164777002</v>
+        <v>0.053525273865388245</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02184071451951334</v>
+        <v>0.02418841192096811</v>
       </c>
       <c r="H40" t="n">
-        <v>3.0412774082287712</v>
+        <v>2.2128477901018795</v>
       </c>
       <c r="I40" t="n">
-        <v>0.002355766768054046</v>
+        <v>0.026908141216443138</v>
       </c>
       <c r="J40" t="n">
-        <v>0.023616657792902854</v>
+        <v>0.006116857657071456</v>
       </c>
       <c r="K40" t="n">
-        <v>0.10923068550263719</v>
+        <v>0.10093369007370503</v>
       </c>
     </row>
     <row r="41">
@@ -10020,22 +10020,22 @@
         <v>41</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1334257622533062</v>
+        <v>0.1370571888098443</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02121372007389582</v>
+        <v>0.022736898006088184</v>
       </c>
       <c r="H41" t="n">
-        <v>6.289597571219534</v>
+        <v>6.02796339118665</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1829006097439105E-10</v>
+        <v>1.6603864949615854E-9</v>
       </c>
       <c r="J41" t="n">
-        <v>0.09184763493035605</v>
+        <v>0.0924936875977509</v>
       </c>
       <c r="K41" t="n">
-        <v>0.17500388957625637</v>
+        <v>0.1816206900219377</v>
       </c>
     </row>
     <row r="42">
@@ -10055,22 +10055,22 @@
         <v>44</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06642367164776995</v>
+        <v>0.05352527386538816</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02184071451951333</v>
+        <v>0.02418841192096812</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0412774082287695</v>
+        <v>2.212847790101875</v>
       </c>
       <c r="I42" t="n">
-        <v>0.002355766768054046</v>
+        <v>0.026908141216443582</v>
       </c>
       <c r="J42" t="n">
-        <v>0.023616657792902805</v>
+        <v>0.006116857657071352</v>
       </c>
       <c r="K42" t="n">
-        <v>0.10923068550263709</v>
+        <v>0.10093369007370498</v>
       </c>
     </row>
     <row r="43">
@@ -10090,22 +10090,22 @@
         <v>41</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13342576225330638</v>
+        <v>0.13705718880984447</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02121372007389581</v>
+        <v>0.022736898006088174</v>
       </c>
       <c r="H43" t="n">
-        <v>6.289597571219544</v>
+        <v>6.02796339118666</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1829006097439105E-10</v>
+        <v>1.6603864949615854E-9</v>
       </c>
       <c r="J43" t="n">
-        <v>0.09184763493035622</v>
+        <v>0.09249368759775109</v>
       </c>
       <c r="K43" t="n">
-        <v>0.17500388957625654</v>
+        <v>0.18162069002193784</v>
       </c>
     </row>
     <row r="44">
@@ -10125,22 +10125,22 @@
         <v>37</v>
       </c>
       <c r="F44" t="n">
-        <v>0.170993778206859</v>
+        <v>0.17432084715429713</v>
       </c>
       <c r="G44" t="n">
-        <v>0.022170527389274424</v>
+        <v>0.022185720188643895</v>
       </c>
       <c r="H44" t="n">
-        <v>7.712661733503991</v>
+        <v>7.857344529366505</v>
       </c>
       <c r="I44" t="n">
-        <v>1.2212453270876722E-14</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="J44" t="n">
-        <v>0.12754034300562228</v>
+        <v>0.13083763461347192</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2144472134080957</v>
+        <v>0.21780405969512234</v>
       </c>
     </row>
     <row r="45">
@@ -10160,22 +10160,22 @@
         <v>37</v>
       </c>
       <c r="F45" t="n">
-        <v>0.12923079090195178</v>
+        <v>0.12903119861525122</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01776426041650826</v>
+        <v>0.017456570837754294</v>
       </c>
       <c r="H45" t="n">
-        <v>7.274763365991758</v>
+        <v>7.3915547225454095</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4705571749782393E-13</v>
+        <v>1.4521717162097048E-13</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0944134802736051</v>
+        <v>0.09481694847968061</v>
       </c>
       <c r="K45" t="n">
-        <v>0.16404810153029845</v>
+        <v>0.16324544875082184</v>
       </c>
     </row>
     <row r="46">
@@ -10195,22 +10195,22 @@
         <v>37</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0671200195563527</v>
+        <v>0.058433804857125536</v>
       </c>
       <c r="G46" t="n">
-        <v>0.014033222208335392</v>
+        <v>0.015786669441796894</v>
       </c>
       <c r="H46" t="n">
-        <v>4.782937130182764</v>
+        <v>3.701465028615586</v>
       </c>
       <c r="I46" t="n">
-        <v>1.7275217005785493E-6</v>
+        <v>2.143582041336245E-4</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0396154094409677</v>
+        <v>0.02749250131536459</v>
       </c>
       <c r="K46" t="n">
-        <v>0.09462462967173771</v>
+        <v>0.08937510839888649</v>
       </c>
     </row>
     <row r="47">
@@ -10230,22 +10230,22 @@
         <v>37</v>
       </c>
       <c r="F47" t="n">
-        <v>0.24891068393251892</v>
+        <v>0.21722315903342782</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0234266831553461</v>
+        <v>0.028180396799296924</v>
       </c>
       <c r="H47" t="n">
-        <v>10.625092860220636</v>
+        <v>7.708307323722544</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>1.2656542480726785E-14</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2029952286708094</v>
+        <v>0.16199059623675804</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2948261391942284</v>
+        <v>0.2724557218300976</v>
       </c>
     </row>
     <row r="48">
@@ -10265,22 +10265,22 @@
         <v>37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02448519597845471</v>
+        <v>0.009094091035708666</v>
       </c>
       <c r="G48" t="n">
-        <v>0.014417318651794608</v>
+        <v>0.016957399328070315</v>
       </c>
       <c r="H48" t="n">
-        <v>1.6983182913423984</v>
+        <v>0.5362904334425164</v>
       </c>
       <c r="I48" t="n">
-        <v>0.08944770426757565</v>
+        <v>0.5917578412204532</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0037722293327002825</v>
+        <v>-0.02414180091877286</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0527426212896097</v>
+        <v>0.04232998299019019</v>
       </c>
     </row>
     <row r="49">
@@ -10300,22 +10300,22 @@
         <v>37</v>
       </c>
       <c r="F49" t="n">
-        <v>0.43129068459883757</v>
+        <v>0.43887402465637143</v>
       </c>
       <c r="G49" t="n">
-        <v>0.028048615398461367</v>
+        <v>0.02818026902298104</v>
       </c>
       <c r="H49" t="n">
-        <v>15.376540997545868</v>
+        <v>15.573805356452388</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.37631640860163773</v>
+        <v>0.38364171229667887</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4862649605960374</v>
+        <v>0.494106337016064</v>
       </c>
     </row>
     <row r="50">
@@ -10335,22 +10335,22 @@
         <v>37</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8664073188263991</v>
+        <v>0.8747005481986246</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03665473435824015</v>
+        <v>0.036576612051687045</v>
       </c>
       <c r="H50" t="n">
-        <v>23.63698261617948</v>
+        <v>23.914203616304597</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7945653596213655</v>
+        <v>0.8030117059008244</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9382492780314327</v>
+        <v>0.9463893904964249</v>
       </c>
     </row>
     <row r="51">
@@ -10370,22 +10370,22 @@
         <v>37</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2731761386271701</v>
+        <v>0.27656376346879213</v>
       </c>
       <c r="G51" t="n">
-        <v>0.021185188937997576</v>
+        <v>0.02064745902303212</v>
       </c>
       <c r="H51" t="n">
-        <v>12.894675588056884</v>
+        <v>13.394566525609125</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2316539313030185</v>
+        <v>0.23609548741138262</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3146983459513217</v>
+        <v>0.3170320395262016</v>
       </c>
     </row>
     <row r="52">
@@ -10405,22 +10405,22 @@
         <v>37</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7261053805899989</v>
+        <v>0.7284801825801425</v>
       </c>
       <c r="G52" t="n">
-        <v>0.036129073697723606</v>
+        <v>0.0361688950185058</v>
       </c>
       <c r="H52" t="n">
-        <v>20.097536589645497</v>
+        <v>20.14106823577043</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6552936973476673</v>
+        <v>0.657590450983261</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7969170638323304</v>
+        <v>0.799369914177024</v>
       </c>
     </row>
     <row r="53">
@@ -10440,22 +10440,22 @@
         <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2463584775553808</v>
+        <v>0.21375314074885068</v>
       </c>
       <c r="G53" t="n">
-        <v>0.017916151372977814</v>
+        <v>0.020250386653892078</v>
       </c>
       <c r="H53" t="n">
-        <v>13.750636083983586</v>
+        <v>10.555509107168964</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.21124346612277645</v>
+        <v>0.17406311223421164</v>
       </c>
       <c r="K53" t="n">
-        <v>0.28147348898798513</v>
+        <v>0.25344316926348975</v>
       </c>
     </row>
     <row r="54">
@@ -10475,22 +10475,22 @@
         <v>37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5851478010832105</v>
+        <v>0.5756003970701574</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02549875881512389</v>
+        <v>0.0317363003829493</v>
       </c>
       <c r="H54" t="n">
-        <v>22.94808956489859</v>
+        <v>18.13697217774651</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5351711521550945</v>
+        <v>0.5133983913170321</v>
       </c>
       <c r="K54" t="n">
-        <v>0.6351244500113266</v>
+        <v>0.6378024028232827</v>
       </c>
     </row>
     <row r="55">
@@ -10510,22 +10510,22 @@
         <v>37</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7682490168129248</v>
+        <v>0.7153716813180608</v>
       </c>
       <c r="G55" t="n">
-        <v>0.030551828234836206</v>
+        <v>0.03733730941301285</v>
       </c>
       <c r="H55" t="n">
-        <v>25.145762502583786</v>
+        <v>19.15970091483717</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7083685338107919</v>
+        <v>0.6421918995889273</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8281294998150577</v>
+        <v>0.7885514630471944</v>
       </c>
     </row>
     <row r="56">
@@ -10545,22 +10545,22 @@
         <v>37</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9400518685590581</v>
+        <v>0.8957928092680446</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03388240865047191</v>
+        <v>0.04010606693696777</v>
       </c>
       <c r="H56" t="n">
-        <v>27.744540780927192</v>
+        <v>22.33559353191892</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8736435678946648</v>
+        <v>0.8171863625100352</v>
       </c>
       <c r="K56" t="n">
-        <v>1.0064601692234514</v>
+        <v>0.974399256026054</v>
       </c>
     </row>
     <row r="57">
@@ -10580,22 +10580,22 @@
         <v>37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3061127869558825</v>
+        <v>0.27731877388752724</v>
       </c>
       <c r="G57" t="n">
-        <v>0.021834421138755063</v>
+        <v>0.02377946611714069</v>
       </c>
       <c r="H57" t="n">
-        <v>14.019734483024457</v>
+        <v>11.662111021392134</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2633181079006426</v>
+        <v>0.23071187672634097</v>
       </c>
       <c r="K57" t="n">
-        <v>0.34890746601112244</v>
+        <v>0.3239256710487135</v>
       </c>
     </row>
     <row r="58">
@@ -10615,22 +10615,22 @@
         <v>37</v>
       </c>
       <c r="F58" t="n">
-        <v>0.74661487992181</v>
+        <v>0.7346291303045461</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03118896546248851</v>
+        <v>0.03808853805352847</v>
       </c>
       <c r="H58" t="n">
-        <v>23.938430430460294</v>
+        <v>19.287406864293942</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6854856309002689</v>
+        <v>0.659976967495847</v>
       </c>
       <c r="K58" t="n">
-        <v>0.807744128943351</v>
+        <v>0.8092812931132453</v>
       </c>
     </row>
     <row r="59">
@@ -10650,22 +10650,22 @@
         <v>37</v>
       </c>
       <c r="F59" t="n">
-        <v>0.16129891760026752</v>
+        <v>0.14133410560420567</v>
       </c>
       <c r="G59" t="n">
-        <v>0.015765511777077197</v>
+        <v>0.016989123076192235</v>
       </c>
       <c r="H59" t="n">
-        <v>10.231124741208438</v>
+        <v>8.319093632458564</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.13039908231935415</v>
+        <v>0.10803603624595057</v>
       </c>
       <c r="K59" t="n">
-        <v>0.19219875288118088</v>
+        <v>0.17463217496246078</v>
       </c>
     </row>
     <row r="60">
@@ -10685,22 +10685,22 @@
         <v>37</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5881091230352369</v>
+        <v>0.5516073706443851</v>
       </c>
       <c r="G60" t="n">
-        <v>0.025005905277319555</v>
+        <v>0.028136698452875586</v>
       </c>
       <c r="H60" t="n">
-        <v>23.51880951771236</v>
+        <v>19.604552096552414</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5390984492908705</v>
+        <v>0.49646045503288516</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6371197967796033</v>
+        <v>0.6067542862558851</v>
       </c>
     </row>
     <row r="61">
@@ -10720,22 +10720,22 @@
         <v>37</v>
       </c>
       <c r="F61" t="n">
-        <v>0.20867789661786676</v>
+        <v>0.18989722091293065</v>
       </c>
       <c r="G61" t="n">
-        <v>0.014775064775899885</v>
+        <v>0.01630126275213634</v>
       </c>
       <c r="H61" t="n">
-        <v>14.123653586835601</v>
+        <v>11.64923379251978</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1797193017878566</v>
+        <v>0.15794733301621916</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2376364914478769</v>
+        <v>0.22184710880964215</v>
       </c>
     </row>
     <row r="62">
@@ -10895,22 +10895,22 @@
         <v>37</v>
       </c>
       <c r="F66" t="n">
-        <v>1.326732552009133</v>
+        <v>1.3132606670542566</v>
       </c>
       <c r="G66" t="n">
-        <v>0.014130919999786055</v>
+        <v>0.014350448347938237</v>
       </c>
       <c r="H66" t="n">
-        <v>93.888618152903</v>
+        <v>91.51356356353395</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.2990364577411357</v>
+        <v>1.2851343051302953</v>
       </c>
       <c r="K66" t="n">
-        <v>1.3544286462771304</v>
+        <v>1.341387028978218</v>
       </c>
     </row>
     <row r="67">
@@ -10930,22 +10930,22 @@
         <v>37</v>
       </c>
       <c r="F67" t="n">
-        <v>1.233891077098426</v>
+        <v>1.2176408365119993</v>
       </c>
       <c r="G67" t="n">
-        <v>0.012690871352552188</v>
+        <v>0.012762626754156936</v>
       </c>
       <c r="H67" t="n">
-        <v>97.22666338826964</v>
+        <v>95.40675755603364</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.2090174263149924</v>
+        <v>1.1926265477257243</v>
       </c>
       <c r="K67" t="n">
-        <v>1.2587647278818594</v>
+        <v>1.2426551252982743</v>
       </c>
     </row>
     <row r="68">
@@ -10965,22 +10965,22 @@
         <v>37</v>
       </c>
       <c r="F68" t="n">
-        <v>1.2167072554138525</v>
+        <v>1.1888299867307108</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01033506319074703</v>
+        <v>0.012348820289272618</v>
       </c>
       <c r="H68" t="n">
-        <v>117.72615541462477</v>
+        <v>96.27073346945082</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.1964509037820428</v>
+        <v>1.1646267437121791</v>
       </c>
       <c r="K68" t="n">
-        <v>1.2369636070456622</v>
+        <v>1.2130332297492425</v>
       </c>
     </row>
     <row r="69">
@@ -11000,22 +11000,22 @@
         <v>37</v>
       </c>
       <c r="F69" t="n">
-        <v>1.5405494646059543</v>
+        <v>1.500440355400976</v>
       </c>
       <c r="G69" t="n">
-        <v>0.017112878735335138</v>
+        <v>0.020836740783356913</v>
       </c>
       <c r="H69" t="n">
-        <v>90.02281196704712</v>
+        <v>72.00935938116743</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.5070088386128961</v>
+        <v>1.4596010939103996</v>
       </c>
       <c r="K69" t="n">
-        <v>1.5740900905990125</v>
+        <v>1.5412796168915524</v>
       </c>
     </row>
     <row r="70">
@@ -11035,22 +11035,22 @@
         <v>37</v>
       </c>
       <c r="F70" t="n">
-        <v>1.208574667706916</v>
+        <v>1.1889315674813368</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01218564134713312</v>
+        <v>0.014451299297713719</v>
       </c>
       <c r="H70" t="n">
-        <v>99.18022640566669</v>
+        <v>82.27160361071705</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.1846912495380129</v>
+        <v>1.1606075413280088</v>
       </c>
       <c r="K70" t="n">
-        <v>1.2324580858758192</v>
+        <v>1.2172555936346647</v>
       </c>
     </row>
     <row r="71">
@@ -11070,22 +11070,22 @@
         <v>37</v>
       </c>
       <c r="F71" t="n">
-        <v>1.736724518906558</v>
+        <v>1.7138260470645537</v>
       </c>
       <c r="G71" t="n">
-        <v>0.021051099196800357</v>
+        <v>0.021778339985480028</v>
       </c>
       <c r="H71" t="n">
-        <v>82.50041970114938</v>
+        <v>78.69406245871767</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.6954651226458493</v>
+        <v>1.6711412850499443</v>
       </c>
       <c r="K71" t="n">
-        <v>1.777983915167267</v>
+        <v>1.756510809079163</v>
       </c>
     </row>
     <row r="72">
@@ -11105,22 +11105,22 @@
         <v>37</v>
       </c>
       <c r="F72" t="n">
-        <v>1.6360009781571756</v>
+        <v>1.6096202128171484</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0206505373135782</v>
+        <v>0.021571114003936805</v>
       </c>
       <c r="H72" t="n">
-        <v>79.22316757741056</v>
+        <v>74.61924370356519</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.5955266687611618</v>
+        <v>1.5673416062630248</v>
       </c>
       <c r="K72" t="n">
-        <v>1.6764752875531894</v>
+        <v>1.651898819371272</v>
       </c>
     </row>
     <row r="73">
@@ -11140,22 +11140,22 @@
         <v>37</v>
       </c>
       <c r="F73" t="n">
-        <v>1.6463093785498142</v>
+        <v>1.6068740971935076</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01737358600542848</v>
+        <v>0.021819751699781786</v>
       </c>
       <c r="H73" t="n">
-        <v>94.7593305167635</v>
+        <v>73.64309728646352</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.6122577756968652</v>
+        <v>1.5641081697103287</v>
       </c>
       <c r="K73" t="n">
-        <v>1.6803609814027631</v>
+        <v>1.6496400246766865</v>
       </c>
     </row>
     <row r="74">
@@ -11175,22 +11175,22 @@
         <v>37</v>
       </c>
       <c r="F74" t="n">
-        <v>1.903947732419797</v>
+        <v>1.8646440246851084</v>
       </c>
       <c r="G74" t="n">
-        <v>0.021483357470252904</v>
+        <v>0.026598032657046446</v>
       </c>
       <c r="H74" t="n">
-        <v>88.62431000629734</v>
+        <v>70.10458437763893</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.8618411255111018</v>
+        <v>1.8125128386176772</v>
       </c>
       <c r="K74" t="n">
-        <v>1.9460543393284924</v>
+        <v>1.9167752107525395</v>
       </c>
     </row>
     <row r="75">
@@ -11210,22 +11210,22 @@
         <v>37</v>
       </c>
       <c r="F75" t="n">
-        <v>1.8472847567287292</v>
+        <v>1.8172241632255854</v>
       </c>
       <c r="G75" t="n">
-        <v>0.021684679259663935</v>
+        <v>0.02697734326323895</v>
       </c>
       <c r="H75" t="n">
-        <v>85.18847498772541</v>
+        <v>67.36112394365576</v>
       </c>
       <c r="I75" t="n">
         <v>0.0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.8047835663634852</v>
+        <v>1.7643495420310629</v>
       </c>
       <c r="K75" t="n">
-        <v>1.889785947093973</v>
+        <v>1.870098784420108</v>
       </c>
     </row>
     <row r="76">
@@ -12667,22 +12667,22 @@
         <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>0.12128939185666605</v>
+        <v>0.12957458572529149</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03853365368029905</v>
+        <v>0.03772827059980296</v>
       </c>
       <c r="G32" t="n">
-        <v>3.147622409828145</v>
+        <v>3.434416252463165</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00164604169685445</v>
+        <v>5.938315361737612E-4</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04576481845054063</v>
+        <v>0.055628534150696324</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1968139652627915</v>
+        <v>0.20352063729988665</v>
       </c>
     </row>
     <row r="33">
@@ -12699,22 +12699,22 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.03934509524492302</v>
+        <v>-0.035749824424561864</v>
       </c>
       <c r="F33" t="n">
-        <v>0.018670995447551016</v>
+        <v>0.01848512245430418</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.1072842824823104</v>
+        <v>-1.933978231030743</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03509294494480719</v>
+        <v>0.05311580442139063</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.07593957387763431</v>
+        <v>-0.0719799986848107</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.00275061661221173</v>
+        <v>4.803498356869759E-4</v>
       </c>
     </row>
     <row r="34">
@@ -12731,22 +12731,22 @@
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.14854838616365829</v>
+        <v>0.11409177960257715</v>
       </c>
       <c r="F34" t="n">
-        <v>0.056771460504232915</v>
+        <v>0.0514115742251191</v>
       </c>
       <c r="G34" t="n">
-        <v>2.616603216550725</v>
+        <v>2.2191847132125595</v>
       </c>
       <c r="H34" t="n">
-        <v>0.008880950934536669</v>
+        <v>0.026474160633741972</v>
       </c>
       <c r="I34" t="n">
-        <v>0.037278368225623665</v>
+        <v>0.013326945732835993</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2598184041016929</v>
+        <v>0.2148566134723183</v>
       </c>
     </row>
     <row r="35">
@@ -12763,22 +12763,22 @@
         <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.025061663335064054</v>
+        <v>-0.029502723880807758</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02336804467459733</v>
+        <v>0.02077530429166763</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.0724758397226022</v>
+        <v>-1.4200862459877637</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2835063600282204</v>
+        <v>0.1555825739462242</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.07086218928639781</v>
+        <v>-0.07022157206033672</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02073886261626971</v>
+        <v>0.011216124298721205</v>
       </c>
     </row>
     <row r="36">
@@ -12795,22 +12795,22 @@
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>0.23393633567354058</v>
+        <v>0.2232389781165382</v>
       </c>
       <c r="F36" t="n">
-        <v>0.059532638654455176</v>
+        <v>0.07778767329383542</v>
       </c>
       <c r="G36" t="n">
-        <v>3.9295475719021193</v>
+        <v>2.8698503074294885</v>
       </c>
       <c r="H36" t="n">
-        <v>8.510583887200163E-5</v>
+        <v>0.004106661619417862</v>
       </c>
       <c r="I36" t="n">
-        <v>0.11725450800617139</v>
+        <v>0.07077794001945262</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3506181633409098</v>
+        <v>0.3757000162136238</v>
       </c>
     </row>
     <row r="37">
@@ -12827,22 +12827,22 @@
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>0.12172945999171708</v>
+        <v>0.10455247878866034</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03184669204042832</v>
+        <v>0.03794504208444097</v>
       </c>
       <c r="G37" t="n">
-        <v>3.8223580595807425</v>
+        <v>2.7553659989622505</v>
       </c>
       <c r="H37" t="n">
-        <v>1.3218156653982405E-4</v>
+        <v>0.005862651369311633</v>
       </c>
       <c r="I37" t="n">
-        <v>0.059311090565739175</v>
+        <v>0.03018156291129938</v>
       </c>
       <c r="J37" t="n">
-        <v>0.18414782941769497</v>
+        <v>0.1789233946660213</v>
       </c>
     </row>
     <row r="38">
@@ -12859,22 +12859,22 @@
         <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>0.15564678793280562</v>
+        <v>0.16792932011051948</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02387358593589653</v>
+        <v>0.03039181931943327</v>
       </c>
       <c r="G38" t="n">
-        <v>6.519623333953102</v>
+        <v>5.525477706533396</v>
       </c>
       <c r="H38" t="n">
-        <v>7.048406303056254E-11</v>
+        <v>3.285903016347902E-8</v>
       </c>
       <c r="I38" t="n">
-        <v>0.10885541931662647</v>
+        <v>0.10836244881978166</v>
       </c>
       <c r="J38" t="n">
-        <v>0.20243815654898478</v>
+        <v>0.2274961914012573</v>
       </c>
     </row>
     <row r="39">
@@ -12891,22 +12891,22 @@
         <v>21</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02588683556236087</v>
+        <v>0.03264450118950144</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01692395972883804</v>
+        <v>0.020678941982879215</v>
       </c>
       <c r="G39" t="n">
-        <v>1.5295968542308862</v>
+        <v>1.5786349812543075</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12611654859706345</v>
+        <v>0.11441980611782498</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.007283515981967942</v>
+        <v>-0.0078854803353351</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05905718710668968</v>
+        <v>0.07317448271433799</v>
       </c>
     </row>
     <row r="40">
@@ -12923,22 +12923,22 @@
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.01322226056249164</v>
+        <v>-0.007210406343758343</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03504051567681511</v>
+        <v>0.034865491228971805</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.37734206552331856</v>
+        <v>-0.2068063890568904</v>
       </c>
       <c r="H40" t="n">
-        <v>0.705919414929191</v>
+        <v>0.8361610662727201</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0819004092887604</v>
+        <v>-0.07554551345584021</v>
       </c>
       <c r="J40" t="n">
-        <v>0.055455888163777126</v>
+        <v>0.06112470076832352</v>
       </c>
     </row>
     <row r="41">
@@ -12955,22 +12955,22 @@
         <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0880897118316024</v>
+        <v>0.08011022809176678</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04346588226039072</v>
+        <v>0.04321723541037792</v>
       </c>
       <c r="G41" t="n">
-        <v>2.0266403728764564</v>
+        <v>1.853663875790852</v>
       </c>
       <c r="H41" t="n">
-        <v>0.042699204525442624</v>
+        <v>0.06378726291907522</v>
       </c>
       <c r="I41" t="n">
-        <v>0.002898148044978177</v>
+        <v>-0.004593996823963026</v>
       </c>
       <c r="J41" t="n">
-        <v>0.17328127561822662</v>
+        <v>0.1648144530074966</v>
       </c>
     </row>
     <row r="42">
@@ -12987,22 +12987,22 @@
         <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>0.24398623501123876</v>
+        <v>0.24567084585408527</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04024805764954614</v>
+        <v>0.04725616716399583</v>
       </c>
       <c r="G42" t="n">
-        <v>6.062062351821096</v>
+        <v>5.198704435793944</v>
       </c>
       <c r="H42" t="n">
-        <v>1.3438710144697552E-9</v>
+        <v>2.0068232875480874E-7</v>
       </c>
       <c r="I42" t="n">
-        <v>0.16510149157043652</v>
+        <v>0.15305046016524915</v>
       </c>
       <c r="J42" t="n">
-        <v>0.322870978452041</v>
+        <v>0.3382912315429214</v>
       </c>
     </row>
     <row r="43">
@@ -13019,22 +13019,22 @@
         <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>0.28817346085943457</v>
+        <v>0.32214119447119566</v>
       </c>
       <c r="F43" t="n">
-        <v>0.025877874808632254</v>
+        <v>0.03141560098252694</v>
       </c>
       <c r="G43" t="n">
-        <v>11.135901343927463</v>
+        <v>10.25417895555675</v>
       </c>
       <c r="H43" t="n">
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.23745375823807902</v>
+        <v>0.2605677479927617</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3388931634807901</v>
+        <v>0.3837146409496296</v>
       </c>
     </row>
     <row r="44">
@@ -13051,22 +13051,22 @@
         <v>18</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1511470485814039</v>
+        <v>0.15656402442440281</v>
       </c>
       <c r="F44" t="n">
-        <v>0.021290554688025157</v>
+        <v>0.021456480207717222</v>
       </c>
       <c r="G44" t="n">
-        <v>7.099253673574618</v>
+        <v>7.296817693709691</v>
       </c>
       <c r="H44" t="n">
-        <v>1.2543299732215019E-12</v>
+        <v>2.9465319073551655E-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1094183281819942</v>
+        <v>0.11451009598228057</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1928757689808136</v>
+        <v>0.19861795286652506</v>
       </c>
     </row>
     <row r="45">
@@ -13083,22 +13083,22 @@
         <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09586653479595986</v>
+        <v>0.09779161361038602</v>
       </c>
       <c r="F45" t="n">
-        <v>0.017980319105494313</v>
+        <v>0.017583297066569404</v>
       </c>
       <c r="G45" t="n">
-        <v>5.331748242814309</v>
+        <v>5.561619828189918</v>
       </c>
       <c r="H45" t="n">
-        <v>9.727173222451313E-8</v>
+        <v>2.672820564875167E-8</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06062575691865357</v>
+        <v>0.0633289846304412</v>
       </c>
       <c r="J45" t="n">
-        <v>0.13110731267326614</v>
+        <v>0.13225424259033083</v>
       </c>
     </row>
     <row r="46">
@@ -13115,22 +13115,22 @@
         <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06858133370573236</v>
+        <v>0.0540196394856288</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01487418463073383</v>
+        <v>0.016623918927181097</v>
       </c>
       <c r="G46" t="n">
-        <v>4.610762566710781</v>
+        <v>3.249512929066532</v>
       </c>
       <c r="H46" t="n">
-        <v>4.011945556214869E-6</v>
+        <v>0.001156028230636208</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03942846753009485</v>
+        <v>0.021437357106440125</v>
       </c>
       <c r="J46" t="n">
-        <v>0.09773419988136986</v>
+        <v>0.08660192186481748</v>
       </c>
     </row>
     <row r="47">
@@ -13147,22 +13147,22 @@
         <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2692295796225061</v>
+        <v>0.2335842732969477</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02372102462752529</v>
+        <v>0.028232261266927877</v>
       </c>
       <c r="G47" t="n">
-        <v>11.349829269604937</v>
+        <v>8.273665048947935</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="I47" t="n">
-        <v>0.22273722567616888</v>
+        <v>0.1782500580116439</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3157219335688433</v>
+        <v>0.2889184885822515</v>
       </c>
     </row>
     <row r="48">
@@ -13179,22 +13179,22 @@
         <v>22</v>
       </c>
       <c r="E48" t="n">
-        <v>0.033766583307715155</v>
+        <v>0.02166429539346461</v>
       </c>
       <c r="F48" t="n">
-        <v>0.014774915879582807</v>
+        <v>0.01726886294310488</v>
       </c>
       <c r="G48" t="n">
-        <v>2.285399360843509</v>
+        <v>1.2545293494332088</v>
       </c>
       <c r="H48" t="n">
-        <v>0.022289421459043224</v>
+        <v>0.20964966488618497</v>
       </c>
       <c r="I48" t="n">
-        <v>0.004808280309123926</v>
+        <v>-0.0121820540289793</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06272488630630638</v>
+        <v>0.05551064481590852</v>
       </c>
     </row>
     <row r="49">
@@ -13211,22 +13211,22 @@
         <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.42352275599641437</v>
+        <v>0.4305285723506663</v>
       </c>
       <c r="F49" t="n">
-        <v>0.028736315563484084</v>
+        <v>0.028690434936164314</v>
       </c>
       <c r="G49" t="n">
-        <v>14.738241409577043</v>
+        <v>15.005996713140963</v>
       </c>
       <c r="H49" t="n">
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.36720061244360774</v>
+        <v>0.37429635317499454</v>
       </c>
       <c r="J49" t="n">
-        <v>0.479844899549221</v>
+        <v>0.4867607915263381</v>
       </c>
     </row>
     <row r="50">
@@ -13243,22 +13243,22 @@
         <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>0.812326231402485</v>
+        <v>0.8211887413527018</v>
       </c>
       <c r="F50" t="n">
-        <v>0.035982369246163666</v>
+        <v>0.03608978794268658</v>
       </c>
       <c r="G50" t="n">
-        <v>22.575673820841935</v>
+        <v>22.754047284977513</v>
       </c>
       <c r="H50" t="n">
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7418020836015826</v>
+        <v>0.7504540567753483</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8828503792033875</v>
+        <v>0.8919234259300554</v>
       </c>
     </row>
     <row r="51">
@@ -13275,22 +13275,22 @@
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2607665881351828</v>
+        <v>0.26296092680612604</v>
       </c>
       <c r="F51" t="n">
-        <v>0.021632573347365913</v>
+        <v>0.02092515244190447</v>
       </c>
       <c r="G51" t="n">
-        <v>12.054348964772375</v>
+        <v>12.566738882127497</v>
       </c>
       <c r="H51" t="n">
         <v>0.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.21836752348142452</v>
+        <v>0.22194838164898292</v>
       </c>
       <c r="J51" t="n">
-        <v>0.30316565278894103</v>
+        <v>0.3039734719632692</v>
       </c>
     </row>
     <row r="52">
@@ -13307,22 +13307,22 @@
         <v>19</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6362061530908623</v>
+        <v>0.6378915553312182</v>
       </c>
       <c r="F52" t="n">
-        <v>0.037554452811841686</v>
+        <v>0.03720658548511272</v>
       </c>
       <c r="G52" t="n">
-        <v>16.94089796164607</v>
+        <v>17.144587363074596</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5626007781205437</v>
+        <v>0.5649679877926865</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7098115280611809</v>
+        <v>0.7108151228697499</v>
       </c>
     </row>
     <row r="53">
@@ -13339,22 +13339,22 @@
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2484459165498181</v>
+        <v>0.2086336878690791</v>
       </c>
       <c r="F53" t="n">
-        <v>0.018451204149432212</v>
+        <v>0.020884271518970425</v>
       </c>
       <c r="G53" t="n">
-        <v>13.465024533776207</v>
+        <v>9.98999116055184</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.21228222094553498</v>
+        <v>0.16770126784854147</v>
       </c>
       <c r="J53" t="n">
-        <v>0.28460961215410124</v>
+        <v>0.24956610788961672</v>
       </c>
     </row>
     <row r="54">
@@ -13371,22 +13371,22 @@
         <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>0.603812355758872</v>
+        <v>0.5817957950934605</v>
       </c>
       <c r="F54" t="n">
-        <v>0.028032962679247795</v>
+        <v>0.03319229782195813</v>
       </c>
       <c r="G54" t="n">
-        <v>21.53937001478126</v>
+        <v>17.52803611892689</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5488687585275909</v>
+        <v>0.5167400867982953</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6587559529901532</v>
+        <v>0.6468515033886256</v>
       </c>
     </row>
     <row r="55">
@@ -13403,22 +13403,22 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7729621840353541</v>
+        <v>0.7182933608296369</v>
       </c>
       <c r="F55" t="n">
-        <v>0.029952010543882916</v>
+        <v>0.03658694602665336</v>
       </c>
       <c r="G55" t="n">
-        <v>25.806687764845748</v>
+        <v>19.63250390744187</v>
       </c>
       <c r="H55" t="n">
         <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7142573221047797</v>
+        <v>0.6465842643130855</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8316670459659286</v>
+        <v>0.7900024573461883</v>
       </c>
     </row>
     <row r="56">
@@ -13435,22 +13435,22 @@
         <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0054177389261083</v>
+        <v>0.9568551324411284</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03271011550967016</v>
+        <v>0.03936254273831162</v>
       </c>
       <c r="G56" t="n">
-        <v>30.73721150965898</v>
+        <v>24.308773414422234</v>
       </c>
       <c r="H56" t="n">
         <v>0.0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9413070905970098</v>
+        <v>0.879705966334119</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0695283872552068</v>
+        <v>1.0340042985481377</v>
       </c>
     </row>
     <row r="57">
@@ -13467,22 +13467,22 @@
         <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>0.31056182103032615</v>
+        <v>0.28546021955190326</v>
       </c>
       <c r="F57" t="n">
-        <v>0.022672475037137797</v>
+        <v>0.025183484845163404</v>
       </c>
       <c r="G57" t="n">
-        <v>13.697746740116463</v>
+        <v>11.335215174032085</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.26612458651715265</v>
+        <v>0.23610149625017274</v>
       </c>
       <c r="J57" t="n">
-        <v>0.35499905554349964</v>
+        <v>0.3348189428536338</v>
       </c>
     </row>
     <row r="58">
@@ -13499,22 +13499,22 @@
         <v>22</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7874366738089245</v>
+        <v>0.770979424184361</v>
       </c>
       <c r="F58" t="n">
-        <v>0.030999133123262104</v>
+        <v>0.037791360575982307</v>
       </c>
       <c r="G58" t="n">
-        <v>25.401893358689538</v>
+        <v>20.400943825090664</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7266794893353681</v>
+        <v>0.6969097185286689</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8481938582824808</v>
+        <v>0.8450491298400532</v>
       </c>
     </row>
     <row r="59">
@@ -13531,22 +13531,22 @@
         <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>0.15931150283575032</v>
+        <v>0.14392163829457968</v>
       </c>
       <c r="F59" t="n">
-        <v>0.016568945208533692</v>
+        <v>0.017841507963454635</v>
       </c>
       <c r="G59" t="n">
-        <v>9.615066066710048</v>
+        <v>8.066674554044381</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0</v>
+        <v>6.661338147750939E-16</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1268369669652068</v>
+        <v>0.10895292525632405</v>
       </c>
       <c r="J59" t="n">
-        <v>0.19178603870629385</v>
+        <v>0.17889035133283532</v>
       </c>
     </row>
     <row r="60">
@@ -13563,22 +13563,22 @@
         <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5742386571309823</v>
+        <v>0.5543756575767618</v>
       </c>
       <c r="F60" t="n">
-        <v>0.025862509646014185</v>
+        <v>0.029063567735387416</v>
       </c>
       <c r="G60" t="n">
-        <v>22.203516402341155</v>
+        <v>19.07459065673349</v>
       </c>
       <c r="H60" t="n">
         <v>0.0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5235490696749748</v>
+        <v>0.4974121115531621</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6249282445869898</v>
+        <v>0.6113392036003614</v>
       </c>
     </row>
     <row r="61">
@@ -13595,22 +13595,22 @@
         <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2077294692472632</v>
+        <v>0.19310829590711634</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01490030666446914</v>
+        <v>0.016630766896214896</v>
       </c>
       <c r="G61" t="n">
-        <v>13.941288184531743</v>
+        <v>11.611508784424554</v>
       </c>
       <c r="H61" t="n">
         <v>0.0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.17852540482630155</v>
+        <v>0.16051259175525417</v>
       </c>
       <c r="J61" t="n">
-        <v>0.23693353366822487</v>
+        <v>0.2257040000589785</v>
       </c>
     </row>
     <row r="62">
@@ -13755,22 +13755,22 @@
         <v>37</v>
       </c>
       <c r="E66" t="n">
-        <v>1.325890270125801</v>
+        <v>1.3132658688725862</v>
       </c>
       <c r="F66" t="n">
-        <v>0.014130190645931752</v>
+        <v>0.014351000206517407</v>
       </c>
       <c r="G66" t="n">
-        <v>93.83385570296892</v>
+        <v>91.51040693847776</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
       </c>
       <c r="I66" t="n">
-        <v>1.29819560536509</v>
+        <v>1.2851384253256852</v>
       </c>
       <c r="J66" t="n">
-        <v>1.353584934886512</v>
+        <v>1.3413933124194872</v>
       </c>
     </row>
     <row r="67">
@@ -13787,22 +13787,22 @@
         <v>37</v>
       </c>
       <c r="E67" t="n">
-        <v>1.2324239003568027</v>
+        <v>1.2174507770936418</v>
       </c>
       <c r="F67" t="n">
-        <v>0.012753751524301752</v>
+        <v>0.012783372558723574</v>
       </c>
       <c r="G67" t="n">
-        <v>96.63226526002717</v>
+        <v>95.23705669227596</v>
       </c>
       <c r="H67" t="n">
         <v>0.0</v>
       </c>
       <c r="I67" t="n">
-        <v>1.2074270067013986</v>
+        <v>1.1923958272775859</v>
       </c>
       <c r="J67" t="n">
-        <v>1.2574207940122069</v>
+        <v>1.2425057269096977</v>
       </c>
     </row>
     <row r="68">
@@ -13819,22 +13819,22 @@
         <v>37</v>
       </c>
       <c r="E68" t="n">
-        <v>1.2167401647994887</v>
+        <v>1.1888791828422203</v>
       </c>
       <c r="F68" t="n">
-        <v>0.010322805320568066</v>
+        <v>0.01233473323583092</v>
       </c>
       <c r="G68" t="n">
-        <v>117.86913799247463</v>
+        <v>96.38466921916633</v>
       </c>
       <c r="H68" t="n">
         <v>0.0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.1965078381517569</v>
+        <v>1.1647035499410825</v>
       </c>
       <c r="J68" t="n">
-        <v>1.2369724914472204</v>
+        <v>1.213054815743358</v>
       </c>
     </row>
     <row r="69">
@@ -13851,22 +13851,22 @@
         <v>37</v>
       </c>
       <c r="E69" t="n">
-        <v>1.5409167885473403</v>
+        <v>1.5008429374181267</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01710229244728366</v>
+        <v>0.020819513661176875</v>
       </c>
       <c r="G69" t="n">
-        <v>90.1000139774877</v>
+        <v>72.08828034330212</v>
       </c>
       <c r="H69" t="n">
         <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.507396911297593</v>
+        <v>1.4600374404665803</v>
       </c>
       <c r="J69" t="n">
-        <v>1.5744366657970876</v>
+        <v>1.541648434369673</v>
       </c>
     </row>
     <row r="70">
@@ -13883,22 +13883,22 @@
         <v>37</v>
       </c>
       <c r="E70" t="n">
-        <v>1.208333956944207</v>
+        <v>1.1882745569041058</v>
       </c>
       <c r="F70" t="n">
-        <v>0.011961865606221004</v>
+        <v>0.014078267071016873</v>
       </c>
       <c r="G70" t="n">
-        <v>101.01551018227367</v>
+        <v>84.40488810944802</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.1848891311681056</v>
+        <v>1.1606816604801764</v>
       </c>
       <c r="J70" t="n">
-        <v>1.2317787827203086</v>
+        <v>1.2158674533280351</v>
       </c>
     </row>
     <row r="71">
@@ -13915,22 +13915,22 @@
         <v>37</v>
       </c>
       <c r="E71" t="n">
-        <v>1.7349876291461743</v>
+        <v>1.7137567394986533</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02107613362354384</v>
+        <v>0.021778568920024704</v>
       </c>
       <c r="G71" t="n">
-        <v>82.32001467328169</v>
+        <v>78.69005285847355</v>
       </c>
       <c r="H71" t="n">
         <v>0.0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.6936791663106747</v>
+        <v>1.6710715287805815</v>
       </c>
       <c r="J71" t="n">
-        <v>1.776296091981674</v>
+        <v>1.756441950216725</v>
       </c>
     </row>
     <row r="72">
@@ -13947,22 +13947,22 @@
         <v>37</v>
       </c>
       <c r="E72" t="n">
-        <v>1.632572715953658</v>
+        <v>1.6089550885679738</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02073799324139343</v>
+        <v>0.02157586273952095</v>
       </c>
       <c r="G72" t="n">
-        <v>78.72375581138738</v>
+        <v>74.57199315700214</v>
       </c>
       <c r="H72" t="n">
         <v>0.0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.591926996088892</v>
+        <v>1.566667174663133</v>
       </c>
       <c r="J72" t="n">
-        <v>1.673218435818424</v>
+        <v>1.6512430024728144</v>
       </c>
     </row>
     <row r="73">
@@ -13979,22 +13979,22 @@
         <v>37</v>
       </c>
       <c r="E73" t="n">
-        <v>1.6463664458648106</v>
+        <v>1.6069327311532273</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01736758887556265</v>
+        <v>0.021823332925566173</v>
       </c>
       <c r="G73" t="n">
-        <v>94.79533731831697</v>
+        <v>73.63369915283175</v>
       </c>
       <c r="H73" t="n">
         <v>0.0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.6123265971704093</v>
+        <v>1.5641597845964905</v>
       </c>
       <c r="J73" t="n">
-        <v>1.680406294559212</v>
+        <v>1.6497056777099641</v>
       </c>
     </row>
     <row r="74">
@@ -14011,22 +14011,22 @@
         <v>37</v>
       </c>
       <c r="E74" t="n">
-        <v>1.9043803244939692</v>
+        <v>1.8648641843617664</v>
       </c>
       <c r="F74" t="n">
-        <v>0.021480274653784884</v>
+        <v>0.026584584623383693</v>
       </c>
       <c r="G74" t="n">
-        <v>88.65716827128242</v>
+        <v>70.14832884473356</v>
       </c>
       <c r="H74" t="n">
         <v>0.0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.8622797597945222</v>
+        <v>1.812759355955977</v>
       </c>
       <c r="J74" t="n">
-        <v>1.9464808891934162</v>
+        <v>1.9169690127675558</v>
       </c>
     </row>
     <row r="75">
@@ -14043,22 +14043,22 @@
         <v>37</v>
       </c>
       <c r="E75" t="n">
-        <v>1.8465834764261173</v>
+        <v>1.8170155995568202</v>
       </c>
       <c r="F75" t="n">
-        <v>0.021603897778794613</v>
+        <v>0.02690308259629584</v>
       </c>
       <c r="G75" t="n">
-        <v>85.47455164496465</v>
+        <v>67.53930866669519</v>
       </c>
       <c r="H75" t="n">
         <v>0.0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.804240614853995</v>
+        <v>1.764286526594974</v>
       </c>
       <c r="J75" t="n">
-        <v>1.8889263379982397</v>
+        <v>1.8697446725186664</v>
       </c>
     </row>
     <row r="76">
@@ -15560,22 +15560,22 @@
         <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>0.14189334877907125</v>
+        <v>0.14762343359737107</v>
       </c>
       <c r="G32" t="n">
-        <v>0.021040986670139903</v>
+        <v>0.02379204484487684</v>
       </c>
       <c r="H32" t="n">
-        <v>6.743664211357432</v>
+        <v>6.204739212617907</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5444090450955628E-11</v>
+        <v>5.478768549949109E-10</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1006537727064097</v>
+        <v>0.1009918825828506</v>
       </c>
       <c r="K32" t="n">
-        <v>0.18313292485173283</v>
+        <v>0.19425498461189153</v>
       </c>
     </row>
     <row r="33">
@@ -15595,22 +15595,22 @@
         <v>47</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01138453191211844</v>
+        <v>0.004870044109296085</v>
       </c>
       <c r="G33" t="n">
-        <v>0.010359069740762217</v>
+        <v>0.010634743866502669</v>
       </c>
       <c r="H33" t="n">
-        <v>1.0989917238727624</v>
+        <v>0.45793713233054506</v>
       </c>
       <c r="I33" t="n">
-        <v>0.27177167582744466</v>
+        <v>0.6469976085543685</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.008918871693114176</v>
+        <v>-0.015973670853857383</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03168793551735105</v>
+        <v>0.02571375907244955</v>
       </c>
     </row>
     <row r="34">
@@ -15630,22 +15630,22 @@
         <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>0.14189334877907128</v>
+        <v>0.14762343359737107</v>
       </c>
       <c r="G34" t="n">
-        <v>0.021040986670139882</v>
+        <v>0.02379204484487683</v>
       </c>
       <c r="H34" t="n">
-        <v>6.74366421135744</v>
+        <v>6.20473921261791</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5444090450955628E-11</v>
+        <v>5.478768549949109E-10</v>
       </c>
       <c r="J34" t="n">
-        <v>0.10065377270640977</v>
+        <v>0.10099188258285063</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1831329248517328</v>
+        <v>0.1942549846118915</v>
       </c>
     </row>
     <row r="35">
@@ -15665,22 +15665,22 @@
         <v>47</v>
       </c>
       <c r="F35" t="n">
-        <v>0.011384531912118422</v>
+        <v>0.0048700441092960674</v>
       </c>
       <c r="G35" t="n">
-        <v>0.010359069740762217</v>
+        <v>0.01063474386650266</v>
       </c>
       <c r="H35" t="n">
-        <v>1.0989917238727607</v>
+        <v>0.4579371323305438</v>
       </c>
       <c r="I35" t="n">
-        <v>0.27177167582744555</v>
+        <v>0.6469976085543694</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.008918871693114193</v>
+        <v>-0.015973670853857383</v>
       </c>
       <c r="K35" t="n">
-        <v>0.03168793551735104</v>
+        <v>0.025713759072449514</v>
       </c>
     </row>
     <row r="36">
@@ -15700,22 +15700,22 @@
         <v>40</v>
       </c>
       <c r="F36" t="n">
-        <v>0.14189334877907123</v>
+        <v>0.14762343359737104</v>
       </c>
       <c r="G36" t="n">
-        <v>0.021040986670139886</v>
+        <v>0.023792044844876823</v>
       </c>
       <c r="H36" t="n">
-        <v>6.743664211357436</v>
+        <v>6.204739212617911</v>
       </c>
       <c r="I36" t="n">
-        <v>1.5444090450955628E-11</v>
+        <v>5.478768549949109E-10</v>
       </c>
       <c r="J36" t="n">
-        <v>0.10065377270640971</v>
+        <v>0.10099188258285062</v>
       </c>
       <c r="K36" t="n">
-        <v>0.18313292485173274</v>
+        <v>0.19425498461189145</v>
       </c>
     </row>
     <row r="37">
@@ -15735,22 +15735,22 @@
         <v>47</v>
       </c>
       <c r="F37" t="n">
-        <v>0.011384531912118436</v>
+        <v>0.00487004410929608</v>
       </c>
       <c r="G37" t="n">
-        <v>0.010359069740762217</v>
+        <v>0.010634743866502686</v>
       </c>
       <c r="H37" t="n">
-        <v>1.098991723872762</v>
+        <v>0.4579371323305438</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2717716758274449</v>
+        <v>0.6469976085543694</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.008918871693114179</v>
+        <v>-0.01597367085385742</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03168793551735105</v>
+        <v>0.02571375907244958</v>
       </c>
     </row>
     <row r="38">
@@ -15770,22 +15770,22 @@
         <v>40</v>
       </c>
       <c r="F38" t="n">
-        <v>0.14189334877907134</v>
+        <v>0.14762343359737112</v>
       </c>
       <c r="G38" t="n">
-        <v>0.021040986670139875</v>
+        <v>0.023792044844876844</v>
       </c>
       <c r="H38" t="n">
-        <v>6.743664211357445</v>
+        <v>6.204739212617909</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5444090450955628E-11</v>
+        <v>5.478768549949109E-10</v>
       </c>
       <c r="J38" t="n">
-        <v>0.10065377270640984</v>
+        <v>0.10099188258285066</v>
       </c>
       <c r="K38" t="n">
-        <v>0.18313292485173283</v>
+        <v>0.19425498461189158</v>
       </c>
     </row>
     <row r="39">
@@ -15805,22 +15805,22 @@
         <v>47</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01138453191211843</v>
+        <v>0.004870044109296076</v>
       </c>
       <c r="G39" t="n">
-        <v>0.010359069740762217</v>
+        <v>0.010634743866502679</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0989917238727613</v>
+        <v>0.4579371323305438</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2717716758274453</v>
+        <v>0.6469976085543694</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.008918871693114186</v>
+        <v>-0.01597367085385741</v>
       </c>
       <c r="K39" t="n">
-        <v>0.031687935517351044</v>
+        <v>0.025713759072449563</v>
       </c>
     </row>
     <row r="40">
@@ -15840,22 +15840,22 @@
         <v>41</v>
       </c>
       <c r="F40" t="n">
-        <v>0.15354934452233873</v>
+        <v>0.15021379033039578</v>
       </c>
       <c r="G40" t="n">
-        <v>0.021505262504337416</v>
+        <v>0.022961879513700822</v>
       </c>
       <c r="H40" t="n">
-        <v>7.1400823166594325</v>
+        <v>6.54187695048076</v>
       </c>
       <c r="I40" t="n">
-        <v>9.328093852900565E-13</v>
+        <v>6.075140390748857E-11</v>
       </c>
       <c r="J40" t="n">
-        <v>0.11139980453575776</v>
+        <v>0.10520933346619409</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1956988845089197</v>
+        <v>0.19521824719459746</v>
       </c>
     </row>
     <row r="41">
@@ -15875,22 +15875,22 @@
         <v>41</v>
       </c>
       <c r="F41" t="n">
-        <v>0.15354934452233887</v>
+        <v>0.1502137903303959</v>
       </c>
       <c r="G41" t="n">
-        <v>0.021505262504337434</v>
+        <v>0.02296187951370083</v>
       </c>
       <c r="H41" t="n">
-        <v>7.140082316659433</v>
+        <v>6.541876950480763</v>
       </c>
       <c r="I41" t="n">
-        <v>9.328093852900565E-13</v>
+        <v>6.075140390748857E-11</v>
       </c>
       <c r="J41" t="n">
-        <v>0.11139980453575786</v>
+        <v>0.10520933346619418</v>
       </c>
       <c r="K41" t="n">
-        <v>0.19569888450891987</v>
+        <v>0.1952182471945976</v>
       </c>
     </row>
     <row r="42">
@@ -15910,22 +15910,22 @@
         <v>41</v>
       </c>
       <c r="F42" t="n">
-        <v>0.15354934452233868</v>
+        <v>0.15021379033039572</v>
       </c>
       <c r="G42" t="n">
-        <v>0.021505262504337413</v>
+        <v>0.022961879513700833</v>
       </c>
       <c r="H42" t="n">
-        <v>7.140082316659432</v>
+        <v>6.541876950480755</v>
       </c>
       <c r="I42" t="n">
-        <v>9.328093852900565E-13</v>
+        <v>6.075140390748857E-11</v>
       </c>
       <c r="J42" t="n">
-        <v>0.11139980453575771</v>
+        <v>0.10520933346619402</v>
       </c>
       <c r="K42" t="n">
-        <v>0.19569888450891965</v>
+        <v>0.19521824719459743</v>
       </c>
     </row>
     <row r="43">
@@ -15945,22 +15945,22 @@
         <v>41</v>
       </c>
       <c r="F43" t="n">
-        <v>0.15354934452233873</v>
+        <v>0.15021379033039578</v>
       </c>
       <c r="G43" t="n">
-        <v>0.021505262504337434</v>
+        <v>0.022961879513700836</v>
       </c>
       <c r="H43" t="n">
-        <v>7.140082316659427</v>
+        <v>6.541876950480757</v>
       </c>
       <c r="I43" t="n">
-        <v>9.328093852900565E-13</v>
+        <v>6.075140390748857E-11</v>
       </c>
       <c r="J43" t="n">
-        <v>0.11139980453575772</v>
+        <v>0.10520933346619406</v>
       </c>
       <c r="K43" t="n">
-        <v>0.19569888450891976</v>
+        <v>0.19521824719459752</v>
       </c>
     </row>
     <row r="44">
@@ -15980,22 +15980,22 @@
         <v>37</v>
       </c>
       <c r="F44" t="n">
-        <v>0.16556758458022489</v>
+        <v>0.16896288249472213</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02185528053473484</v>
+        <v>0.021876911874492387</v>
       </c>
       <c r="H44" t="n">
-        <v>7.57563300626988</v>
+        <v>7.723342465520747</v>
       </c>
       <c r="I44" t="n">
-        <v>3.574918139293004E-14</v>
+        <v>1.1324274851176597E-14</v>
       </c>
       <c r="J44" t="n">
-        <v>0.12273202186012531</v>
+        <v>0.12608492312776043</v>
       </c>
       <c r="K44" t="n">
-        <v>0.20840314730032444</v>
+        <v>0.21184084186168384</v>
       </c>
     </row>
     <row r="45">
@@ -16015,22 +16015,22 @@
         <v>37</v>
       </c>
       <c r="F45" t="n">
-        <v>0.12565930604007797</v>
+        <v>0.12490476216626711</v>
       </c>
       <c r="G45" t="n">
-        <v>0.018035231460558684</v>
+        <v>0.017693272552477</v>
       </c>
       <c r="H45" t="n">
-        <v>6.967435173476026</v>
+        <v>7.0594493921804675</v>
       </c>
       <c r="I45" t="n">
-        <v>3.227640377190255E-12</v>
+        <v>1.6715517858756357E-12</v>
       </c>
       <c r="J45" t="n">
-        <v>0.09031090192453924</v>
+        <v>0.09022658519476112</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1610077101556167</v>
+        <v>0.1595829391377731</v>
       </c>
     </row>
     <row r="46">
@@ -16050,22 +16050,22 @@
         <v>37</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06259336469869509</v>
+        <v>0.05462344710880495</v>
       </c>
       <c r="G46" t="n">
-        <v>0.013749565234740203</v>
+        <v>0.01562951804010576</v>
       </c>
       <c r="H46" t="n">
-        <v>4.5523886486639</v>
+        <v>3.494890051544758</v>
       </c>
       <c r="I46" t="n">
-        <v>5.304023553476256E-6</v>
+        <v>4.7425707842640996E-4</v>
       </c>
       <c r="J46" t="n">
-        <v>0.035644712035520276</v>
+        <v>0.023990154654478613</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0895420173618699</v>
+        <v>0.08525673956313129</v>
       </c>
     </row>
     <row r="47">
@@ -16085,22 +16085,22 @@
         <v>37</v>
       </c>
       <c r="F47" t="n">
-        <v>0.23973323666617488</v>
+        <v>0.20926181980532463</v>
       </c>
       <c r="G47" t="n">
-        <v>0.023005576128031113</v>
+        <v>0.027401663178633205</v>
       </c>
       <c r="H47" t="n">
-        <v>10.420657814957837</v>
+        <v>7.636829138477229</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>2.220446049250313E-14</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1946431360116395</v>
+        <v>0.1555555468587062</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2848233373207103</v>
+        <v>0.26296809275194305</v>
       </c>
     </row>
     <row r="48">
@@ -16120,22 +16120,22 @@
         <v>37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0232802065662762</v>
+        <v>0.008682646687142689</v>
       </c>
       <c r="G48" t="n">
-        <v>0.014618552959608273</v>
+        <v>0.017345586892481567</v>
       </c>
       <c r="H48" t="n">
-        <v>1.592511011903878</v>
+        <v>0.5005680546275535</v>
       </c>
       <c r="I48" t="n">
-        <v>0.111269930807532</v>
+        <v>0.6166751495952507</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.005371630740647424</v>
+        <v>-0.025314078912831214</v>
       </c>
       <c r="K48" t="n">
-        <v>0.05193204387319983</v>
+        <v>0.04267937228711659</v>
       </c>
     </row>
     <row r="49">
@@ -16155,22 +16155,22 @@
         <v>37</v>
       </c>
       <c r="F49" t="n">
-        <v>0.42732046919706973</v>
+        <v>0.4356864113834223</v>
       </c>
       <c r="G49" t="n">
-        <v>0.027701173302789615</v>
+        <v>0.02784142723825288</v>
       </c>
       <c r="H49" t="n">
-        <v>15.4260783298315</v>
+        <v>15.648853331226086</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3730271671940996</v>
+        <v>0.3811182167182542</v>
       </c>
       <c r="K49" t="n">
-        <v>0.48161377120003984</v>
+        <v>0.4902546060485904</v>
       </c>
     </row>
     <row r="50">
@@ -16190,22 +16190,22 @@
         <v>37</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8689635184033282</v>
+        <v>0.8758894446178215</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0367309894768376</v>
+        <v>0.03662747236341204</v>
       </c>
       <c r="H50" t="n">
-        <v>23.65750367142417</v>
+        <v>23.913455887083437</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7969721019122068</v>
+        <v>0.8041009179407977</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9409549348944496</v>
+        <v>0.9476779712948452</v>
       </c>
     </row>
     <row r="51">
@@ -16225,22 +16225,22 @@
         <v>37</v>
       </c>
       <c r="F51" t="n">
-        <v>0.27062808841517433</v>
+        <v>0.2743475183078003</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02089816698727795</v>
+        <v>0.02041047175326979</v>
       </c>
       <c r="H51" t="n">
-        <v>12.949848117297702</v>
+        <v>13.441507948675875</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.22966843377720564</v>
+        <v>0.23434372876391943</v>
       </c>
       <c r="K51" t="n">
-        <v>0.311587743053143</v>
+        <v>0.3143513078516812</v>
       </c>
     </row>
     <row r="52">
@@ -16260,22 +16260,22 @@
         <v>37</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7298821533394875</v>
+        <v>0.729674677576651</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0363905772938421</v>
+        <v>0.03625269460162919</v>
       </c>
       <c r="H52" t="n">
-        <v>20.056899549735803</v>
+        <v>20.127460471417194</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.658557932466936</v>
+        <v>0.6586207018149282</v>
       </c>
       <c r="K52" t="n">
-        <v>0.801206374212039</v>
+        <v>0.800728653338374</v>
       </c>
     </row>
     <row r="53">
@@ -16295,22 +16295,22 @@
         <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>0.24432925156657517</v>
+        <v>0.21249940241745108</v>
       </c>
       <c r="G53" t="n">
-        <v>0.017651241854698727</v>
+        <v>0.020043095112160465</v>
       </c>
       <c r="H53" t="n">
-        <v>13.842043159220278</v>
+        <v>10.602125132286794</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2097334532489597</v>
+        <v>0.17321565785890577</v>
       </c>
       <c r="K53" t="n">
-        <v>0.27892504988419065</v>
+        <v>0.25178314697599635</v>
       </c>
     </row>
     <row r="54">
@@ -16330,22 +16330,22 @@
         <v>37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5874013756234289</v>
+        <v>0.5771245393762018</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02565152189218941</v>
+        <v>0.031884400114826066</v>
       </c>
       <c r="H54" t="n">
-        <v>22.899279742239614</v>
+        <v>18.100529955018416</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5371253165660969</v>
+        <v>0.5146322634824779</v>
       </c>
       <c r="K54" t="n">
-        <v>0.6376774346807609</v>
+        <v>0.6396168152699256</v>
       </c>
     </row>
     <row r="55">
@@ -16365,22 +16365,22 @@
         <v>37</v>
       </c>
       <c r="F55" t="n">
-        <v>0.759791702164171</v>
+        <v>0.7092261981099266</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02997473385036719</v>
+        <v>0.0366680388839604</v>
       </c>
       <c r="H55" t="n">
-        <v>25.34773806356461</v>
+        <v>19.34180882578265</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7010423033712777</v>
+        <v>0.63735816251365</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8185411009570643</v>
+        <v>0.7810942337062032</v>
       </c>
     </row>
     <row r="56">
@@ -16400,22 +16400,22 @@
         <v>37</v>
       </c>
       <c r="F56" t="n">
-        <v>0.942412001282893</v>
+        <v>0.8948338110678093</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0343368532156578</v>
+        <v>0.04034246282373942</v>
       </c>
       <c r="H56" t="n">
-        <v>27.446079446008987</v>
+        <v>22.180941579532092</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8751130056377654</v>
+        <v>0.815764036885634</v>
       </c>
       <c r="K56" t="n">
-        <v>1.0097109969280207</v>
+        <v>0.9739035852499847</v>
       </c>
     </row>
     <row r="57">
@@ -16435,22 +16435,22 @@
         <v>37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.30736683748542354</v>
+        <v>0.27889922592920974</v>
       </c>
       <c r="G57" t="n">
-        <v>0.021910735004556703</v>
+        <v>0.024034022868570905</v>
       </c>
       <c r="H57" t="n">
-        <v>14.028139057019377</v>
+        <v>11.604350526516473</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.26442258600169133</v>
+        <v>0.23179340670319873</v>
       </c>
       <c r="K57" t="n">
-        <v>0.35031108896915575</v>
+        <v>0.3260050451552207</v>
       </c>
     </row>
     <row r="58">
@@ -16470,22 +16470,22 @@
         <v>37</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7515874970270469</v>
+        <v>0.7375030319099041</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03118776139413876</v>
+        <v>0.037910491784837165</v>
       </c>
       <c r="H58" t="n">
-        <v>24.098795919616585</v>
+        <v>19.453797542264507</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6904606079361062</v>
+        <v>0.6631998333754217</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8127143861179875</v>
+        <v>0.8118062304443865</v>
       </c>
     </row>
     <row r="59">
@@ -16505,22 +16505,22 @@
         <v>37</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1653355183012677</v>
+        <v>0.14432171238821143</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01560339973005148</v>
+        <v>0.016863581314128025</v>
       </c>
       <c r="H59" t="n">
-        <v>10.596121432615647</v>
+        <v>8.558188779704885</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.13475341679398478</v>
+        <v>0.11126970036215787</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1959176198085506</v>
+        <v>0.17737372441426497</v>
       </c>
     </row>
     <row r="60">
@@ -16540,22 +16540,22 @@
         <v>37</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5883451750441286</v>
+        <v>0.5531578116221372</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02553685146161183</v>
+        <v>0.028510754235825577</v>
       </c>
       <c r="H60" t="n">
-        <v>23.039064777760725</v>
+        <v>19.401724943742778</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5382938659008204</v>
+        <v>0.49727776014784625</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6383964841874369</v>
+        <v>0.609037863096428</v>
       </c>
     </row>
     <row r="61">
@@ -16575,22 +16575,22 @@
         <v>37</v>
       </c>
       <c r="F61" t="n">
-        <v>0.21611523242849795</v>
+        <v>0.19632924478782168</v>
       </c>
       <c r="G61" t="n">
-        <v>0.014540377032810416</v>
+        <v>0.016192402351826615</v>
       </c>
       <c r="H61" t="n">
-        <v>14.863110629169595</v>
+        <v>12.124775590551849</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.18761661712255617</v>
+        <v>0.16459271935505987</v>
       </c>
       <c r="K61" t="n">
-        <v>0.24461384773443973</v>
+        <v>0.2280657702205835</v>
       </c>
     </row>
     <row r="62">
@@ -16750,22 +16750,22 @@
         <v>37</v>
       </c>
       <c r="F66" t="n">
-        <v>1.3268940501806523</v>
+        <v>1.313272639595536</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01412158014950848</v>
+        <v>0.014350722237821153</v>
       </c>
       <c r="H66" t="n">
-        <v>93.96215127007841</v>
+        <v>91.51265126813075</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.29921626168282</v>
+        <v>1.2851457408572686</v>
       </c>
       <c r="K66" t="n">
-        <v>1.3545718386784846</v>
+        <v>1.3413995383338035</v>
       </c>
     </row>
     <row r="67">
@@ -16785,22 +16785,22 @@
         <v>37</v>
       </c>
       <c r="F67" t="n">
-        <v>1.2338263908033849</v>
+        <v>1.2176706833063935</v>
       </c>
       <c r="G67" t="n">
-        <v>0.012672168120491142</v>
+        <v>0.012766520521734803</v>
       </c>
       <c r="H67" t="n">
-        <v>97.36505853392708</v>
+        <v>95.37999654904624</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.2089893976811856</v>
+        <v>1.1926487628759017</v>
       </c>
       <c r="K67" t="n">
-        <v>1.258663383925584</v>
+        <v>1.2426926037368853</v>
       </c>
     </row>
     <row r="68">
@@ -16820,22 +16820,22 @@
         <v>37</v>
       </c>
       <c r="F68" t="n">
-        <v>1.216757047309707</v>
+        <v>1.1889425087853895</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01033383968803881</v>
+        <v>0.012347697480717689</v>
       </c>
       <c r="H68" t="n">
-        <v>117.74491225348464</v>
+        <v>96.28860041655994</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.1965030936991403</v>
+        <v>1.1647414664311868</v>
       </c>
       <c r="K68" t="n">
-        <v>1.2370110009202735</v>
+        <v>1.2131435511395923</v>
       </c>
     </row>
     <row r="69">
@@ -16855,22 +16855,22 @@
         <v>37</v>
       </c>
       <c r="F69" t="n">
-        <v>1.5401124054632493</v>
+        <v>1.5003996560079063</v>
       </c>
       <c r="G69" t="n">
-        <v>0.017090228896923902</v>
+        <v>0.020829732740576604</v>
       </c>
       <c r="H69" t="n">
-        <v>90.11654640508979</v>
+        <v>72.03163260396074</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.5066161723377327</v>
+        <v>1.4595741300287812</v>
       </c>
       <c r="K69" t="n">
-        <v>1.573608638588766</v>
+        <v>1.5412251819870313</v>
       </c>
     </row>
     <row r="70">
@@ -16890,22 +16890,22 @@
         <v>37</v>
       </c>
       <c r="F70" t="n">
-        <v>1.2084261440296378</v>
+        <v>1.1889266869967587</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01219248232008458</v>
+        <v>0.014460504715410289</v>
       </c>
       <c r="H70" t="n">
-        <v>99.11239666421389</v>
+        <v>82.21889279768651</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.1845293178001306</v>
+        <v>1.160584618556283</v>
       </c>
       <c r="K70" t="n">
-        <v>1.232322970259145</v>
+        <v>1.2172687554372346</v>
       </c>
     </row>
     <row r="71">
@@ -16925,22 +16925,22 @@
         <v>37</v>
       </c>
       <c r="F71" t="n">
-        <v>1.7372619531952698</v>
+        <v>1.713858443501159</v>
       </c>
       <c r="G71" t="n">
-        <v>0.021053481488802688</v>
+        <v>0.021778329915421144</v>
       </c>
       <c r="H71" t="n">
-        <v>82.5166115219107</v>
+        <v>78.69558639974423</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.6959978877280357</v>
+        <v>1.6711737012235024</v>
       </c>
       <c r="K71" t="n">
-        <v>1.7785260186625038</v>
+        <v>1.7565431857788156</v>
       </c>
     </row>
     <row r="72">
@@ -16960,22 +16960,22 @@
         <v>37</v>
       </c>
       <c r="F72" t="n">
-        <v>1.6367710518599807</v>
+        <v>1.609662896835349</v>
       </c>
       <c r="G72" t="n">
-        <v>0.020660460201203042</v>
+        <v>0.02157110156141814</v>
       </c>
       <c r="H72" t="n">
-        <v>79.22239078511295</v>
+        <v>74.6212655043253</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.5962772939615997</v>
+        <v>1.5673843146681137</v>
       </c>
       <c r="K72" t="n">
-        <v>1.6772648097583618</v>
+        <v>1.6519414790025844</v>
       </c>
     </row>
     <row r="73">
@@ -16995,22 +16995,22 @@
         <v>37</v>
       </c>
       <c r="F73" t="n">
-        <v>1.6463392300558888</v>
+        <v>1.6070132957077783</v>
       </c>
       <c r="G73" t="n">
-        <v>0.017373360856916858</v>
+        <v>0.021821171446704802</v>
       </c>
       <c r="H73" t="n">
-        <v>94.76227677619622</v>
+        <v>73.64468491678764</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.6122880684859138</v>
+        <v>1.564244585571763</v>
       </c>
       <c r="K73" t="n">
-        <v>1.6803903916258638</v>
+        <v>1.6497820058437935</v>
       </c>
     </row>
     <row r="74">
@@ -17030,22 +17030,22 @@
         <v>37</v>
       </c>
       <c r="F74" t="n">
-        <v>1.9036175480420836</v>
+        <v>1.864475643797401</v>
       </c>
       <c r="G74" t="n">
-        <v>0.021484792891405955</v>
+        <v>0.026596346434455072</v>
       </c>
       <c r="H74" t="n">
-        <v>88.60302064180205</v>
+        <v>70.10269806765668</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.8615081277596257</v>
+        <v>1.812347762665519</v>
       </c>
       <c r="K74" t="n">
-        <v>1.9457269683245415</v>
+        <v>1.9166035249292832</v>
       </c>
     </row>
     <row r="75">
@@ -17065,22 +17065,22 @@
         <v>37</v>
       </c>
       <c r="F75" t="n">
-        <v>1.8482256962196941</v>
+        <v>1.8180597098413118</v>
       </c>
       <c r="G75" t="n">
-        <v>0.021713381901080145</v>
+        <v>0.027002116029699694</v>
       </c>
       <c r="H75" t="n">
-        <v>85.11919997721557</v>
+        <v>67.33026803683177</v>
       </c>
       <c r="I75" t="n">
         <v>0.0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.8056682497110133</v>
+        <v>1.7651365349167287</v>
       </c>
       <c r="K75" t="n">
-        <v>1.890783142728375</v>
+        <v>1.870982884765895</v>
       </c>
     </row>
     <row r="76">
@@ -18522,22 +18522,22 @@
         <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1351463573608421</v>
+        <v>0.13751850196092139</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04375060719513232</v>
+        <v>0.041584212478614685</v>
       </c>
       <c r="G32" t="n">
-        <v>3.089016725141096</v>
+        <v>3.306988247802994</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0020082013338231786</v>
+        <v>9.430484833454766E-4</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04939674295662383</v>
+        <v>0.05601494317737553</v>
       </c>
       <c r="J32" t="n">
-        <v>0.22089597176506037</v>
+        <v>0.21902206074446723</v>
       </c>
     </row>
     <row r="33">
@@ -18554,22 +18554,22 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.021534709934673546</v>
+        <v>-0.022930255267154795</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02100830124458557</v>
+        <v>0.020280930774100963</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.0250571754450468</v>
+        <v>-1.1306313069436171</v>
       </c>
       <c r="H33" t="n">
-        <v>0.30533621048500925</v>
+        <v>0.25821030485596963</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.06271022375042926</v>
+        <v>-0.06268014915734271</v>
       </c>
       <c r="J33" t="n">
-        <v>0.019640803881082157</v>
+        <v>0.016819638623033123</v>
       </c>
     </row>
     <row r="34">
@@ -18586,22 +18586,22 @@
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.18603875033801912</v>
+        <v>0.1376169439442624</v>
       </c>
       <c r="F34" t="n">
-        <v>0.062475424110351556</v>
+        <v>0.05620609630440443</v>
       </c>
       <c r="G34" t="n">
-        <v>2.9777909151831485</v>
+        <v>2.4484344758431207</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0029033396907083286</v>
+        <v>0.014347852428356456</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06358916916286475</v>
+        <v>0.027455019476039927</v>
       </c>
       <c r="J34" t="n">
-        <v>0.30848833151317345</v>
+        <v>0.2477788684124849</v>
       </c>
     </row>
     <row r="35">
@@ -18618,22 +18618,22 @@
         <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.012753687440217891</v>
+        <v>-0.024331942285894456</v>
       </c>
       <c r="F35" t="n">
-        <v>0.026273649488423586</v>
+        <v>0.023586346864957405</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.4854174310971639</v>
+        <v>-1.0316113141728105</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6273802700441546</v>
+        <v>0.3022542380048805</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.06424909417995732</v>
+        <v>-0.07056033266808018</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03874171929952154</v>
+        <v>0.02189644809629126</v>
       </c>
     </row>
     <row r="36">
@@ -18650,22 +18650,22 @@
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>0.276066640244045</v>
+        <v>0.241345752942351</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06356053171227213</v>
+        <v>0.0840868885297258</v>
       </c>
       <c r="G36" t="n">
-        <v>4.343365809048803</v>
+        <v>2.8701948325395836</v>
       </c>
       <c r="H36" t="n">
-        <v>1.4031619950838348E-5</v>
+        <v>0.004102189506956844</v>
       </c>
       <c r="I36" t="n">
-        <v>0.15149028724977565</v>
+        <v>0.07653847985205428</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4006429932383143</v>
+        <v>0.4061530260326477</v>
       </c>
     </row>
     <row r="37">
@@ -18682,22 +18682,22 @@
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>0.16659402271518894</v>
+        <v>0.1336304175939637</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03402969173116959</v>
+        <v>0.040637308283794187</v>
       </c>
       <c r="G37" t="n">
-        <v>4.895548982084862</v>
+        <v>3.2883678382619252</v>
       </c>
       <c r="H37" t="n">
-        <v>9.803166931554586E-7</v>
+        <v>0.0010077008430535717</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09989705251709607</v>
+        <v>0.053982756929075934</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2332909929132818</v>
+        <v>0.21327807825885148</v>
       </c>
     </row>
     <row r="38">
@@ -18714,22 +18714,22 @@
         <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>0.16856369260804335</v>
+        <v>0.17503795381652013</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02430634092610499</v>
+        <v>0.030720200639576634</v>
       </c>
       <c r="G38" t="n">
-        <v>6.934967839071412</v>
+        <v>5.697812845369892</v>
       </c>
       <c r="H38" t="n">
-        <v>4.063194225523148E-12</v>
+        <v>1.2135416005421007E-8</v>
       </c>
       <c r="I38" t="n">
-        <v>0.12092413979692564</v>
+        <v>0.1148274669651056</v>
       </c>
       <c r="J38" t="n">
-        <v>0.21620324541916108</v>
+        <v>0.23524844066793466</v>
       </c>
     </row>
     <row r="39">
@@ -18746,22 +18746,22 @@
         <v>21</v>
       </c>
       <c r="E39" t="n">
-        <v>0.026583056611484437</v>
+        <v>0.02912709587690136</v>
       </c>
       <c r="F39" t="n">
-        <v>0.016911929477639604</v>
+        <v>0.02079411833131103</v>
       </c>
       <c r="G39" t="n">
-        <v>1.5718523806897184</v>
+        <v>1.400737237944964</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11598479035554243</v>
+        <v>0.1612926628419744</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.00656371607377047</v>
+        <v>-0.01162862714273238</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05972982929673934</v>
+        <v>0.0698828188965351</v>
       </c>
     </row>
     <row r="40">
@@ -18778,22 +18778,22 @@
         <v>13</v>
       </c>
       <c r="E40" t="n">
-        <v>0.013936186766367589</v>
+        <v>0.006968480563131632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04863647487983565</v>
+        <v>0.04648397416817593</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2865377641122062</v>
+        <v>0.14991146277467868</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7744662738172077</v>
+        <v>0.8808344679340752</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.08138955233309732</v>
+        <v>-0.08413843466478338</v>
       </c>
       <c r="J40" t="n">
-        <v>0.10926192586583248</v>
+        <v>0.09807539579104665</v>
       </c>
     </row>
     <row r="41">
@@ -18810,22 +18810,22 @@
         <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.004154926132035718</v>
+        <v>-0.0014362397456035413</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03638804726106063</v>
+        <v>0.03616375448187118</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.11418381707121623</v>
+        <v>-0.03971489592773133</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9090920801071876</v>
+        <v>0.9683204258134865</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.0754741882314559</v>
+        <v>-0.07231589607582001</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06716433596738446</v>
+        <v>0.06944341658461292</v>
       </c>
     </row>
     <row r="42">
@@ -18842,22 +18842,22 @@
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.14269998358376268</v>
+        <v>0.11255400617423061</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06736726018548084</v>
+        <v>0.06577069842344767</v>
       </c>
       <c r="G42" t="n">
-        <v>2.118239382021324</v>
+        <v>1.7113092740718776</v>
       </c>
       <c r="H42" t="n">
-        <v>0.034154799471035835</v>
+        <v>0.08702403524641267</v>
       </c>
       <c r="I42" t="n">
-        <v>0.010662579883081141</v>
+        <v>-0.016354193973772108</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2747373872844442</v>
+        <v>0.24146220632223334</v>
       </c>
     </row>
     <row r="43">
@@ -18874,22 +18874,22 @@
         <v>19</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08286583015305156</v>
+        <v>0.07496069876710823</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04367433747416075</v>
+        <v>0.04348511405472109</v>
       </c>
       <c r="G43" t="n">
-        <v>1.8973574631115548</v>
+        <v>1.7238243568311373</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05778077567881712</v>
+        <v>0.084739556158002</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0027342983449515357</v>
+        <v>-0.010268558643761597</v>
       </c>
       <c r="J43" t="n">
-        <v>0.16846595865105465</v>
+        <v>0.16018995617797804</v>
       </c>
     </row>
     <row r="44">
@@ -18906,22 +18906,22 @@
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0879777828594268</v>
+        <v>0.005875688601939598</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05925340791757604</v>
+        <v>0.07749144287914246</v>
       </c>
       <c r="G44" t="n">
-        <v>1.4847716941750855</v>
+        <v>0.0758237088332897</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1376043125137909</v>
+        <v>0.9395593534984072</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.028156762620282688</v>
+        <v>-0.14600474855122242</v>
       </c>
       <c r="J44" t="n">
-        <v>0.20411232833913628</v>
+        <v>0.15775612575510162</v>
       </c>
     </row>
     <row r="45">
@@ -18938,22 +18938,22 @@
         <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>0.24898434274849768</v>
+        <v>0.2525674320327835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04040648399821746</v>
+        <v>0.04778142831329029</v>
       </c>
       <c r="G45" t="n">
-        <v>6.161989812315312</v>
+        <v>5.285891212308789</v>
       </c>
       <c r="H45" t="n">
-        <v>7.183647010577943E-10</v>
+        <v>1.2509422275819304E-7</v>
       </c>
       <c r="I45" t="n">
-        <v>0.16978908937009746</v>
+        <v>0.1589175534088521</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3281795961268979</v>
+        <v>0.34621731065671485</v>
       </c>
     </row>
     <row r="46">
@@ -18970,22 +18970,22 @@
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>0.12548775335697435</v>
+        <v>0.09715760534844414</v>
       </c>
       <c r="F46" t="n">
-        <v>0.028563058495157858</v>
+        <v>0.03320512073229791</v>
       </c>
       <c r="G46" t="n">
-        <v>4.3933584135693176</v>
+        <v>2.9259825956284216</v>
       </c>
       <c r="H46" t="n">
-        <v>1.1161288994365748E-5</v>
+        <v>0.0034337014645484665</v>
       </c>
       <c r="I46" t="n">
-        <v>0.06950518741815412</v>
+        <v>0.03207676461083599</v>
       </c>
       <c r="J46" t="n">
-        <v>0.18147031929579457</v>
+        <v>0.1622384460860523</v>
       </c>
     </row>
     <row r="47">
@@ -19002,22 +19002,22 @@
         <v>21</v>
       </c>
       <c r="E47" t="n">
-        <v>0.25449674142318623</v>
+        <v>0.2968263738361708</v>
       </c>
       <c r="F47" t="n">
-        <v>0.027812211908147987</v>
+        <v>0.03343143435720394</v>
       </c>
       <c r="G47" t="n">
-        <v>9.150539420010235</v>
+        <v>8.878661042917813</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.19998580775282018</v>
+        <v>0.2313019665445361</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3090076750935523</v>
+        <v>0.36235078112780544</v>
       </c>
     </row>
     <row r="48">
@@ -19034,22 +19034,22 @@
         <v>18</v>
       </c>
       <c r="E48" t="n">
-        <v>0.16100373688036837</v>
+        <v>0.16251589856165696</v>
       </c>
       <c r="F48" t="n">
-        <v>0.024103861102391544</v>
+        <v>0.023573576657877925</v>
       </c>
       <c r="G48" t="n">
-        <v>6.679582835149754</v>
+        <v>6.893985622981257</v>
       </c>
       <c r="H48" t="n">
-        <v>2.3962387629694604E-11</v>
+        <v>5.424993787528365E-12</v>
       </c>
       <c r="I48" t="n">
-        <v>0.11376103723132502</v>
+        <v>0.11631253732542216</v>
       </c>
       <c r="J48" t="n">
-        <v>0.20824643652941172</v>
+        <v>0.20871925979789177</v>
       </c>
     </row>
     <row r="49">
@@ -19066,22 +19066,22 @@
         <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1151041210154868</v>
+        <v>0.11106938673901956</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02091017940521124</v>
+        <v>0.01978692626965642</v>
       </c>
       <c r="G49" t="n">
-        <v>5.504693134617511</v>
+        <v>5.613271370467798</v>
       </c>
       <c r="H49" t="n">
-        <v>3.698118478112633E-8</v>
+        <v>1.98536866946597E-8</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0741209224710016</v>
+        <v>0.0722877238857435</v>
       </c>
       <c r="J49" t="n">
-        <v>0.156087319559972</v>
+        <v>0.14985104959229562</v>
       </c>
     </row>
     <row r="50">
@@ -19098,22 +19098,22 @@
         <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>0.08172454877046001</v>
+        <v>0.06213966930400343</v>
       </c>
       <c r="F50" t="n">
-        <v>0.015674159835265582</v>
+        <v>0.017577502239773644</v>
       </c>
       <c r="G50" t="n">
-        <v>5.213966785421342</v>
+        <v>3.535181987540662</v>
       </c>
       <c r="H50" t="n">
-        <v>1.848445789764952E-7</v>
+        <v>4.0749440749277E-4</v>
       </c>
       <c r="I50" t="n">
-        <v>0.051003760005415205</v>
+        <v>0.02768839797587496</v>
       </c>
       <c r="J50" t="n">
-        <v>0.11244533753550481</v>
+        <v>0.09659094063213189</v>
       </c>
     </row>
     <row r="51">
@@ -19130,22 +19130,22 @@
         <v>21</v>
       </c>
       <c r="E51" t="n">
-        <v>0.29124322700557015</v>
+        <v>0.24370399329932205</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02438885821287796</v>
+        <v>0.028905755440847333</v>
       </c>
       <c r="G51" t="n">
-        <v>11.941650751480692</v>
+        <v>8.430985095616592</v>
       </c>
       <c r="H51" t="n">
         <v>0.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.24344194328427546</v>
+        <v>0.18704975368933857</v>
       </c>
       <c r="J51" t="n">
-        <v>0.33904451072686487</v>
+        <v>0.3003582329093055</v>
       </c>
     </row>
     <row r="52">
@@ -19162,22 +19162,22 @@
         <v>22</v>
       </c>
       <c r="E52" t="n">
-        <v>0.035342131673080555</v>
+        <v>0.021741712636436</v>
       </c>
       <c r="F52" t="n">
-        <v>0.014600561914860909</v>
+        <v>0.01738741774003609</v>
       </c>
       <c r="G52" t="n">
-        <v>2.4206007877757245</v>
+        <v>1.2504279221619985</v>
       </c>
       <c r="H52" t="n">
-        <v>0.015494883253227343</v>
+        <v>0.21114326995578936</v>
       </c>
       <c r="I52" t="n">
-        <v>0.006725556165906012</v>
+        <v>-0.012336999918187552</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06395870718025509</v>
+        <v>0.05582042519105955</v>
       </c>
     </row>
     <row r="53">
@@ -19194,22 +19194,22 @@
         <v>13</v>
       </c>
       <c r="E53" t="n">
-        <v>0.430480329552033</v>
+        <v>0.43464443037295053</v>
       </c>
       <c r="F53" t="n">
-        <v>0.030909073343974858</v>
+        <v>0.030209898086004425</v>
       </c>
       <c r="G53" t="n">
-        <v>13.927312694281955</v>
+        <v>14.387484166135325</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3698996590023353</v>
+        <v>0.37543411814775635</v>
       </c>
       <c r="J53" t="n">
-        <v>0.49106100010173076</v>
+        <v>0.4938547425981447</v>
       </c>
     </row>
     <row r="54">
@@ -19226,22 +19226,22 @@
         <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8184665004930847</v>
+        <v>0.8243207284780293</v>
       </c>
       <c r="F54" t="n">
-        <v>0.036692397085857795</v>
+        <v>0.03640496813575364</v>
       </c>
       <c r="G54" t="n">
-        <v>22.306160553586263</v>
+        <v>22.643083367197253</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.746550723698361</v>
+        <v>0.7529683020736239</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8903822772878084</v>
+        <v>0.8956731548824347</v>
       </c>
     </row>
     <row r="55">
@@ -19258,22 +19258,22 @@
         <v>14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.27220869849180157</v>
+        <v>0.27037989590090716</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0234964195693588</v>
+        <v>0.022199407002630803</v>
       </c>
       <c r="G55" t="n">
-        <v>11.58511396548193</v>
+        <v>12.179599926649619</v>
       </c>
       <c r="H55" t="n">
         <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2261565623702162</v>
+        <v>0.22686985769760454</v>
       </c>
       <c r="J55" t="n">
-        <v>0.31826083461338694</v>
+        <v>0.3138899341042098</v>
       </c>
     </row>
     <row r="56">
@@ -19290,22 +19290,22 @@
         <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6500086378371954</v>
+        <v>0.6470320239204449</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03864432313463825</v>
+        <v>0.038051746568298565</v>
       </c>
       <c r="G56" t="n">
-        <v>16.820287822678154</v>
+        <v>17.004003292177295</v>
       </c>
       <c r="H56" t="n">
         <v>0.0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5742671562863765</v>
+        <v>0.5724519710977342</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7257501193880144</v>
+        <v>0.7216120767431556</v>
       </c>
     </row>
     <row r="57">
@@ -19322,22 +19322,22 @@
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>0.254891945298052</v>
+        <v>0.2117387773316795</v>
       </c>
       <c r="F57" t="n">
-        <v>0.019159179831221777</v>
+        <v>0.021481405331617007</v>
       </c>
       <c r="G57" t="n">
-        <v>13.303906928347756</v>
+        <v>9.856840093233366</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.21734064285553112</v>
+        <v>0.16963599654440348</v>
       </c>
       <c r="J57" t="n">
-        <v>0.29244324774057284</v>
+        <v>0.25384155811895553</v>
       </c>
     </row>
     <row r="58">
@@ -19354,22 +19354,22 @@
         <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6099611298315655</v>
+        <v>0.587075743841378</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02778644202800844</v>
+        <v>0.033098175512721664</v>
       </c>
       <c r="G58" t="n">
-        <v>21.951753636422076</v>
+        <v>17.73740500033691</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5555007041981589</v>
+        <v>0.522204511882458</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6644215554649721</v>
+        <v>0.6519469758002979</v>
       </c>
     </row>
     <row r="59">
@@ -19386,22 +19386,22 @@
         <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7806836304848355</v>
+        <v>0.7226166270894868</v>
       </c>
       <c r="F59" t="n">
-        <v>0.030310872024461522</v>
+        <v>0.037010074096594035</v>
       </c>
       <c r="G59" t="n">
-        <v>25.755894777781617</v>
+        <v>19.524863019822696</v>
       </c>
       <c r="H59" t="n">
         <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7212754129768882</v>
+        <v>0.6500782147950037</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8400918479927827</v>
+        <v>0.7951550393839699</v>
       </c>
     </row>
     <row r="60">
@@ -19418,22 +19418,22 @@
         <v>21</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0115333851934827</v>
+        <v>0.9577139967967391</v>
       </c>
       <c r="F60" t="n">
-        <v>0.032734722064370336</v>
+        <v>0.03926201485920545</v>
       </c>
       <c r="G60" t="n">
-        <v>30.900930919907594</v>
+        <v>24.392889672909682</v>
       </c>
       <c r="H60" t="n">
         <v>0.0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9473745089033881</v>
+        <v>0.8807618617122199</v>
       </c>
       <c r="J60" t="n">
-        <v>1.075692261483577</v>
+        <v>1.0346661318812582</v>
       </c>
     </row>
     <row r="61">
@@ -19450,22 +19450,22 @@
         <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3062326508810026</v>
+        <v>0.2817632710474586</v>
       </c>
       <c r="F61" t="n">
-        <v>0.023014036032508272</v>
+        <v>0.025776526949579732</v>
       </c>
       <c r="G61" t="n">
-        <v>13.306342722694811</v>
+        <v>10.931002132234596</v>
       </c>
       <c r="H61" t="n">
         <v>0.0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2611259691183793</v>
+        <v>0.2312422065797562</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3513393326436259</v>
+        <v>0.33228433551516096</v>
       </c>
     </row>
     <row r="62">
@@ -19482,22 +19482,22 @@
         <v>22</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7775777909098917</v>
+        <v>0.7650070946076432</v>
       </c>
       <c r="F62" t="n">
-        <v>0.030883954227247844</v>
+        <v>0.037925740308032814</v>
       </c>
       <c r="G62" t="n">
-        <v>25.1774039421371</v>
+        <v>20.171184224599347</v>
       </c>
       <c r="H62" t="n">
         <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7170463529243023</v>
+        <v>0.6906740095168798</v>
       </c>
       <c r="J62" t="n">
-        <v>0.838109228895481</v>
+        <v>0.8393401796984065</v>
       </c>
     </row>
     <row r="63">
@@ -19514,22 +19514,22 @@
         <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>0.14949869877013322</v>
+        <v>0.13877588944403857</v>
       </c>
       <c r="F63" t="n">
-        <v>0.017871537337366444</v>
+        <v>0.01881155866267293</v>
       </c>
       <c r="G63" t="n">
-        <v>8.36518403246463</v>
+        <v>7.377160602826939</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0</v>
+        <v>1.616484723854228E-13</v>
       </c>
       <c r="I63" t="n">
-        <v>0.11447112924053215</v>
+        <v>0.10190591197213716</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1845262682997343</v>
+        <v>0.17564586691593997</v>
       </c>
     </row>
     <row r="64">
@@ -19546,22 +19546,22 @@
         <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5602928074226622</v>
+        <v>0.5455976617067828</v>
       </c>
       <c r="F64" t="n">
-        <v>0.026494763677229752</v>
+        <v>0.029562445064280286</v>
       </c>
       <c r="G64" t="n">
-        <v>21.14730345393462</v>
+        <v>18.455769153073796</v>
       </c>
       <c r="H64" t="n">
         <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5083640248363919</v>
+        <v>0.4876563340858496</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6122215900089325</v>
+        <v>0.603538989327716</v>
       </c>
     </row>
     <row r="65">
@@ -19578,22 +19578,22 @@
         <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1884470707523643</v>
+        <v>0.18263041194555038</v>
       </c>
       <c r="F65" t="n">
-        <v>0.017231380837799973</v>
+        <v>0.01839881363200776</v>
       </c>
       <c r="G65" t="n">
-        <v>10.936272172626671</v>
+        <v>9.926205873830625</v>
       </c>
       <c r="H65" t="n">
         <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.15467418490638274</v>
+        <v>0.1465693998685506</v>
       </c>
       <c r="J65" t="n">
-        <v>0.22221995659834587</v>
+        <v>0.21869142402255015</v>
       </c>
     </row>
     <row r="66">
@@ -19738,22 +19738,22 @@
         <v>37</v>
       </c>
       <c r="E70" t="n">
-        <v>1.3252114823150718</v>
+        <v>1.3132649735562079</v>
       </c>
       <c r="F70" t="n">
-        <v>0.014146957876391628</v>
+        <v>0.014350394454390514</v>
       </c>
       <c r="G70" t="n">
-        <v>93.67466093375297</v>
+        <v>91.51420734322836</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.297483954386539</v>
+        <v>1.285138717261659</v>
       </c>
       <c r="J70" t="n">
-        <v>1.3529390102436045</v>
+        <v>1.3413912298507567</v>
       </c>
     </row>
     <row r="71">
@@ -19770,22 +19770,22 @@
         <v>37</v>
       </c>
       <c r="E71" t="n">
-        <v>1.2327971922780887</v>
+        <v>1.2174758305066575</v>
       </c>
       <c r="F71" t="n">
-        <v>0.012889027318648818</v>
+        <v>0.012794798944315382</v>
       </c>
       <c r="G71" t="n">
-        <v>95.64703074951083</v>
+        <v>95.15396340382289</v>
       </c>
       <c r="H71" t="n">
         <v>0.0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.2075351629377842</v>
+        <v>1.1923984853863683</v>
       </c>
       <c r="J71" t="n">
-        <v>1.2580592216183932</v>
+        <v>1.2425531756269468</v>
       </c>
     </row>
     <row r="72">
@@ -19802,22 +19802,22 @@
         <v>37</v>
       </c>
       <c r="E72" t="n">
-        <v>1.2165747155988924</v>
+        <v>1.1886614419127732</v>
       </c>
       <c r="F72" t="n">
-        <v>0.010321694332525461</v>
+        <v>0.012334025467097016</v>
       </c>
       <c r="G72" t="n">
-        <v>117.86579571197464</v>
+        <v>96.37254642320283</v>
       </c>
       <c r="H72" t="n">
         <v>0.0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.1963445664477113</v>
+        <v>1.1644871962128633</v>
       </c>
       <c r="J72" t="n">
-        <v>1.2368048647500736</v>
+        <v>1.2128356876126831</v>
       </c>
     </row>
     <row r="73">
@@ -19834,22 +19834,22 @@
         <v>37</v>
       </c>
       <c r="E73" t="n">
-        <v>1.5417318663993398</v>
+        <v>1.5008582294079746</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01713265435461868</v>
+        <v>0.020824173580783725</v>
       </c>
       <c r="G73" t="n">
-        <v>89.98791631979165</v>
+        <v>72.07288316079669</v>
       </c>
       <c r="H73" t="n">
         <v>0.0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.5081524809047138</v>
+        <v>1.4600435991818281</v>
       </c>
       <c r="J73" t="n">
-        <v>1.5753112518939658</v>
+        <v>1.5416728596341212</v>
       </c>
     </row>
     <row r="74">
@@ -19866,22 +19866,22 @@
         <v>37</v>
       </c>
       <c r="E74" t="n">
-        <v>1.2088694233788027</v>
+        <v>1.1885741472893092</v>
       </c>
       <c r="F74" t="n">
-        <v>0.011873906986460665</v>
+        <v>0.013995077882587236</v>
       </c>
       <c r="G74" t="n">
-        <v>101.80890121147382</v>
+        <v>84.92801235269584</v>
       </c>
       <c r="H74" t="n">
         <v>0.0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.1855969933295611</v>
+        <v>1.1611442986786051</v>
       </c>
       <c r="J74" t="n">
-        <v>1.2321418534280442</v>
+        <v>1.2160039959000133</v>
       </c>
     </row>
     <row r="75">
@@ -19898,22 +19898,22 @@
         <v>37</v>
       </c>
       <c r="E75" t="n">
-        <v>1.7334448989645104</v>
+        <v>1.7137354922187005</v>
       </c>
       <c r="F75" t="n">
-        <v>0.021074851953606605</v>
+        <v>0.021778635110583495</v>
       </c>
       <c r="G75" t="n">
-        <v>82.25181855514104</v>
+        <v>78.68883809830201</v>
       </c>
       <c r="H75" t="n">
         <v>0.0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.692138948155928</v>
+        <v>1.6710501517695173</v>
       </c>
       <c r="J75" t="n">
-        <v>1.7747508497730928</v>
+        <v>1.7564208326678836</v>
       </c>
     </row>
     <row r="76">
@@ -19930,22 +19930,22 @@
         <v>37</v>
       </c>
       <c r="E76" t="n">
-        <v>1.6314647691371487</v>
+        <v>1.608701670304114</v>
       </c>
       <c r="F76" t="n">
-        <v>0.020764286138649096</v>
+        <v>0.021575852459705044</v>
       </c>
       <c r="G76" t="n">
-        <v>78.57071311016378</v>
+        <v>74.5602832290644</v>
       </c>
       <c r="H76" t="n">
         <v>0.0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.5907675161407122</v>
+        <v>1.566413776547342</v>
       </c>
       <c r="J76" t="n">
-        <v>1.6721620221335851</v>
+        <v>1.6509895640608858</v>
       </c>
     </row>
     <row r="77">
@@ -19962,22 +19962,22 @@
         <v>37</v>
       </c>
       <c r="E77" t="n">
-        <v>1.646145452593123</v>
+        <v>1.60658353950814</v>
       </c>
       <c r="F77" t="n">
-        <v>0.017361442271085305</v>
+        <v>0.021809143734996324</v>
       </c>
       <c r="G77" t="n">
-        <v>94.81616946851838</v>
+        <v>73.66559453364118</v>
       </c>
       <c r="H77" t="n">
         <v>0.0</v>
       </c>
       <c r="I77" t="n">
-        <v>1.6121176510221245</v>
+        <v>1.56383840325389</v>
       </c>
       <c r="J77" t="n">
-        <v>1.6801732541641214</v>
+        <v>1.6493286757623902</v>
       </c>
     </row>
     <row r="78">
@@ -19994,22 +19994,22 @@
         <v>37</v>
       </c>
       <c r="E78" t="n">
-        <v>1.9049149363873847</v>
+        <v>1.8650260350812091</v>
       </c>
       <c r="F78" t="n">
-        <v>0.021492642290379935</v>
+        <v>0.02659187605842542</v>
       </c>
       <c r="G78" t="n">
-        <v>88.63102594137628</v>
+        <v>70.1351807967039</v>
       </c>
       <c r="H78" t="n">
         <v>0.0</v>
       </c>
       <c r="I78" t="n">
-        <v>1.8627901315656377</v>
+        <v>1.8129069157253423</v>
       </c>
       <c r="J78" t="n">
-        <v>1.9470397412091318</v>
+        <v>1.917145154437076</v>
       </c>
     </row>
     <row r="79">
@@ -20026,22 +20026,22 @@
         <v>37</v>
       </c>
       <c r="E79" t="n">
-        <v>1.8453003242407042</v>
+        <v>1.8155411101948489</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02155625622211596</v>
+        <v>0.026851915027023308</v>
       </c>
       <c r="G79" t="n">
-        <v>85.60393350434808</v>
+        <v>67.61309606289605</v>
       </c>
       <c r="H79" t="n">
         <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.8030508384038395</v>
+        <v>1.7629123238259534</v>
       </c>
       <c r="J79" t="n">
-        <v>1.887549810077569</v>
+        <v>1.8681698965637443</v>
       </c>
     </row>
     <row r="80">
@@ -21543,22 +21543,22 @@
         <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>0.15181229922815426</v>
+        <v>0.15500022254572757</v>
       </c>
       <c r="G32" t="n">
-        <v>0.021697708180630285</v>
+        <v>0.02463806929776377</v>
       </c>
       <c r="H32" t="n">
-        <v>6.996697437551414</v>
+        <v>6.291086394492603</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6205704273252195E-12</v>
+        <v>3.1525182464520185E-10</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1092855726470588</v>
+        <v>0.10671049407350852</v>
       </c>
       <c r="K32" t="n">
-        <v>0.19433902580924972</v>
+        <v>0.2032899510179466</v>
       </c>
     </row>
     <row r="33">
@@ -21578,22 +21578,22 @@
         <v>47</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02231460102776294</v>
+        <v>0.01269966676445608</v>
       </c>
       <c r="G33" t="n">
-        <v>0.010961629073059783</v>
+        <v>0.011411763421554743</v>
       </c>
       <c r="H33" t="n">
-        <v>2.035701160752207</v>
+        <v>1.1128575221309551</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04178037247363631</v>
+        <v>0.26576962599622744</v>
       </c>
       <c r="J33" t="n">
-        <v>8.302028326785948E-4</v>
+        <v>-0.009666978541882788</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04379899922284729</v>
+        <v>0.03506631207079495</v>
       </c>
     </row>
     <row r="34">
@@ -21613,22 +21613,22 @@
         <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>0.15181229922815428</v>
+        <v>0.1550002225457276</v>
       </c>
       <c r="G34" t="n">
-        <v>0.021697708180630302</v>
+        <v>0.024638069297763795</v>
       </c>
       <c r="H34" t="n">
-        <v>6.9966974375514095</v>
+        <v>6.291086394492598</v>
       </c>
       <c r="I34" t="n">
-        <v>2.6205704273252195E-12</v>
+        <v>3.1525182464520185E-10</v>
       </c>
       <c r="J34" t="n">
-        <v>0.10928557264705879</v>
+        <v>0.10671049407350851</v>
       </c>
       <c r="K34" t="n">
-        <v>0.19433902580924978</v>
+        <v>0.20328995101794667</v>
       </c>
     </row>
     <row r="35">
@@ -21648,22 +21648,22 @@
         <v>47</v>
       </c>
       <c r="F35" t="n">
-        <v>0.022314601027762948</v>
+        <v>0.012699666764456094</v>
       </c>
       <c r="G35" t="n">
-        <v>0.010961629073059776</v>
+        <v>0.011411763421554746</v>
       </c>
       <c r="H35" t="n">
-        <v>2.0357011607522093</v>
+        <v>1.112857522130956</v>
       </c>
       <c r="I35" t="n">
-        <v>0.041780372473636085</v>
+        <v>0.265769625996227</v>
       </c>
       <c r="J35" t="n">
-        <v>8.302028326786157E-4</v>
+        <v>-0.009666978541882781</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04379899922284728</v>
+        <v>0.03506631207079497</v>
       </c>
     </row>
     <row r="36">
@@ -21683,22 +21683,22 @@
         <v>40</v>
       </c>
       <c r="F36" t="n">
-        <v>0.15181229922815423</v>
+        <v>0.15500022254572754</v>
       </c>
       <c r="G36" t="n">
-        <v>0.021697708180630295</v>
+        <v>0.02463806929776376</v>
       </c>
       <c r="H36" t="n">
-        <v>6.996697437551409</v>
+        <v>6.291086394492604</v>
       </c>
       <c r="I36" t="n">
-        <v>2.6205704273252195E-12</v>
+        <v>3.1525182464520185E-10</v>
       </c>
       <c r="J36" t="n">
-        <v>0.10928557264705877</v>
+        <v>0.10671049407350852</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1943390258092497</v>
+        <v>0.20328995101794656</v>
       </c>
     </row>
     <row r="37">
@@ -21718,22 +21718,22 @@
         <v>47</v>
       </c>
       <c r="F37" t="n">
-        <v>0.022314601027762934</v>
+        <v>0.01269966676445608</v>
       </c>
       <c r="G37" t="n">
-        <v>0.010961629073059788</v>
+        <v>0.011411763421554743</v>
       </c>
       <c r="H37" t="n">
-        <v>2.0357011607522058</v>
+        <v>1.1128575221309551</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04178037247363653</v>
+        <v>0.26576962599622744</v>
       </c>
       <c r="J37" t="n">
-        <v>8.302028326785775E-4</v>
+        <v>-0.009666978541882788</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04379899922284729</v>
+        <v>0.03506631207079495</v>
       </c>
     </row>
     <row r="38">
@@ -21753,22 +21753,22 @@
         <v>40</v>
       </c>
       <c r="F38" t="n">
-        <v>0.15181229922815437</v>
+        <v>0.15500022254572768</v>
       </c>
       <c r="G38" t="n">
-        <v>0.021697708180630295</v>
+        <v>0.024638069297763784</v>
       </c>
       <c r="H38" t="n">
-        <v>6.996697437551416</v>
+        <v>6.291086394492604</v>
       </c>
       <c r="I38" t="n">
-        <v>2.6205704273252195E-12</v>
+        <v>3.1525182464520185E-10</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1092855726470589</v>
+        <v>0.1067104940735086</v>
       </c>
       <c r="K38" t="n">
-        <v>0.19433902580924983</v>
+        <v>0.20328995101794675</v>
       </c>
     </row>
     <row r="39">
@@ -21788,22 +21788,22 @@
         <v>47</v>
       </c>
       <c r="F39" t="n">
-        <v>0.022314601027762983</v>
+        <v>0.012699666764456122</v>
       </c>
       <c r="G39" t="n">
-        <v>0.010961629073059784</v>
+        <v>0.011411763421554751</v>
       </c>
       <c r="H39" t="n">
-        <v>2.0357011607522106</v>
+        <v>1.1128575221309578</v>
       </c>
       <c r="I39" t="n">
-        <v>0.041780372473636085</v>
+        <v>0.26576962599622633</v>
       </c>
       <c r="J39" t="n">
-        <v>8.30202832678633E-4</v>
+        <v>-0.009666978541882764</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04379899922284733</v>
+        <v>0.03506631207079501</v>
       </c>
     </row>
     <row r="40">
@@ -21823,22 +21823,22 @@
         <v>44</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07880527950812435</v>
+        <v>0.061308272513851694</v>
       </c>
       <c r="G40" t="n">
-        <v>0.023058648050557046</v>
+        <v>0.02593134140354187</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4176019051654936</v>
+        <v>2.364253802368967</v>
       </c>
       <c r="I40" t="n">
-        <v>6.317543862270902E-4</v>
+        <v>0.01806643092294724</v>
       </c>
       <c r="J40" t="n">
-        <v>0.033611159796847825</v>
+        <v>0.010483777292097304</v>
       </c>
       <c r="K40" t="n">
-        <v>0.12399939921940088</v>
+        <v>0.11213276773560608</v>
       </c>
     </row>
     <row r="41">
@@ -21858,22 +21858,22 @@
         <v>41</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1421896771888791</v>
+        <v>0.14194967432594316</v>
       </c>
       <c r="G41" t="n">
-        <v>0.021690481289666788</v>
+        <v>0.02318130273936234</v>
       </c>
       <c r="H41" t="n">
-        <v>6.555395211844257</v>
+        <v>6.123455438287755</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5494719930493375E-11</v>
+        <v>9.156746472172017E-10</v>
       </c>
       <c r="J41" t="n">
-        <v>0.09967711505379229</v>
+        <v>0.09651515584207329</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1847022393239659</v>
+        <v>0.18738419280981303</v>
       </c>
     </row>
     <row r="42">
@@ -21893,22 +21893,22 @@
         <v>44</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07880527950812447</v>
+        <v>0.06130827251385179</v>
       </c>
       <c r="G42" t="n">
-        <v>0.023058648050557042</v>
+        <v>0.02593134140354186</v>
       </c>
       <c r="H42" t="n">
-        <v>3.417601905165499</v>
+        <v>2.364253802368972</v>
       </c>
       <c r="I42" t="n">
-        <v>6.317543862268682E-4</v>
+        <v>0.01806643092294702</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03361115979684794</v>
+        <v>0.010483777292097422</v>
       </c>
       <c r="K42" t="n">
-        <v>0.12399939921940098</v>
+        <v>0.11213276773560615</v>
       </c>
     </row>
     <row r="43">
@@ -21928,22 +21928,22 @@
         <v>41</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14218967718887915</v>
+        <v>0.14194967432594321</v>
       </c>
       <c r="G43" t="n">
-        <v>0.021690481289666785</v>
+        <v>0.023181302739362357</v>
       </c>
       <c r="H43" t="n">
-        <v>6.55539521184426</v>
+        <v>6.1234554382877535</v>
       </c>
       <c r="I43" t="n">
-        <v>5.5494719930493375E-11</v>
+        <v>9.156746472172017E-10</v>
       </c>
       <c r="J43" t="n">
-        <v>0.09967711505379236</v>
+        <v>0.09651515584207332</v>
       </c>
       <c r="K43" t="n">
-        <v>0.18470223932396596</v>
+        <v>0.1873841928098131</v>
       </c>
     </row>
     <row r="44">
@@ -21963,22 +21963,22 @@
         <v>44</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07880527950812438</v>
+        <v>0.06130827251385171</v>
       </c>
       <c r="G44" t="n">
-        <v>0.023058648050557053</v>
+        <v>0.025931341403541856</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4176019051654936</v>
+        <v>2.3642538023689688</v>
       </c>
       <c r="I44" t="n">
-        <v>6.317543862270902E-4</v>
+        <v>0.01806643092294724</v>
       </c>
       <c r="J44" t="n">
-        <v>0.03361115979684784</v>
+        <v>0.010483777292097346</v>
       </c>
       <c r="K44" t="n">
-        <v>0.12399939921940092</v>
+        <v>0.11213276773560607</v>
       </c>
     </row>
     <row r="45">
@@ -21998,22 +21998,22 @@
         <v>41</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1421896771888791</v>
+        <v>0.1419496743259432</v>
       </c>
       <c r="G45" t="n">
-        <v>0.021690481289666785</v>
+        <v>0.023181302739362315</v>
       </c>
       <c r="H45" t="n">
-        <v>6.5553952118442576</v>
+        <v>6.123455438287763</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5494719930493375E-11</v>
+        <v>9.156746472172017E-10</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0996771150537923</v>
+        <v>0.09651515584207336</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1847022393239659</v>
+        <v>0.187384192809813</v>
       </c>
     </row>
     <row r="46">
@@ -22033,22 +22033,22 @@
         <v>44</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07880527950812447</v>
+        <v>0.0613082725138518</v>
       </c>
       <c r="G46" t="n">
-        <v>0.023058648050557053</v>
+        <v>0.0259313414035419</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4176019051654976</v>
+        <v>2.3642538023689683</v>
       </c>
       <c r="I46" t="n">
-        <v>6.317543862268682E-4</v>
+        <v>0.01806643092294724</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03361115979684792</v>
+        <v>0.010483777292097346</v>
       </c>
       <c r="K46" t="n">
-        <v>0.12399939921940101</v>
+        <v>0.11213276773560625</v>
       </c>
     </row>
     <row r="47">
@@ -22068,22 +22068,22 @@
         <v>41</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14218967718887915</v>
+        <v>0.14194967432594324</v>
       </c>
       <c r="G47" t="n">
-        <v>0.021690481289666788</v>
+        <v>0.023181302739362333</v>
       </c>
       <c r="H47" t="n">
-        <v>6.555395211844259</v>
+        <v>6.123455438287761</v>
       </c>
       <c r="I47" t="n">
-        <v>5.5494719930493375E-11</v>
+        <v>9.156746472172017E-10</v>
       </c>
       <c r="J47" t="n">
-        <v>0.09967711505379234</v>
+        <v>0.09651515584207339</v>
       </c>
       <c r="K47" t="n">
-        <v>0.18470223932396596</v>
+        <v>0.1873841928098131</v>
       </c>
     </row>
     <row r="48">
@@ -22103,22 +22103,22 @@
         <v>37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.17553981782753392</v>
+        <v>0.1770944811851943</v>
       </c>
       <c r="G48" t="n">
-        <v>0.022192631207278737</v>
+        <v>0.022209027653394598</v>
       </c>
       <c r="H48" t="n">
-        <v>7.9098244903002035</v>
+        <v>7.973986252303388</v>
       </c>
       <c r="I48" t="n">
-        <v>2.6645352591003757E-15</v>
+        <v>1.5543122344752192E-15</v>
       </c>
       <c r="J48" t="n">
-        <v>0.13204305993908794</v>
+        <v>0.13356558685288678</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2190365757159799</v>
+        <v>0.22062337551750183</v>
       </c>
     </row>
     <row r="49">
@@ -22138,22 +22138,22 @@
         <v>37</v>
       </c>
       <c r="F49" t="n">
-        <v>0.13884174738033814</v>
+        <v>0.13422472616125006</v>
       </c>
       <c r="G49" t="n">
-        <v>0.018627612708104355</v>
+        <v>0.018105478900069413</v>
       </c>
       <c r="H49" t="n">
-        <v>7.453544882857263</v>
+        <v>7.413486652415224</v>
       </c>
       <c r="I49" t="n">
-        <v>9.08162434143378E-14</v>
+        <v>1.2301271112846734E-13</v>
       </c>
       <c r="J49" t="n">
-        <v>0.10233229735449298</v>
+        <v>0.09873863959426415</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1753511974061833</v>
+        <v>0.16971081272823596</v>
       </c>
     </row>
     <row r="50">
@@ -22173,22 +22173,22 @@
         <v>37</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07058738712172415</v>
+        <v>0.06138336269548232</v>
       </c>
       <c r="G50" t="n">
-        <v>0.014225690061600597</v>
+        <v>0.016172348005439534</v>
       </c>
       <c r="H50" t="n">
-        <v>4.961965768694811</v>
+        <v>3.795575180229622</v>
       </c>
       <c r="I50" t="n">
-        <v>6.978329607498779E-7</v>
+        <v>1.4730154756814606E-4</v>
       </c>
       <c r="J50" t="n">
-        <v>0.042705546945757594</v>
+        <v>0.029686143059372665</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0984692272976907</v>
+        <v>0.09308058233159197</v>
       </c>
     </row>
     <row r="51">
@@ -22208,22 +22208,22 @@
         <v>37</v>
       </c>
       <c r="F51" t="n">
-        <v>0.25777296718301385</v>
+        <v>0.22165955861691247</v>
       </c>
       <c r="G51" t="n">
-        <v>0.024158098043030776</v>
+        <v>0.028893335605582177</v>
       </c>
       <c r="H51" t="n">
-        <v>10.670250891600185</v>
+        <v>7.671650017940053</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0</v>
+        <v>1.687538997430238E-14</v>
       </c>
       <c r="J51" t="n">
-        <v>0.21042396508368597</v>
+        <v>0.16502966143674264</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3051219692823417</v>
+        <v>0.2782894557970823</v>
       </c>
     </row>
     <row r="52">
@@ -22243,22 +22243,22 @@
         <v>37</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02518077008858765</v>
+        <v>0.008349231649250343</v>
       </c>
       <c r="G52" t="n">
-        <v>0.014339833744490908</v>
+        <v>0.017017760650937467</v>
       </c>
       <c r="H52" t="n">
-        <v>1.7560015365074664</v>
+        <v>0.4906187024548617</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07908814620461002</v>
+        <v>0.6236961560556589</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.002924787594906667</v>
+        <v>-0.02500496632410999</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05328632777208196</v>
+        <v>0.04170342962261067</v>
       </c>
     </row>
     <row r="53">
@@ -22278,22 +22278,22 @@
         <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>0.43091983991505756</v>
+        <v>0.43863038912890734</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02810745895455461</v>
+        <v>0.02820143604218442</v>
       </c>
       <c r="H53" t="n">
-        <v>15.331156068280235</v>
+        <v>15.553477080840597</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3758302326671927</v>
+        <v>0.3833565901739161</v>
       </c>
       <c r="K53" t="n">
-        <v>0.48600944716292244</v>
+        <v>0.4939041880838986</v>
       </c>
     </row>
     <row r="54">
@@ -22313,22 +22313,22 @@
         <v>37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8694890186802509</v>
+        <v>0.8763506961645074</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03676593944044743</v>
+        <v>0.03664246719693922</v>
       </c>
       <c r="H54" t="n">
-        <v>23.649307808076763</v>
+        <v>23.91625791610751</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7974291015191932</v>
+        <v>0.8045327801538162</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9415489358413085</v>
+        <v>0.9481686121751987</v>
       </c>
     </row>
     <row r="55">
@@ -22348,22 +22348,22 @@
         <v>37</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2753560070541281</v>
+        <v>0.27760516332831475</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02136509470854798</v>
+        <v>0.020757288386515353</v>
       </c>
       <c r="H55" t="n">
-        <v>12.888124804050632</v>
+        <v>13.373864551048806</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2334811908990868</v>
+        <v>0.23692162567403313</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3172308232091694</v>
+        <v>0.3182887009825964</v>
       </c>
     </row>
     <row r="56">
@@ -22383,22 +22383,22 @@
         <v>37</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7351234082579281</v>
+        <v>0.7332683081338863</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03649348816785968</v>
+        <v>0.03636239280596477</v>
       </c>
       <c r="H56" t="n">
-        <v>20.143961160319048</v>
+        <v>20.16556809247172</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6635974857786845</v>
+        <v>0.661999327842497</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8066493307371717</v>
+        <v>0.8045372884252756</v>
       </c>
     </row>
     <row r="57">
@@ -22418,22 +22418,22 @@
         <v>37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.24591126809638778</v>
+        <v>0.21381379880178517</v>
       </c>
       <c r="G57" t="n">
-        <v>0.017985621420201034</v>
+        <v>0.020273386430214337</v>
       </c>
       <c r="H57" t="n">
-        <v>13.672658973027527</v>
+        <v>10.546526084222855</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.21066009787322162</v>
+        <v>0.17407869155390202</v>
       </c>
       <c r="K57" t="n">
-        <v>0.28116243831955395</v>
+        <v>0.2535489060496683</v>
       </c>
     </row>
     <row r="58">
@@ -22453,22 +22453,22 @@
         <v>37</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5875885807460919</v>
+        <v>0.5778746937726594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02570767403428149</v>
+        <v>0.03194177799847984</v>
       </c>
       <c r="H58" t="n">
-        <v>22.856543923909083</v>
+        <v>18.091500535761078</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5372024655126046</v>
+        <v>0.5152699592934651</v>
       </c>
       <c r="K58" t="n">
-        <v>0.6379746959795791</v>
+        <v>0.6404794282518538</v>
       </c>
     </row>
     <row r="59">
@@ -22488,22 +22488,22 @@
         <v>37</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7686704764414413</v>
+        <v>0.7154308530681169</v>
       </c>
       <c r="G59" t="n">
-        <v>0.030572369900848457</v>
+        <v>0.03737602497513046</v>
       </c>
       <c r="H59" t="n">
-        <v>25.142652628316814</v>
+        <v>19.14143768750571</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.708749732513742</v>
+        <v>0.6421751902315916</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8285912203691406</v>
+        <v>0.7886865159046422</v>
       </c>
     </row>
     <row r="60">
@@ -22523,22 +22523,22 @@
         <v>37</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9486381892188817</v>
+        <v>0.8998294121363919</v>
       </c>
       <c r="G60" t="n">
-        <v>0.034384915151892306</v>
+        <v>0.040573700055941346</v>
       </c>
       <c r="H60" t="n">
-        <v>27.58878959067826</v>
+        <v>22.17765229436172</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8812449939097071</v>
+        <v>0.8203064213072161</v>
       </c>
       <c r="K60" t="n">
-        <v>1.0160313845280562</v>
+        <v>0.9793524029655677</v>
       </c>
     </row>
     <row r="61">
@@ -22558,22 +22558,22 @@
         <v>37</v>
       </c>
       <c r="F61" t="n">
-        <v>0.30524462868264823</v>
+        <v>0.2765305584483417</v>
       </c>
       <c r="G61" t="n">
-        <v>0.021776266029039898</v>
+        <v>0.023809631250558877</v>
       </c>
       <c r="H61" t="n">
-        <v>14.017308030476254</v>
+        <v>11.614231045340139</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.262563931547967</v>
+        <v>0.2298645387120669</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3479253258173295</v>
+        <v>0.32319657818461645</v>
       </c>
     </row>
     <row r="62">
@@ -22593,22 +22593,22 @@
         <v>37</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7466972665132873</v>
+        <v>0.7339559278332626</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03114153372505114</v>
+        <v>0.038039019876503814</v>
       </c>
       <c r="H62" t="n">
-        <v>23.977536659108818</v>
+        <v>19.29481701200764</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6856609819888476</v>
+        <v>0.6594008188681119</v>
       </c>
       <c r="K62" t="n">
-        <v>0.8077335510377269</v>
+        <v>0.8085110367984133</v>
       </c>
     </row>
     <row r="63">
@@ -22628,22 +22628,22 @@
         <v>37</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1610746320314774</v>
+        <v>0.141382683748672</v>
       </c>
       <c r="G63" t="n">
-        <v>0.015760696262056707</v>
+        <v>0.016986920076099584</v>
       </c>
       <c r="H63" t="n">
-        <v>10.220020064675607</v>
+        <v>8.323032257483565</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1301842349865712</v>
+        <v>0.10808893219125643</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1919650290763836</v>
+        <v>0.17467643530608756</v>
       </c>
     </row>
     <row r="64">
@@ -22663,22 +22663,22 @@
         <v>37</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5812712947107023</v>
+        <v>0.5480845408824518</v>
       </c>
       <c r="G64" t="n">
-        <v>0.025455830519213393</v>
+        <v>0.028444024069309903</v>
       </c>
       <c r="H64" t="n">
-        <v>22.834505213725947</v>
+        <v>19.268881911607426</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5313787836964885</v>
+        <v>0.492335278131214</v>
       </c>
       <c r="K64" t="n">
-        <v>0.631163805724916</v>
+        <v>0.6038338036336897</v>
       </c>
     </row>
     <row r="65">
@@ -22698,22 +22698,22 @@
         <v>37</v>
       </c>
       <c r="F65" t="n">
-        <v>0.20201659785532478</v>
+        <v>0.18622703349135641</v>
       </c>
       <c r="G65" t="n">
-        <v>0.015140384450912835</v>
+        <v>0.016641545092343283</v>
       </c>
       <c r="H65" t="n">
-        <v>13.342897501070055</v>
+        <v>11.190489372109974</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.17234198961944538</v>
+        <v>0.1536102044632643</v>
       </c>
       <c r="K65" t="n">
-        <v>0.23169120609120417</v>
+        <v>0.21884386251944854</v>
       </c>
     </row>
     <row r="66">
@@ -22873,22 +22873,22 @@
         <v>37</v>
       </c>
       <c r="F70" t="n">
-        <v>1.3266517774419273</v>
+        <v>1.313264201786121</v>
       </c>
       <c r="G70" t="n">
-        <v>0.014136118848525238</v>
+        <v>0.014350436324263707</v>
       </c>
       <c r="H70" t="n">
-        <v>93.84837462514199</v>
+        <v>91.51388655449136</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.2989454936176401</v>
+        <v>1.2851378634281287</v>
       </c>
       <c r="K70" t="n">
-        <v>1.3543580612662145</v>
+        <v>1.341390540144113</v>
       </c>
     </row>
     <row r="71">
@@ -22908,22 +22908,22 @@
         <v>37</v>
       </c>
       <c r="F71" t="n">
-        <v>1.2339933683024142</v>
+        <v>1.2176897126631119</v>
       </c>
       <c r="G71" t="n">
-        <v>0.012708326376868946</v>
+        <v>0.012767416090409612</v>
       </c>
       <c r="H71" t="n">
-        <v>97.10117065835409</v>
+        <v>95.37479659473095</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.2090855062999708</v>
+        <v>1.192666036950272</v>
       </c>
       <c r="K71" t="n">
-        <v>1.2589012303048577</v>
+        <v>1.2427133883759518</v>
       </c>
     </row>
     <row r="72">
@@ -22943,22 +22943,22 @@
         <v>37</v>
       </c>
       <c r="F72" t="n">
-        <v>1.2166742203624756</v>
+        <v>1.1888022738293589</v>
       </c>
       <c r="G72" t="n">
-        <v>0.010334373460173372</v>
+        <v>0.012347127734338758</v>
       </c>
       <c r="H72" t="n">
-        <v>117.73081600459834</v>
+        <v>96.28168586311499</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.1964192205777493</v>
+        <v>1.1646023481575394</v>
       </c>
       <c r="K72" t="n">
-        <v>1.236929220147202</v>
+        <v>1.2130021995011784</v>
       </c>
     </row>
     <row r="73">
@@ -22978,22 +22978,22 @@
         <v>37</v>
       </c>
       <c r="F73" t="n">
-        <v>1.5405867572774161</v>
+        <v>1.500427373645344</v>
       </c>
       <c r="G73" t="n">
-        <v>0.017112613665027563</v>
+        <v>0.02083571551000351</v>
       </c>
       <c r="H73" t="n">
-        <v>90.02638564942643</v>
+        <v>72.01227972828524</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.5070466508126141</v>
+        <v>1.4595901216536145</v>
       </c>
       <c r="K73" t="n">
-        <v>1.574126863742218</v>
+        <v>1.5412646256370734</v>
       </c>
     </row>
     <row r="74">
@@ -23013,22 +23013,22 @@
         <v>37</v>
       </c>
       <c r="F74" t="n">
-        <v>1.2085847174179283</v>
+        <v>1.1890089566585713</v>
       </c>
       <c r="G74" t="n">
-        <v>0.012179354507634677</v>
+        <v>0.01444717751048191</v>
       </c>
       <c r="H74" t="n">
-        <v>99.23224721477006</v>
+        <v>82.30043244058609</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.1847136212280187</v>
+        <v>1.1606930090597698</v>
       </c>
       <c r="K74" t="n">
-        <v>1.2324558136078378</v>
+        <v>1.2173249042573728</v>
       </c>
     </row>
     <row r="75">
@@ -23048,22 +23048,22 @@
         <v>37</v>
       </c>
       <c r="F75" t="n">
-        <v>1.7364316812376475</v>
+        <v>1.7138321594438142</v>
       </c>
       <c r="G75" t="n">
-        <v>0.021065501664021283</v>
+        <v>0.02177849101807659</v>
       </c>
       <c r="H75" t="n">
-        <v>82.43011293689612</v>
+        <v>78.69379738115458</v>
       </c>
       <c r="I75" t="n">
         <v>0.0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.6951440566598972</v>
+        <v>1.671147101410755</v>
       </c>
       <c r="K75" t="n">
-        <v>1.7777193058153977</v>
+        <v>1.7565172174768733</v>
       </c>
     </row>
     <row r="76">
@@ -23083,22 +23083,22 @@
         <v>37</v>
       </c>
       <c r="F76" t="n">
-        <v>1.6362819901209138</v>
+        <v>1.6095941976059056</v>
       </c>
       <c r="G76" t="n">
-        <v>0.020677144127000946</v>
+        <v>0.02157100497848331</v>
       </c>
       <c r="H76" t="n">
-        <v>79.13481572071643</v>
+        <v>74.61841482172235</v>
       </c>
       <c r="I76" t="n">
         <v>0.0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.5957555323288481</v>
+        <v>1.5673158047377442</v>
       </c>
       <c r="K76" t="n">
-        <v>1.6768084479129794</v>
+        <v>1.651872590474067</v>
       </c>
     </row>
     <row r="77">
@@ -23118,22 +23118,22 @@
         <v>37</v>
       </c>
       <c r="F77" t="n">
-        <v>1.646239931976478</v>
+        <v>1.6067965442816425</v>
       </c>
       <c r="G77" t="n">
-        <v>0.017373707645753356</v>
+        <v>0.021818766766425877</v>
       </c>
       <c r="H77" t="n">
-        <v>94.75466984612622</v>
+        <v>73.64286723822252</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.6121880907128732</v>
+        <v>1.5640325472323684</v>
       </c>
       <c r="K77" t="n">
-        <v>1.6802917732400828</v>
+        <v>1.6495605413309167</v>
       </c>
     </row>
     <row r="78">
@@ -23153,22 +23153,22 @@
         <v>37</v>
       </c>
       <c r="F78" t="n">
-        <v>1.904282712386679</v>
+        <v>1.8648624823054156</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02149333142208608</v>
+        <v>0.0266096058641068</v>
       </c>
       <c r="H78" t="n">
-        <v>88.59876931083284</v>
+        <v>70.08230380521697</v>
       </c>
       <c r="I78" t="n">
         <v>0.0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.8621565568916072</v>
+        <v>1.8127086131689605</v>
       </c>
       <c r="K78" t="n">
-        <v>1.9464088678817508</v>
+        <v>1.9170163514418708</v>
       </c>
     </row>
     <row r="79">
@@ -23188,22 +23188,22 @@
         <v>37</v>
       </c>
       <c r="F79" t="n">
-        <v>1.8472329670818763</v>
+        <v>1.8172689344832318</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02168065579171388</v>
+        <v>0.026977742610768553</v>
       </c>
       <c r="H79" t="n">
-        <v>85.20189540520585</v>
+        <v>67.36178636969584</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.8047396625689074</v>
+        <v>1.7643935305819338</v>
       </c>
       <c r="K79" t="n">
-        <v>1.8897262715948453</v>
+        <v>1.8701443383845298</v>
       </c>
     </row>
     <row r="80">
